--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C430"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,5582 +448,5988 @@
           <t>TwitterSentiment</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1845</v>
+        <v>0.0692</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-03-11</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1139</v>
+        <v>0.2014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1451</v>
+        <v>0.2272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1888</v>
+        <v>0.1553</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1551</v>
+        <v>0.0626</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221</v>
+        <v>0.1045</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1428</v>
+        <v>0.1185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.194</v>
+        <v>0.2476</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1782</v>
+        <v>0.2134</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1967</v>
+        <v>0.1958</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21</v>
+        <v>0.1816</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1613</v>
+        <v>0.1843</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1768</v>
+        <v>0.2027</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1712</v>
+        <v>0.1533</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1549</v>
+        <v>0.1252</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1104</v>
+        <v>0.0466</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139</v>
+        <v>0.1156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1278</v>
+        <v>0.1513</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0152</v>
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0107</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2734</v>
+        <v>0.15</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-02-19</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201</v>
+        <v>0.1962</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1499</v>
+        <v>0.1031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2037</v>
+        <v>0.1278</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1898</v>
+        <v>0.1052</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2371</v>
+        <v>0.1043</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1968</v>
+        <v>0.1646</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2305</v>
+        <v>-0.07829999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-02-12</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2336</v>
+        <v>0.07389999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-02-11</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C31" t="n">
-        <v>0.128</v>
+        <v>0.1455</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2023-02-10</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1394</v>
+        <v>0.1368</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-02-09</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.4151</v>
+        <v>0.1208</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1837</v>
+        <v>0.1411</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1619</v>
+        <v>0.1308</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1399</v>
+        <v>0.135</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1515</v>
+        <v>0.1032</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1412</v>
+        <v>0.1887</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1517</v>
+        <v>0.1706</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14</v>
+        <v>0.1526</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0335</v>
+        <v>0.1497</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-01-31</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1073</v>
+        <v>0.1315</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-01-30</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1355</v>
+        <v>0.1257</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2023-01-29</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1381</v>
+        <v>0.1471</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2023-01-28</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0581</v>
+        <v>0.1436</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-01-27</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0518</v>
+        <v>0.1464</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2023-01-26</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0176</v>
+        <v>0.1753</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2023-01-25</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1571</v>
+        <v>0.0902</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2023-01-24</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1508</v>
+        <v>0.1072</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-01-23</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1547</v>
+        <v>0.1338</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023-01-22</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2123</v>
+        <v>0.1626</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023-01-21</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1619</v>
+        <v>0.1378</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-01-20</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2419</v>
+        <v>0.1241</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-01-19</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1976</v>
+        <v>0.1256</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-01-18</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2186</v>
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-01-17</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2337</v>
+        <v>0.1149</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C57" t="n">
-        <v>0.243</v>
+        <v>0.1185</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-01-15</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1824</v>
+        <v>0.1027</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-01-14</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1375</v>
+        <v>0.077</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1737</v>
+        <v>0.0735</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-01-12</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C61" t="n">
-        <v>0.157</v>
+        <v>0.102</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023-01-11</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2297</v>
+        <v>0.07389999999999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-01-10</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2433</v>
+        <v>-0.0472</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-01-09</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1749</v>
+        <v>0.0387</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-01-08</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206</v>
+        <v>0.1028</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023-01-07</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1842</v>
+        <v>0.0905</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023-01-06</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2353</v>
+        <v>0.0243</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-01-05</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21</v>
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-01-04</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C69" t="n">
-        <v>0.192</v>
+        <v>0.09039999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023-01-03</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1961</v>
+        <v>0.0588</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-01-02</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C71" t="n">
-        <v>0.192</v>
+        <v>0.0559</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1139</v>
+        <v>0.09619999999999999</v>
+      </c>
+      <c r="D72" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174</v>
+        <v>0.1308</v>
+      </c>
+      <c r="D73" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022-12-30</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1784</v>
+        <v>0.1135</v>
+      </c>
+      <c r="D74" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022-12-29</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1452</v>
+        <v>0.082</v>
+      </c>
+      <c r="D75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022-12-28</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1772</v>
+        <v>0.0692</v>
+      </c>
+      <c r="D76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022-12-27</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2103</v>
+        <v>0.0101</v>
+      </c>
+      <c r="D77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022-12-26</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1831</v>
+        <v>0.0809</v>
+      </c>
+      <c r="D78" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022-12-25</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2021</v>
+        <v>0.0917</v>
+      </c>
+      <c r="D79" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022-12-24</t>
-        </is>
+      <c r="B80" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1623</v>
+        <v>0.1129</v>
+      </c>
+      <c r="D80" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022-12-23</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2272</v>
+        <v>0.0822</v>
+      </c>
+      <c r="D81" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022-12-22</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1733</v>
+        <v>0.1056</v>
+      </c>
+      <c r="D82" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022-12-21</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2156</v>
+        <v>0.1114</v>
+      </c>
+      <c r="D83" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022-12-20</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2127</v>
+        <v>0.0941</v>
+      </c>
+      <c r="D84" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022-12-19</t>
-        </is>
+      <c r="B85" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2075</v>
+        <v>0.1105</v>
+      </c>
+      <c r="D85" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022-12-18</t>
-        </is>
+      <c r="B86" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1248</v>
+        <v>0.1019</v>
+      </c>
+      <c r="D86" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022-12-17</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2618</v>
+        <v>0.0805</v>
+      </c>
+      <c r="D87" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022-12-16</t>
-        </is>
+      <c r="B88" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1846</v>
+        <v>0.0743</v>
+      </c>
+      <c r="D88" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022-12-15</t>
-        </is>
+      <c r="B89" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1993</v>
+        <v>0.1471</v>
+      </c>
+      <c r="D89" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022-12-14</t>
-        </is>
+      <c r="B90" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2083</v>
+        <v>0.0849</v>
+      </c>
+      <c r="D90" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022-12-13</t>
-        </is>
+      <c r="B91" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2208</v>
+        <v>0.07820000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022-12-12</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2049</v>
+        <v>0.08019999999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022-12-11</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2037</v>
+        <v>0.1609</v>
+      </c>
+      <c r="D93" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022-12-10</t>
-        </is>
+      <c r="B94" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2299</v>
+        <v>0.07530000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022-12-09</t>
-        </is>
+      <c r="B95" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1923</v>
+        <v>0.0533</v>
+      </c>
+      <c r="D95" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022-12-08</t>
-        </is>
+      <c r="B96" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1452</v>
+        <v>0.0609</v>
+      </c>
+      <c r="D96" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022-12-07</t>
-        </is>
+      <c r="B97" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2009</v>
+        <v>0.0779</v>
+      </c>
+      <c r="D97" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022-12-06</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1359</v>
+        <v>0.0717</v>
+      </c>
+      <c r="D98" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022-12-05</t>
-        </is>
+      <c r="B99" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1537</v>
+        <v>0.027</v>
+      </c>
+      <c r="D99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022-12-04</t>
-        </is>
+      <c r="B100" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143</v>
+        <v>0.159</v>
+      </c>
+      <c r="D100" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022-12-03</t>
-        </is>
+      <c r="B101" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1692</v>
+        <v>0.1456</v>
+      </c>
+      <c r="D101" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022-12-02</t>
-        </is>
+      <c r="B102" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C102" t="n">
-        <v>0.199</v>
+        <v>0.2151</v>
+      </c>
+      <c r="D102" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
+      <c r="B103" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1875</v>
+        <v>0.1138</v>
+      </c>
+      <c r="D103" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022-11-30</t>
-        </is>
+      <c r="B104" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1501</v>
+        <v>0.1268</v>
+      </c>
+      <c r="D104" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022-11-29</t>
-        </is>
+      <c r="B105" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C105" t="n">
-        <v>0.157</v>
+        <v>0.0009</v>
+      </c>
+      <c r="D105" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022-11-28</t>
-        </is>
+      <c r="B106" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1908</v>
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="D106" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022-11-27</t>
-        </is>
+      <c r="B107" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2098</v>
+        <v>0.1155</v>
+      </c>
+      <c r="D107" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022-11-26</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1988</v>
+        <v>0.1366</v>
+      </c>
+      <c r="D108" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022-11-25</t>
-        </is>
+      <c r="B109" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1491</v>
+        <v>0.1335</v>
+      </c>
+      <c r="D109" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022-11-24</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1844</v>
+        <v>0.164</v>
+      </c>
+      <c r="D110" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022-11-23</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1364</v>
+        <v>0.09130000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="B112" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1537</v>
+        <v>0.0885</v>
+      </c>
+      <c r="D112" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022-11-21</t>
-        </is>
+      <c r="B113" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C113" t="n">
-        <v>0.151</v>
+        <v>0.1042</v>
+      </c>
+      <c r="D113" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022-11-20</t>
-        </is>
+      <c r="B114" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C114" t="n">
-        <v>0.137</v>
+        <v>0.1287</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022-11-19</t>
-        </is>
+      <c r="B115" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2061</v>
+        <v>0.1228</v>
+      </c>
+      <c r="D115" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022-11-18</t>
-        </is>
+      <c r="B116" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1733</v>
+        <v>0.1159</v>
+      </c>
+      <c r="D116" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022-11-17</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2029</v>
+        <v>0.1137</v>
+      </c>
+      <c r="D117" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022-11-16</t>
-        </is>
+      <c r="B118" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1214</v>
+        <v>0.098</v>
+      </c>
+      <c r="D118" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022-11-15</t>
-        </is>
+      <c r="B119" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1592</v>
+        <v>0.1046</v>
+      </c>
+      <c r="D119" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022-11-14</t>
-        </is>
+      <c r="B120" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1941</v>
+        <v>0.0842</v>
+      </c>
+      <c r="D120" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="B121" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1909</v>
+        <v>0.08459999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022-11-12</t>
-        </is>
+      <c r="B122" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C122" t="n">
-        <v>0.246</v>
+        <v>0.1065</v>
+      </c>
+      <c r="D122" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022-11-11</t>
-        </is>
+      <c r="B123" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1279</v>
+        <v>0.116</v>
+      </c>
+      <c r="D123" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022-11-10</t>
-        </is>
+      <c r="B124" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1673</v>
+        <v>0.0649</v>
+      </c>
+      <c r="D124" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="B125" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C125" t="n">
-        <v>0.11</v>
+        <v>0.1581</v>
+      </c>
+      <c r="D125" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022-11-08</t>
-        </is>
+      <c r="B126" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1382</v>
+        <v>0.0339</v>
+      </c>
+      <c r="D126" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022-11-07</t>
-        </is>
+      <c r="B127" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1534</v>
+        <v>0.0227</v>
+      </c>
+      <c r="D127" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022-11-06</t>
-        </is>
+      <c r="B128" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1312</v>
+        <v>0.2103</v>
+      </c>
+      <c r="D128" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="B129" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1788</v>
+        <v>0.1577</v>
+      </c>
+      <c r="D129" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022-11-04</t>
-        </is>
+      <c r="B130" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1743</v>
+        <v>0.0788</v>
+      </c>
+      <c r="D130" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022-11-03</t>
-        </is>
+      <c r="B131" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2049</v>
+        <v>0.1123</v>
+      </c>
+      <c r="D131" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
+      <c r="B132" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1726</v>
+        <v>0.111</v>
+      </c>
+      <c r="D132" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022-11-01</t>
-        </is>
+      <c r="B133" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1681</v>
+        <v>0.1452</v>
+      </c>
+      <c r="D133" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022-10-31</t>
-        </is>
+      <c r="B134" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0882</v>
+        <v>0.1006</v>
+      </c>
+      <c r="D134" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022-10-30</t>
-        </is>
+      <c r="B135" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C135" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.195</v>
+      </c>
+      <c r="D135" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022-10-29</t>
-        </is>
+      <c r="B136" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2706</v>
+        <v>0.1276</v>
+      </c>
+      <c r="D136" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022-10-28</t>
-        </is>
+      <c r="B137" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1412</v>
+        <v>0.1554</v>
+      </c>
+      <c r="D137" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
+      <c r="B138" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1378</v>
+        <v>0.1265</v>
+      </c>
+      <c r="D138" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022-10-26</t>
-        </is>
+      <c r="B139" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1336</v>
+        <v>0.1062</v>
+      </c>
+      <c r="D139" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022-10-25</t>
-        </is>
+      <c r="B140" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C140" t="n">
-        <v>0.138</v>
+        <v>0.1318</v>
+      </c>
+      <c r="D140" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022-10-24</t>
-        </is>
+      <c r="B141" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2227</v>
+        <v>0.0616</v>
+      </c>
+      <c r="D141" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022-10-23</t>
-        </is>
+      <c r="B142" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1767</v>
+        <v>0.2109</v>
+      </c>
+      <c r="D142" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022-10-22</t>
-        </is>
+      <c r="B143" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0843</v>
+        <v>0.1981</v>
+      </c>
+      <c r="D143" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022-10-21</t>
-        </is>
+      <c r="B144" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1323</v>
+        <v>0.1303</v>
+      </c>
+      <c r="D144" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022-10-20</t>
-        </is>
+      <c r="B145" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1377</v>
+        <v>0.0956</v>
+      </c>
+      <c r="D145" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022-10-19</t>
-        </is>
+      <c r="B146" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1557</v>
+        <v>0.1155</v>
+      </c>
+      <c r="D146" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022-10-18</t>
-        </is>
+      <c r="B147" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C147" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.106</v>
+      </c>
+      <c r="D147" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022-10-17</t>
-        </is>
+      <c r="B148" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1125</v>
+        <v>0.1281</v>
+      </c>
+      <c r="D148" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="B149" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1568</v>
+        <v>0.1538</v>
+      </c>
+      <c r="D149" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022-10-15</t>
-        </is>
+      <c r="B150" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1505</v>
+        <v>0.1054</v>
+      </c>
+      <c r="D150" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022-10-14</t>
-        </is>
+      <c r="B151" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1673</v>
+        <v>0.0912</v>
+      </c>
+      <c r="D151" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022-10-13</t>
-        </is>
+      <c r="B152" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C152" t="n">
-        <v>0.083</v>
+        <v>0.1033</v>
+      </c>
+      <c r="D152" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022-10-12</t>
-        </is>
+      <c r="B153" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0131</v>
+        <v>0.1159</v>
+      </c>
+      <c r="D153" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022-10-11</t>
-        </is>
+      <c r="B154" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0223</v>
+        <v>0.0922</v>
+      </c>
+      <c r="D154" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022-10-10</t>
-        </is>
+      <c r="B155" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1319</v>
+        <v>0.1131</v>
+      </c>
+      <c r="D155" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022-10-09</t>
-        </is>
+      <c r="B156" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1269</v>
+        <v>0.0906</v>
+      </c>
+      <c r="D156" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022-10-08</t>
-        </is>
+      <c r="B157" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1388</v>
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022-10-07</t>
-        </is>
+      <c r="B158" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0102</v>
+        <v>0.1474</v>
+      </c>
+      <c r="D158" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022-10-06</t>
-        </is>
+      <c r="B159" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0857</v>
+        <v>0.1655</v>
+      </c>
+      <c r="D159" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+      <c r="B160" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1696</v>
+        <v>0.1668</v>
+      </c>
+      <c r="D160" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
+      <c r="B161" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1704</v>
+        <v>0.1266</v>
+      </c>
+      <c r="D161" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022-10-03</t>
-        </is>
+      <c r="B162" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1431</v>
+        <v>0.1065</v>
+      </c>
+      <c r="D162" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022-10-02</t>
-        </is>
+      <c r="B163" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1622</v>
+        <v>0.1153</v>
+      </c>
+      <c r="D163" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="B164" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1029</v>
+        <v>0.0959</v>
+      </c>
+      <c r="D164" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022-09-30</t>
-        </is>
+      <c r="B165" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1207</v>
+        <v>0.124</v>
+      </c>
+      <c r="D165" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022-09-29</t>
-        </is>
+      <c r="B166" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C166" t="n">
-        <v>0.129</v>
+        <v>0.0984</v>
+      </c>
+      <c r="D166" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022-09-28</t>
-        </is>
+      <c r="B167" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1965</v>
+        <v>0.1141</v>
+      </c>
+      <c r="D167" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022-09-27</t>
-        </is>
+      <c r="B168" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1624</v>
+        <v>0.1348</v>
+      </c>
+      <c r="D168" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022-09-26</t>
-        </is>
+      <c r="B169" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1616</v>
+        <v>0.1508</v>
+      </c>
+      <c r="D169" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022-09-25</t>
-        </is>
+      <c r="B170" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1184</v>
+        <v>0.1659</v>
+      </c>
+      <c r="D170" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022-09-24</t>
-        </is>
+      <c r="B171" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1403</v>
+        <v>0.132</v>
+      </c>
+      <c r="D171" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
+      <c r="B172" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1352</v>
+        <v>0.1044</v>
+      </c>
+      <c r="D172" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022-09-22</t>
-        </is>
+      <c r="B173" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C173" t="n">
-        <v>0.141</v>
+        <v>0.089</v>
+      </c>
+      <c r="D173" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022-09-21</t>
-        </is>
+      <c r="B174" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2015</v>
+        <v>0.1141</v>
+      </c>
+      <c r="D174" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022-09-20</t>
-        </is>
+      <c r="B175" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1079</v>
+        <v>0.09320000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022-09-19</t>
-        </is>
+      <c r="B176" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.0241</v>
+        <v>0.09320000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="B177" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1727</v>
+        <v>0.1244</v>
+      </c>
+      <c r="D177" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022-09-17</t>
-        </is>
+      <c r="B178" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1193</v>
+        <v>0.1559</v>
+      </c>
+      <c r="D178" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022-09-16</t>
-        </is>
+      <c r="B179" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1061</v>
+        <v>0.152</v>
+      </c>
+      <c r="D179" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022-09-15</t>
-        </is>
+      <c r="B180" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1083</v>
+        <v>0.142</v>
+      </c>
+      <c r="D180" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
+      <c r="B181" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C181" t="n">
-        <v>0.078</v>
+        <v>0.0961</v>
+      </c>
+      <c r="D181" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022-09-13</t>
-        </is>
+      <c r="B182" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1374</v>
+        <v>0.1259</v>
+      </c>
+      <c r="D182" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022-09-12</t>
-        </is>
+      <c r="B183" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1363</v>
+        <v>0.1431</v>
+      </c>
+      <c r="D183" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022-09-11</t>
-        </is>
+      <c r="B184" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2052</v>
+        <v>0.2117</v>
+      </c>
+      <c r="D184" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
+      <c r="B185" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1294</v>
+        <v>0.1518</v>
+      </c>
+      <c r="D185" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
+      <c r="B186" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0959</v>
+        <v>0.1434</v>
+      </c>
+      <c r="D186" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
+      <c r="B187" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C187" t="n">
-        <v>0.051</v>
+        <v>0.1894</v>
+      </c>
+      <c r="D187" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
+      <c r="B188" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0577</v>
+        <v>0.1723</v>
+      </c>
+      <c r="D188" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
+      <c r="B189" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C189" t="n">
-        <v>0.068</v>
+        <v>0.1107</v>
+      </c>
+      <c r="D189" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
+      <c r="B190" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1771</v>
+        <v>0.1581</v>
+      </c>
+      <c r="D190" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
+      <c r="B191" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1554</v>
+        <v>0.18</v>
+      </c>
+      <c r="D191" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
+      <c r="B192" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1518</v>
+        <v>0.2458</v>
+      </c>
+      <c r="D192" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
+      <c r="B193" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1128</v>
+        <v>0.1554</v>
+      </c>
+      <c r="D193" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
+      <c r="B194" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0958</v>
+        <v>0.1287</v>
+      </c>
+      <c r="D194" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
+      <c r="B195" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1242</v>
+        <v>0.1132</v>
+      </c>
+      <c r="D195" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
+      <c r="B196" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C196" t="n">
-        <v>0.16</v>
+        <v>0.1238</v>
+      </c>
+      <c r="D196" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+      <c r="B197" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2146</v>
+        <v>0.1109</v>
+      </c>
+      <c r="D197" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
+      <c r="B198" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1872</v>
+        <v>0.167</v>
+      </c>
+      <c r="D198" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
+      <c r="B199" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1488</v>
+        <v>0.1482</v>
+      </c>
+      <c r="D199" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
+      <c r="B200" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1156</v>
+        <v>0.1228</v>
+      </c>
+      <c r="D200" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
+      <c r="B201" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1122</v>
+        <v>0.1508</v>
+      </c>
+      <c r="D201" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
+      <c r="B202" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2076</v>
+        <v>0.1282</v>
+      </c>
+      <c r="D202" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
+      <c r="B203" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1652</v>
+        <v>0.1186</v>
+      </c>
+      <c r="D203" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
+      <c r="B204" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1011</v>
+        <v>0.1327</v>
+      </c>
+      <c r="D204" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="B205" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1095</v>
+        <v>0.1693</v>
+      </c>
+      <c r="D205" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
+      <c r="B206" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1404</v>
+        <v>0.1732</v>
+      </c>
+      <c r="D206" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
+      <c r="B207" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1471</v>
+        <v>0.1717</v>
+      </c>
+      <c r="D207" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
+      <c r="B208" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1874</v>
+        <v>0.1556</v>
+      </c>
+      <c r="D208" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
+      <c r="B209" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1636</v>
+        <v>0.1204</v>
+      </c>
+      <c r="D209" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
+      <c r="B210" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1841</v>
+        <v>0.1394</v>
+      </c>
+      <c r="D210" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
+      <c r="B211" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1971</v>
+        <v>0.131</v>
+      </c>
+      <c r="D211" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
+      <c r="B212" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1567</v>
+        <v>0.1345</v>
+      </c>
+      <c r="D212" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="B213" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1509</v>
+        <v>0.1675</v>
+      </c>
+      <c r="D213" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
+      <c r="B214" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1976</v>
+        <v>0.1009</v>
+      </c>
+      <c r="D214" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
+      <c r="B215" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1715</v>
+        <v>0.1395</v>
+      </c>
+      <c r="D215" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
+      <c r="B216" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1081</v>
+        <v>0.1601</v>
+      </c>
+      <c r="D216" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
+      <c r="B217" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0091</v>
+        <v>-0.1167</v>
+      </c>
+      <c r="D217" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2022-07-29</t>
-        </is>
+      <c r="B218" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.0311</v>
+        <v>0.234</v>
+      </c>
+      <c r="D218" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2022-07-28</t>
-        </is>
+      <c r="B219" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0005</v>
+        <v>0.1357</v>
+      </c>
+      <c r="D219" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
+      <c r="B220" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1744</v>
+        <v>0.09180000000000001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2022-07-26</t>
-        </is>
+      <c r="B221" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1245</v>
+        <v>0.1265</v>
+      </c>
+      <c r="D221" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2022-07-25</t>
-        </is>
+      <c r="B222" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C222" t="n">
-        <v>0.19</v>
+        <v>0.1197</v>
+      </c>
+      <c r="D222" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2022-07-24</t>
-        </is>
+      <c r="B223" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2529</v>
+        <v>0.1561</v>
+      </c>
+      <c r="D223" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2022-07-23</t>
-        </is>
+      <c r="B224" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2207</v>
+        <v>0.1713</v>
+      </c>
+      <c r="D224" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2022-07-22</t>
-        </is>
+      <c r="B225" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1874</v>
+        <v>0.0762</v>
+      </c>
+      <c r="D225" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2022-07-21</t>
-        </is>
+      <c r="B226" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2267</v>
+        <v>0.0927</v>
+      </c>
+      <c r="D226" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2022-07-20</t>
-        </is>
+      <c r="B227" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3516</v>
+        <v>0.09370000000000001</v>
+      </c>
+      <c r="D227" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2022-07-19</t>
-        </is>
+      <c r="B228" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1214</v>
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="D228" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2022-07-18</t>
-        </is>
+      <c r="B229" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2001</v>
+        <v>0.0828</v>
+      </c>
+      <c r="D229" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2022-07-17</t>
-        </is>
+      <c r="B230" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1651</v>
+        <v>0.1656</v>
+      </c>
+      <c r="D230" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2022-07-16</t>
-        </is>
+      <c r="B231" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C231" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0925</v>
+      </c>
+      <c r="D231" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2022-07-15</t>
-        </is>
+      <c r="B232" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1445</v>
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="D232" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2022-07-14</t>
-        </is>
+      <c r="B233" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1131</v>
+        <v>0.1169</v>
+      </c>
+      <c r="D233" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2022-07-13</t>
-        </is>
+      <c r="B234" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1103</v>
+        <v>0.1065</v>
+      </c>
+      <c r="D234" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2022-07-12</t>
-        </is>
+      <c r="B235" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0558</v>
+        <v>0.0993</v>
+      </c>
+      <c r="D235" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2022-07-11</t>
-        </is>
+      <c r="B236" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1168</v>
+        <v>0.1143</v>
+      </c>
+      <c r="D236" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
+      <c r="B237" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C237" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.1582</v>
+      </c>
+      <c r="D237" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
+      <c r="B238" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0912</v>
+        <v>0.1411</v>
+      </c>
+      <c r="D238" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2022-07-08</t>
-        </is>
+      <c r="B239" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1488</v>
+        <v>0.1312</v>
+      </c>
+      <c r="D239" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2022-07-07</t>
-        </is>
+      <c r="B240" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1256</v>
+        <v>0.0725</v>
+      </c>
+      <c r="D240" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2022-07-06</t>
-        </is>
+      <c r="B241" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C241" t="n">
-        <v>0.0936</v>
+        <v>0.11</v>
+      </c>
+      <c r="D241" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2022-07-05</t>
-        </is>
+      <c r="B242" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0353</v>
+        <v>0.0833</v>
+      </c>
+      <c r="D242" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
+      <c r="B243" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1615</v>
+        <v>0.0721</v>
+      </c>
+      <c r="D243" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2022-07-03</t>
-        </is>
+      <c r="B244" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1113</v>
+        <v>0.08359999999999999</v>
+      </c>
+      <c r="D244" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2022-07-02</t>
-        </is>
+      <c r="B245" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C245" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0997</v>
+      </c>
+      <c r="D245" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2022-07-01</t>
-        </is>
+      <c r="B246" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1328</v>
+        <v>0.0781</v>
+      </c>
+      <c r="D246" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
+      <c r="B247" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0987</v>
+        <v>0.0526</v>
+      </c>
+      <c r="D247" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2022-06-29</t>
-        </is>
+      <c r="B248" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0332</v>
+        <v>0.0934</v>
+      </c>
+      <c r="D248" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2022-06-28</t>
-        </is>
+      <c r="B249" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C249" t="n">
-        <v>0.049</v>
+        <v>0.1142</v>
+      </c>
+      <c r="D249" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2022-06-27</t>
-        </is>
+      <c r="B250" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1153</v>
+        <v>0.116</v>
+      </c>
+      <c r="D250" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="B251" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1013</v>
+        <v>0.0866</v>
+      </c>
+      <c r="D251" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>2022-06-25</t>
-        </is>
+      <c r="B252" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C252" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.1766</v>
+      </c>
+      <c r="D252" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2022-06-24</t>
-        </is>
+      <c r="B253" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C253" t="n">
-        <v>0.081</v>
+        <v>0.1105</v>
+      </c>
+      <c r="D253" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
+      <c r="B254" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.1181</v>
+        <v>0.0867</v>
+      </c>
+      <c r="D254" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2022-06-22</t>
-        </is>
+      <c r="B255" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C255" t="n">
-        <v>0.062</v>
+        <v>0.1018</v>
+      </c>
+      <c r="D255" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2022-06-21</t>
-        </is>
+      <c r="B256" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0038</v>
+        <v>0.1193</v>
+      </c>
+      <c r="D256" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
-        </is>
+      <c r="B257" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1649</v>
+        <v>0.1368</v>
+      </c>
+      <c r="D257" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
+      <c r="B258" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1227</v>
+        <v>0.1472</v>
+      </c>
+      <c r="D258" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2022-06-18</t>
-        </is>
+      <c r="B259" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1233</v>
+        <v>0.138</v>
+      </c>
+      <c r="D259" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2022-06-17</t>
-        </is>
+      <c r="B260" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0147</v>
+        <v>0.046</v>
+      </c>
+      <c r="D260" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
+      <c r="B261" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0701</v>
+        <v>0.1126</v>
+      </c>
+      <c r="D261" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
+      <c r="B262" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0599</v>
+        <v>0.1186</v>
+      </c>
+      <c r="D262" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2022-06-14</t>
-        </is>
+      <c r="B263" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1211</v>
+        <v>0.0939</v>
+      </c>
+      <c r="D263" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2022-06-13</t>
-        </is>
+      <c r="B264" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0442</v>
+        <v>0.09719999999999999</v>
+      </c>
+      <c r="D264" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2022-06-12</t>
-        </is>
+      <c r="B265" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1195</v>
+        <v>0.2385</v>
+      </c>
+      <c r="D265" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
+      <c r="B266" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1442</v>
+        <v>0.2231</v>
+      </c>
+      <c r="D266" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2022-06-10</t>
-        </is>
+      <c r="B267" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.0115</v>
+        <v>0.1541</v>
+      </c>
+      <c r="D267" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2022-06-09</t>
-        </is>
+      <c r="B268" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.0829</v>
+        <v>0.1387</v>
+      </c>
+      <c r="D268" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="B269" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.1691</v>
+        <v>0.0944</v>
+      </c>
+      <c r="D269" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
+      <c r="B270" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.068</v>
+        <v>0.1293</v>
+      </c>
+      <c r="D270" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2022-06-06</t>
-        </is>
+      <c r="B271" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1786</v>
+        <v>0.0951</v>
+      </c>
+      <c r="D271" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2022-06-05</t>
-        </is>
+      <c r="B272" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>0.1209</v>
+      </c>
+      <c r="D272" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="B273" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C273" t="n">
-        <v>0.0453</v>
+        <v>0.1012</v>
+      </c>
+      <c r="D273" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2022-06-03</t>
-        </is>
+      <c r="B274" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1362</v>
+        <v>0.0856</v>
+      </c>
+      <c r="D274" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2022-06-02</t>
-        </is>
+      <c r="B275" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1352</v>
+        <v>0.107</v>
+      </c>
+      <c r="D275" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
+      <c r="B276" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1778</v>
+        <v>0.0871</v>
+      </c>
+      <c r="D276" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2022-05-31</t>
-        </is>
+      <c r="B277" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C277" t="n">
-        <v>0.0281</v>
+        <v>0.0985</v>
+      </c>
+      <c r="D277" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2022-05-30</t>
-        </is>
+      <c r="B278" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C278" t="n">
-        <v>0.2983</v>
+        <v>0.1341</v>
+      </c>
+      <c r="D278" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
+      <c r="B279" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C279" t="n">
-        <v>0.2463</v>
+        <v>0.1664</v>
+      </c>
+      <c r="D279" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2022-05-28</t>
-        </is>
+      <c r="B280" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0493</v>
+        <v>0.0436</v>
+      </c>
+      <c r="D280" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2022-05-27</t>
-        </is>
+      <c r="B281" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2343</v>
+        <v>0.1312</v>
+      </c>
+      <c r="D281" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2022-05-26</t>
-        </is>
+      <c r="B282" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1166</v>
+        <v>0.1228</v>
+      </c>
+      <c r="D282" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2022-05-25</t>
-        </is>
+      <c r="B283" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0848</v>
+        <v>0.1465</v>
+      </c>
+      <c r="D283" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2022-05-24</t>
-        </is>
+      <c r="B284" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0936</v>
+        <v>0.07729999999999999</v>
+      </c>
+      <c r="D284" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+      <c r="B285" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C285" t="n">
-        <v>0.055</v>
+        <v>0.07240000000000001</v>
+      </c>
+      <c r="D285" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2022-05-22</t>
-        </is>
+      <c r="B286" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1202</v>
+        <v>0.1093</v>
+      </c>
+      <c r="D286" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
+      <c r="B287" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C287" t="n">
-        <v>0.0231</v>
+        <v>0.1382</v>
+      </c>
+      <c r="D287" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2022-05-20</t>
-        </is>
+      <c r="B288" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C288" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0129</v>
+      </c>
+      <c r="D288" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2022-05-19</t>
-        </is>
+      <c r="B289" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0473</v>
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="D289" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2022-05-18</t>
-        </is>
+      <c r="B290" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.2541</v>
+        <v>-0.0226</v>
+      </c>
+      <c r="D290" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2022-05-17</t>
-        </is>
+      <c r="B291" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.0067</v>
+        <v>-0.0276</v>
+      </c>
+      <c r="D291" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2022-05-16</t>
-        </is>
+      <c r="B292" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3444</v>
+        <v>0.0572</v>
+      </c>
+      <c r="D292" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
+      <c r="B293" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>0.1528</v>
+      </c>
+      <c r="D293" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2022-05-14</t>
-        </is>
+      <c r="B294" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>0.1888</v>
+      </c>
+      <c r="D294" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2022-05-13</t>
-        </is>
+      <c r="B295" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.0036</v>
+        <v>0.0771</v>
+      </c>
+      <c r="D295" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2022-05-12</t>
-        </is>
+      <c r="B296" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.0173</v>
+        <v>0.1075</v>
+      </c>
+      <c r="D296" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2022-05-11</t>
-        </is>
+      <c r="B297" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C297" t="n">
-        <v>0.0058</v>
+        <v>0.1632</v>
+      </c>
+      <c r="D297" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2022-05-10</t>
-        </is>
+      <c r="B298" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C298" t="n">
-        <v>0.0105</v>
+        <v>0.0403</v>
+      </c>
+      <c r="D298" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2022-05-09</t>
-        </is>
+      <c r="B299" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.0037</v>
+        <v>0.0838</v>
+      </c>
+      <c r="D299" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
+      <c r="B300" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.0065</v>
+        <v>0.0738</v>
+      </c>
+      <c r="D300" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2022-05-07</t>
-        </is>
+      <c r="B301" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>0.07770000000000001</v>
+      </c>
+      <c r="D301" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2022-05-06</t>
-        </is>
+      <c r="B302" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C302" t="n">
-        <v>0.0704</v>
+        <v>0.1374</v>
+      </c>
+      <c r="D302" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2022-05-05</t>
-        </is>
+      <c r="B303" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>0.0968</v>
+      </c>
+      <c r="D303" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2022-05-04</t>
-        </is>
+      <c r="B304" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1525</v>
+        <v>0.1028</v>
+      </c>
+      <c r="D304" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
+      <c r="B305" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C305" t="n">
-        <v>0.007</v>
+        <v>0.1173</v>
+      </c>
+      <c r="D305" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2022-05-02</t>
-        </is>
+      <c r="B306" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1242</v>
+        <v>0.1225</v>
+      </c>
+      <c r="D306" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="B307" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C307" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.077</v>
+      </c>
+      <c r="D307" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
+      <c r="B308" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C308" t="n">
-        <v>0.173</v>
+        <v>0.1041</v>
+      </c>
+      <c r="D308" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2022-04-29</t>
-        </is>
+      <c r="B309" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0801</v>
+        <v>0.1184</v>
+      </c>
+      <c r="D309" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2022-04-28</t>
-        </is>
+      <c r="B310" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C310" t="n">
-        <v>0.0432</v>
+        <v>0.0911</v>
+      </c>
+      <c r="D310" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2022-04-27</t>
-        </is>
+      <c r="B311" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1625</v>
+        <v>0.0525</v>
+      </c>
+      <c r="D311" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2022-04-26</t>
-        </is>
+      <c r="B312" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1167</v>
+        <v>0.0707</v>
+      </c>
+      <c r="D312" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
-        </is>
+      <c r="B313" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0738</v>
+        <v>0.0272</v>
+      </c>
+      <c r="D313" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2022-04-24</t>
-        </is>
+      <c r="B314" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C314" t="n">
-        <v>0.2864</v>
+        <v>0.0864</v>
+      </c>
+      <c r="D314" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2022-04-23</t>
-        </is>
+      <c r="B315" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1279</v>
+        <v>0.1117</v>
+      </c>
+      <c r="D315" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2022-04-22</t>
-        </is>
+      <c r="B316" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C316" t="n">
-        <v>0.09329999999999999</v>
+        <v>0.0442</v>
+      </c>
+      <c r="D316" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2022-04-21</t>
-        </is>
+      <c r="B317" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.0629</v>
+        <v>0.0174</v>
+      </c>
+      <c r="D317" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2022-04-20</t>
-        </is>
+      <c r="B318" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1035</v>
+        <v>0.0482</v>
+      </c>
+      <c r="D318" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2022-04-19</t>
-        </is>
+      <c r="B319" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0372</v>
+        <v>0.1009</v>
+      </c>
+      <c r="D319" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
+      <c r="B320" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1552</v>
+        <v>0.0815</v>
+      </c>
+      <c r="D320" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2022-04-17</t>
-        </is>
+      <c r="B321" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.0045</v>
+        <v>0.0979</v>
+      </c>
+      <c r="D321" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
+      <c r="B322" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.0682</v>
+        <v>0.0341</v>
+      </c>
+      <c r="D322" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2022-04-15</t>
-        </is>
+      <c r="B323" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C323" t="n">
-        <v>0.023</v>
+        <v>0.065</v>
+      </c>
+      <c r="D323" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2022-04-14</t>
-        </is>
+      <c r="B324" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.0194</v>
+        <v>0.0823</v>
+      </c>
+      <c r="D324" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2022-04-13</t>
-        </is>
+      <c r="B325" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0568</v>
+        <v>0.0969</v>
+      </c>
+      <c r="D325" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2022-04-12</t>
-        </is>
+      <c r="B326" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0455</v>
+        <v>0.1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2022-04-11</t>
-        </is>
+      <c r="B327" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0702</v>
+        <v>0.0849</v>
+      </c>
+      <c r="D327" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
+      <c r="B328" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C328" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.1386</v>
+      </c>
+      <c r="D328" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2022-04-09</t>
-        </is>
+      <c r="B329" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0153</v>
+        <v>0.1086</v>
+      </c>
+      <c r="D329" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2022-04-08</t>
-        </is>
+      <c r="B330" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0479</v>
+        <v>0.1226</v>
+      </c>
+      <c r="D330" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2022-04-07</t>
-        </is>
+      <c r="B331" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C331" t="n">
-        <v>0.0348</v>
+        <v>0.1105</v>
+      </c>
+      <c r="D331" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2022-04-06</t>
-        </is>
+      <c r="B332" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1981</v>
+        <v>0.1146</v>
+      </c>
+      <c r="D332" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2022-04-05</t>
-        </is>
+      <c r="B333" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C333" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.1123</v>
+      </c>
+      <c r="D333" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2022-04-04</t>
-        </is>
+      <c r="B334" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0703</v>
+        <v>0.08939999999999999</v>
+      </c>
+      <c r="D334" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2022-04-03</t>
-        </is>
+      <c r="B335" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C335" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.1308</v>
+      </c>
+      <c r="D335" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2022-04-02</t>
-        </is>
+      <c r="B336" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0912</v>
+        <v>0.1009</v>
+      </c>
+      <c r="D336" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2022-04-01</t>
-        </is>
+      <c r="B337" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1241</v>
+        <v>0.0741</v>
+      </c>
+      <c r="D337" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2022-03-31</t>
-        </is>
+      <c r="B338" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0451</v>
+        <v>0.1009</v>
+      </c>
+      <c r="D338" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2022-03-30</t>
-        </is>
+      <c r="B339" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0267</v>
+        <v>0.1269</v>
+      </c>
+      <c r="D339" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2022-03-29</t>
-        </is>
+      <c r="B340" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2444</v>
+        <v>0.08840000000000001</v>
+      </c>
+      <c r="D340" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
+      <c r="B341" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1722</v>
+        <v>0.1604</v>
+      </c>
+      <c r="D341" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2022-03-27</t>
-        </is>
+      <c r="B342" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C342" t="n">
-        <v>0.0847</v>
+        <v>0.1629</v>
+      </c>
+      <c r="D342" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2022-03-26</t>
-        </is>
+      <c r="B343" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C343" t="n">
-        <v>0.1592</v>
+        <v>0.1141</v>
+      </c>
+      <c r="D343" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2022-03-25</t>
-        </is>
+      <c r="B344" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C344" t="n">
-        <v>0.0445</v>
+        <v>0.1052</v>
+      </c>
+      <c r="D344" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>2022-03-24</t>
-        </is>
+      <c r="B345" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C345" t="n">
-        <v>0.152</v>
+        <v>0.1141</v>
+      </c>
+      <c r="D345" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2022-03-23</t>
-        </is>
+      <c r="B346" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3634</v>
+        <v>0.1369</v>
+      </c>
+      <c r="D346" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2022-03-22</t>
-        </is>
+      <c r="B347" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1911</v>
+        <v>0.116</v>
+      </c>
+      <c r="D347" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2022-03-21</t>
-        </is>
+      <c r="B348" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C348" t="n">
-        <v>0.0567</v>
+        <v>0.1071</v>
+      </c>
+      <c r="D348" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2022-03-20</t>
-        </is>
+      <c r="B349" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C349" t="n">
-        <v>0.4583</v>
+        <v>0.2643</v>
+      </c>
+      <c r="D349" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2022-03-19</t>
-        </is>
+      <c r="B350" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C350" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0414</v>
+      </c>
+      <c r="D350" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2022-03-18</t>
-        </is>
+      <c r="B351" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0172</v>
+        <v>0.1089</v>
+      </c>
+      <c r="D351" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2022-03-17</t>
-        </is>
+      <c r="B352" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0152</v>
+        <v>0.1101</v>
+      </c>
+      <c r="D352" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2022-03-16</t>
-        </is>
+      <c r="B353" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.017</v>
+        <v>0.1074</v>
+      </c>
+      <c r="D353" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2022-03-15</t>
-        </is>
+      <c r="B354" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C354" t="n">
-        <v>0.0419</v>
+        <v>0.1987</v>
+      </c>
+      <c r="D354" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
-        </is>
+      <c r="B355" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0953</v>
+        <v>0.057</v>
+      </c>
+      <c r="D355" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2022-03-13</t>
-        </is>
+      <c r="B356" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0645</v>
+        <v>0.067</v>
+      </c>
+      <c r="D356" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2022-03-12</t>
-        </is>
+      <c r="B357" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0426</v>
+        <v>0.115</v>
+      </c>
+      <c r="D357" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2022-03-11</t>
-        </is>
+      <c r="B358" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C358" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.1734</v>
+      </c>
+      <c r="D358" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2022-03-10</t>
-        </is>
+      <c r="B359" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C359" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0994</v>
+      </c>
+      <c r="D359" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2022-03-09</t>
-        </is>
+      <c r="B360" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1082</v>
+        <v>0.1186</v>
+      </c>
+      <c r="D360" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2022-03-08</t>
-        </is>
+      <c r="B361" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1734</v>
+        <v>0.0955</v>
+      </c>
+      <c r="D361" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2022-03-07</t>
-        </is>
+      <c r="B362" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C362" t="n">
-        <v>0.0589</v>
+        <v>0.1414</v>
+      </c>
+      <c r="D362" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
+      <c r="B363" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C363" t="n">
-        <v>0.0839</v>
+        <v>0.1197</v>
+      </c>
+      <c r="D363" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2022-03-05</t>
-        </is>
+      <c r="B364" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1087</v>
+        <v>0.13</v>
+      </c>
+      <c r="D364" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2022-03-04</t>
-        </is>
+      <c r="B365" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1594</v>
+        <v>0.0892</v>
+      </c>
+      <c r="D365" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2022-03-03</t>
-        </is>
+      <c r="B366" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>0.08210000000000001</v>
+      </c>
+      <c r="D366" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2022-03-02</t>
-        </is>
+      <c r="B367" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.0396</v>
+        <v>0.1338</v>
+      </c>
+      <c r="D367" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2022-03-01</t>
-        </is>
+      <c r="B368" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>0.252</v>
+      </c>
+      <c r="D368" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2022-02-28</t>
-        </is>
+      <c r="B369" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>0.099</v>
+      </c>
+      <c r="D369" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2022-02-27</t>
-        </is>
+      <c r="B370" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>0.062</v>
+      </c>
+      <c r="D370" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2022-02-26</t>
-        </is>
+      <c r="B371" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5144</v>
+        <v>0.1061</v>
+      </c>
+      <c r="D371" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2022-02-25</t>
-        </is>
+      <c r="B372" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1012</v>
+        <v>0.0355</v>
+      </c>
+      <c r="D372" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2022-02-24</t>
-        </is>
+      <c r="B373" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.1366</v>
+        <v>0.1499</v>
+      </c>
+      <c r="D373" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
+      <c r="B374" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1636</v>
+        <v>0.1345</v>
+      </c>
+      <c r="D374" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2022-02-22</t>
-        </is>
+      <c r="B375" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C375" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.1448</v>
+      </c>
+      <c r="D375" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2022-02-21</t>
-        </is>
+      <c r="B376" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1055</v>
+        <v>0.06619999999999999</v>
+      </c>
+      <c r="D376" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2022-02-20</t>
-        </is>
+      <c r="B377" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C377" t="n">
-        <v>0.2246</v>
+        <v>0.2655</v>
+      </c>
+      <c r="D377" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2022-02-19</t>
-        </is>
+      <c r="B378" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C378" t="n">
-        <v>0.3189</v>
+        <v>0.0573</v>
+      </c>
+      <c r="D378" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2022-02-18</t>
-        </is>
+      <c r="B379" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C379" t="n">
-        <v>0.0112</v>
+        <v>0.0931</v>
+      </c>
+      <c r="D379" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2022-02-17</t>
-        </is>
+      <c r="B380" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.0738</v>
+        <v>0.0574</v>
+      </c>
+      <c r="D380" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2022-02-16</t>
-        </is>
+      <c r="B381" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.2653</v>
+        <v>-0.0418</v>
+      </c>
+      <c r="D381" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2022-02-15</t>
-        </is>
+      <c r="B382" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0195</v>
+        <v>0.1652</v>
+      </c>
+      <c r="D382" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2022-02-14</t>
-        </is>
+      <c r="B383" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C383" t="n">
-        <v>0.5368000000000001</v>
+        <v>0.0341</v>
+      </c>
+      <c r="D383" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2022-02-13</t>
-        </is>
+      <c r="B384" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>0.0878</v>
+      </c>
+      <c r="D384" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2022-02-12</t>
-        </is>
+      <c r="B385" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C385" t="n">
-        <v>0.255</v>
+        <v>0.1898</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
-        </is>
+      <c r="B386" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.1226</v>
+        <v>0.1777</v>
+      </c>
+      <c r="D386" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2022-02-10</t>
-        </is>
+      <c r="B387" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0405</v>
+        <v>0.0755</v>
+      </c>
+      <c r="D387" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2022-02-09</t>
-        </is>
+      <c r="B388" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1123</v>
+        <v>0.2259</v>
+      </c>
+      <c r="D388" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2022-02-08</t>
-        </is>
+      <c r="B389" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C389" t="n">
-        <v>0.2732</v>
+        <v>0.284</v>
+      </c>
+      <c r="D389" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2022-02-07</t>
-        </is>
+      <c r="B390" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C390" t="n">
-        <v>0.6808</v>
+        <v>0.2019</v>
+      </c>
+      <c r="D390" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2022-02-06</t>
-        </is>
+      <c r="B391" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>0.2947</v>
+      </c>
+      <c r="D391" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2022-02-05</t>
-        </is>
+      <c r="B392" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C392" t="n">
-        <v>0.0956</v>
+        <v>0.1646</v>
+      </c>
+      <c r="D392" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2022-02-04</t>
-        </is>
+      <c r="B393" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C393" t="n">
-        <v>0.0407</v>
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="D393" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2022-02-03</t>
-        </is>
+      <c r="B394" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C394" t="n">
-        <v>0.155</v>
+        <v>0.0759</v>
+      </c>
+      <c r="D394" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2022-02-02</t>
-        </is>
+      <c r="B395" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2023</v>
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2022-02-01</t>
-        </is>
+      <c r="B396" s="2" t="n">
+        <v>44585</v>
       </c>
       <c r="C396" t="n">
-        <v>0.296</v>
+        <v>-0.3182</v>
+      </c>
+      <c r="D396" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2022-01-29</t>
-        </is>
+      <c r="B397" s="2" t="n">
+        <v>44585</v>
       </c>
       <c r="C397" t="n">
-        <v>0.1012</v>
+        <v>0.4215</v>
+      </c>
+      <c r="D397" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2022-01-28</t>
-        </is>
+      <c r="B398" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C398" t="n">
-        <v>0.2023</v>
+        <v>0.1275</v>
+      </c>
+      <c r="D398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2022-01-24</t>
-        </is>
+      <c r="B399" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1005</v>
+        <v>0.097</v>
+      </c>
+      <c r="D399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2022-01-20</t>
-        </is>
+      <c r="B400" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1368</v>
+        <v>0.0847</v>
+      </c>
+      <c r="D400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2022-01-19</t>
-        </is>
+      <c r="B401" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C401" t="n">
-        <v>0.0968</v>
+        <v>0.1182</v>
+      </c>
+      <c r="D401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2022-01-18</t>
-        </is>
+      <c r="B402" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C402" t="n">
-        <v>0.0726</v>
+        <v>0.1274</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2022-01-17</t>
-        </is>
+      <c r="B403" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C403" t="n">
-        <v>0.0964</v>
+        <v>0.1045</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2022-01-16</t>
-        </is>
+      <c r="B404" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1436</v>
+        <v>0.1048</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2022-01-15</t>
-        </is>
+      <c r="B405" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C405" t="n">
-        <v>0.1439</v>
+        <v>0.0699</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2022-01-14</t>
-        </is>
+      <c r="B406" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1014</v>
+        <v>0.1062</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2022-01-13</t>
-        </is>
+      <c r="B407" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C407" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.1082</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2022-01-12</t>
-        </is>
+      <c r="B408" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C408" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.113</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2022-01-11</t>
-        </is>
+      <c r="B409" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C409" t="n">
-        <v>0.114</v>
+        <v>0.1297</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2022-01-10</t>
-        </is>
+      <c r="B410" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C410" t="n">
-        <v>0.0832</v>
+        <v>0.1425</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2022-01-09</t>
-        </is>
+      <c r="B411" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C411" t="n">
-        <v>0.1551</v>
+        <v>0.09</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2022-01-08</t>
-        </is>
+      <c r="B412" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C412" t="n">
-        <v>0.153</v>
+        <v>0.0828</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2022-01-07</t>
-        </is>
+      <c r="B413" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C413" t="n">
-        <v>0.1624</v>
+        <v>0.06</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2022-01-06</t>
-        </is>
+      <c r="B414" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1404</v>
+        <v>0.1125</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2022-01-05</t>
-        </is>
+      <c r="B415" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C415" t="n">
-        <v>0.1119</v>
+        <v>0.1091</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2022-01-04</t>
-        </is>
+      <c r="B416" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C416" t="n">
-        <v>0.1044</v>
+        <v>0.0809</v>
+      </c>
+      <c r="D416" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2022-01-03</t>
-        </is>
+      <c r="B417" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C417" t="n">
-        <v>0.0706</v>
+        <v>0.1225</v>
+      </c>
+      <c r="D417" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
+      <c r="B418" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1979</v>
+        <v>0.1378</v>
+      </c>
+      <c r="D418" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
+      <c r="B419" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1212</v>
+        <v>0.0993</v>
+      </c>
+      <c r="D419" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
+      <c r="B420" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1705</v>
+        <v>0.1262</v>
+      </c>
+      <c r="D420" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2021-12-30</t>
-        </is>
+      <c r="B421" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1618</v>
+        <v>0.1067</v>
+      </c>
+      <c r="D421" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2021-12-29</t>
-        </is>
+      <c r="B422" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C422" t="n">
-        <v>0.2536</v>
+        <v>0.1186</v>
+      </c>
+      <c r="D422" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2021-12-28</t>
-        </is>
+      <c r="B423" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C423" t="n">
-        <v>0.2049</v>
+        <v>0.165</v>
+      </c>
+      <c r="D423" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2021-12-27</t>
-        </is>
+      <c r="B424" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C424" t="n">
-        <v>0.1973</v>
+        <v>0.1683</v>
+      </c>
+      <c r="D424" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2021-12-26</t>
-        </is>
+      <c r="B425" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C425" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1631</v>
+      </c>
+      <c r="D425" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2021-12-25</t>
-        </is>
+      <c r="B426" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C426" t="n">
-        <v>0.2126</v>
+        <v>0.1318</v>
+      </c>
+      <c r="D426" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2021-12-24</t>
-        </is>
+      <c r="B427" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C427" t="n">
-        <v>0.1934</v>
+        <v>0.1117</v>
+      </c>
+      <c r="D427" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2021-12-23</t>
-        </is>
+      <c r="B428" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1561</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2021-12-22</t>
-        </is>
-      </c>
-      <c r="C429" t="n">
-        <v>0.1699</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>2021-12-21</t>
-        </is>
-      </c>
-      <c r="C430" t="n">
-        <v>0.1439</v>
+        <v>0.1012</v>
+      </c>
+      <c r="D428" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D428"/>
+  <dimension ref="A1:C428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,5988 +444,5556 @@
           <t>TwitterSentiment</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44991</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>0.0692</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44991</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0.2014</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44991</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0.2272</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44991</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0.1553</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44991</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>0.0626</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44991</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0.1045</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44991</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0.1185</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44984</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>0.2476</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44984</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0.2134</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44984</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>0.1958</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44984</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>0.1816</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44984</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>0.1843</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44984</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>0.2027</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44984</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>0.1533</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44977</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>0.1252</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>44977</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>0.0466</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44977</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>0.1156</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44977</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0.1513</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44977</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>0.09660000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44977</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>0.0107</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44977</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>0.15</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44970</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-02-19</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>0.1962</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44970</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>0.1031</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44970</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0.1278</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44970</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>0.1052</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>44970</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>0.1043</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>44970</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>0.1646</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>44970</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>-0.07829999999999999</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>44963</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>0.07389999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>44963</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>0.1455</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>44963</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>0.1368</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>44963</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>0.1208</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>44963</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>0.1411</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>44963</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>0.1308</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>44963</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>0.135</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>44956</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>0.1032</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>44956</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>0.1887</v>
-      </c>
-      <c r="D38" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>44956</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>0.1706</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>44956</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>0.1526</v>
-      </c>
-      <c r="D40" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>44956</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>0.1497</v>
-      </c>
-      <c r="D41" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>44956</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>0.1315</v>
-      </c>
-      <c r="D42" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>44956</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>0.1257</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>44949</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
       </c>
       <c r="C44" t="n">
         <v>0.1471</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>44949</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>0.1436</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>44949</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>0.1464</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>44949</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>0.1753</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>44949</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>0.0902</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>44949</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
       </c>
       <c r="C49" t="n">
         <v>0.1072</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>44949</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
       </c>
       <c r="C50" t="n">
         <v>0.1338</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>44942</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
       </c>
       <c r="C51" t="n">
         <v>0.1626</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>44942</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
       </c>
       <c r="C52" t="n">
         <v>0.1378</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>44942</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
       </c>
       <c r="C53" t="n">
         <v>0.1241</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>44942</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
       </c>
       <c r="C54" t="n">
         <v>0.1256</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>44942</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
       </c>
       <c r="C55" t="n">
         <v>0.08069999999999999</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>44942</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
       </c>
       <c r="C56" t="n">
         <v>0.1149</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>44942</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
       <c r="C57" t="n">
         <v>0.1185</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>44935</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
       </c>
       <c r="C58" t="n">
         <v>0.1027</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>44935</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
       </c>
       <c r="C59" t="n">
         <v>0.077</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>44935</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
       </c>
       <c r="C60" t="n">
         <v>0.0735</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>44935</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
       </c>
       <c r="C61" t="n">
         <v>0.102</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
-        <v>44935</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
       </c>
       <c r="C62" t="n">
         <v>0.07389999999999999</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>44935</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
       </c>
       <c r="C63" t="n">
         <v>-0.0472</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
-        <v>44935</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
       </c>
       <c r="C64" t="n">
         <v>0.0387</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
-        <v>44928</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
       </c>
       <c r="C65" t="n">
         <v>0.1028</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
-        <v>44928</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
       </c>
       <c r="C66" t="n">
         <v>0.0905</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>44928</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
       </c>
       <c r="C67" t="n">
         <v>0.0243</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
-        <v>44928</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
       </c>
       <c r="C68" t="n">
         <v>0.09710000000000001</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>44928</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
       </c>
       <c r="C69" t="n">
         <v>0.09039999999999999</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
-        <v>44928</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="C70" t="n">
         <v>0.0588</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
-        <v>44928</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
       </c>
       <c r="C71" t="n">
         <v>0.0559</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
-        <v>44921</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
       </c>
       <c r="C72" t="n">
         <v>0.09619999999999999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>44921</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
       </c>
       <c r="C73" t="n">
         <v>0.1308</v>
-      </c>
-      <c r="D73" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <v>44921</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
       </c>
       <c r="C74" t="n">
         <v>0.1135</v>
-      </c>
-      <c r="D74" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>44921</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2022-12-29</t>
+        </is>
       </c>
       <c r="C75" t="n">
         <v>0.082</v>
-      </c>
-      <c r="D75" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>44921</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
       </c>
       <c r="C76" t="n">
         <v>0.0692</v>
-      </c>
-      <c r="D76" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
-        <v>44921</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2022-12-27</t>
+        </is>
       </c>
       <c r="C77" t="n">
         <v>0.0101</v>
-      </c>
-      <c r="D77" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
-        <v>44921</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
       </c>
       <c r="C78" t="n">
         <v>0.0809</v>
-      </c>
-      <c r="D78" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>44914</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2022-12-25</t>
+        </is>
       </c>
       <c r="C79" t="n">
         <v>0.0917</v>
-      </c>
-      <c r="D79" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>44914</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2022-12-24</t>
+        </is>
       </c>
       <c r="C80" t="n">
         <v>0.1129</v>
-      </c>
-      <c r="D80" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>44914</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
       </c>
       <c r="C81" t="n">
         <v>0.0822</v>
-      </c>
-      <c r="D81" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>44914</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
       </c>
       <c r="C82" t="n">
         <v>0.1056</v>
-      </c>
-      <c r="D82" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>44914</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2022-12-21</t>
+        </is>
       </c>
       <c r="C83" t="n">
         <v>0.1114</v>
-      </c>
-      <c r="D83" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
-        <v>44914</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
       </c>
       <c r="C84" t="n">
         <v>0.0941</v>
-      </c>
-      <c r="D84" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>44914</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
       </c>
       <c r="C85" t="n">
         <v>0.1105</v>
-      </c>
-      <c r="D85" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
-        <v>44907</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2022-12-18</t>
+        </is>
       </c>
       <c r="C86" t="n">
         <v>0.1019</v>
-      </c>
-      <c r="D86" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
-        <v>44907</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2022-12-17</t>
+        </is>
       </c>
       <c r="C87" t="n">
         <v>0.0805</v>
-      </c>
-      <c r="D87" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
-        <v>44907</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2022-12-16</t>
+        </is>
       </c>
       <c r="C88" t="n">
         <v>0.0743</v>
-      </c>
-      <c r="D88" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
-        <v>44907</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
       </c>
       <c r="C89" t="n">
         <v>0.1471</v>
-      </c>
-      <c r="D89" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
-        <v>44907</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
       </c>
       <c r="C90" t="n">
         <v>0.0849</v>
-      </c>
-      <c r="D90" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>44907</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
       </c>
       <c r="C91" t="n">
         <v>0.07820000000000001</v>
-      </c>
-      <c r="D91" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
-        <v>44907</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
       </c>
       <c r="C92" t="n">
         <v>0.08019999999999999</v>
-      </c>
-      <c r="D92" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
-        <v>44900</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2022-12-11</t>
+        </is>
       </c>
       <c r="C93" t="n">
         <v>0.1609</v>
-      </c>
-      <c r="D93" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>44900</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2022-12-10</t>
+        </is>
       </c>
       <c r="C94" t="n">
         <v>0.07530000000000001</v>
-      </c>
-      <c r="D94" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>44900</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
       </c>
       <c r="C95" t="n">
         <v>0.0533</v>
-      </c>
-      <c r="D95" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
-        <v>44900</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
       </c>
       <c r="C96" t="n">
         <v>0.0609</v>
-      </c>
-      <c r="D96" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
-        <v>44900</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
       </c>
       <c r="C97" t="n">
         <v>0.0779</v>
-      </c>
-      <c r="D97" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
-        <v>44900</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
       </c>
       <c r="C98" t="n">
         <v>0.0717</v>
-      </c>
-      <c r="D98" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
-        <v>44900</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
       </c>
       <c r="C99" t="n">
         <v>0.027</v>
-      </c>
-      <c r="D99" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
-        <v>44893</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2022-12-04</t>
+        </is>
       </c>
       <c r="C100" t="n">
         <v>0.159</v>
-      </c>
-      <c r="D100" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
-        <v>44893</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
       </c>
       <c r="C101" t="n">
         <v>0.1456</v>
-      </c>
-      <c r="D101" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
-        <v>44893</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
       </c>
       <c r="C102" t="n">
         <v>0.2151</v>
-      </c>
-      <c r="D102" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
-        <v>44893</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
       </c>
       <c r="C103" t="n">
         <v>0.1138</v>
-      </c>
-      <c r="D103" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
-        <v>44893</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
       </c>
       <c r="C104" t="n">
         <v>0.1268</v>
-      </c>
-      <c r="D104" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
-        <v>44893</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
       </c>
       <c r="C105" t="n">
         <v>0.0009</v>
-      </c>
-      <c r="D105" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
-        <v>44893</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
       </c>
       <c r="C106" t="n">
         <v>0.09959999999999999</v>
-      </c>
-      <c r="D106" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
-        <v>44886</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
       </c>
       <c r="C107" t="n">
         <v>0.1155</v>
-      </c>
-      <c r="D107" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>44886</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
       </c>
       <c r="C108" t="n">
         <v>0.1366</v>
-      </c>
-      <c r="D108" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
-        <v>44886</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
       </c>
       <c r="C109" t="n">
         <v>0.1335</v>
-      </c>
-      <c r="D109" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
-        <v>44886</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
       </c>
       <c r="C110" t="n">
         <v>0.164</v>
-      </c>
-      <c r="D110" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>44886</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
       </c>
       <c r="C111" t="n">
         <v>0.09130000000000001</v>
-      </c>
-      <c r="D111" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
-        <v>44886</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
       <c r="C112" t="n">
         <v>0.0885</v>
-      </c>
-      <c r="D112" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
-        <v>44886</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
       </c>
       <c r="C113" t="n">
         <v>0.1042</v>
-      </c>
-      <c r="D113" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
-        <v>44879</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2022-11-20</t>
+        </is>
       </c>
       <c r="C114" t="n">
         <v>0.1287</v>
-      </c>
-      <c r="D114" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
-        <v>44879</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
       </c>
       <c r="C115" t="n">
         <v>0.1228</v>
-      </c>
-      <c r="D115" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
-        <v>44879</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
       </c>
       <c r="C116" t="n">
         <v>0.1159</v>
-      </c>
-      <c r="D116" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
-        <v>44879</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
       </c>
       <c r="C117" t="n">
         <v>0.1137</v>
-      </c>
-      <c r="D117" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
-        <v>44879</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
       </c>
       <c r="C118" t="n">
         <v>0.098</v>
-      </c>
-      <c r="D118" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
-        <v>44879</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
       </c>
       <c r="C119" t="n">
         <v>0.1046</v>
-      </c>
-      <c r="D119" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
-        <v>44879</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
       </c>
       <c r="C120" t="n">
         <v>0.0842</v>
-      </c>
-      <c r="D120" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
-        <v>44872</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
       </c>
       <c r="C121" t="n">
         <v>0.08459999999999999</v>
-      </c>
-      <c r="D121" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
-        <v>44872</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
       </c>
       <c r="C122" t="n">
         <v>0.1065</v>
-      </c>
-      <c r="D122" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
-        <v>44872</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
       </c>
       <c r="C123" t="n">
         <v>0.116</v>
-      </c>
-      <c r="D123" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
-        <v>44872</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
       </c>
       <c r="C124" t="n">
         <v>0.0649</v>
-      </c>
-      <c r="D124" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
-        <v>44872</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
       </c>
       <c r="C125" t="n">
         <v>0.1581</v>
-      </c>
-      <c r="D125" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
-        <v>44872</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
       </c>
       <c r="C126" t="n">
         <v>0.0339</v>
-      </c>
-      <c r="D126" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
-        <v>44872</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="C127" t="n">
         <v>0.0227</v>
-      </c>
-      <c r="D127" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
-        <v>44865</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
       </c>
       <c r="C128" t="n">
         <v>0.2103</v>
-      </c>
-      <c r="D128" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
-        <v>44865</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
       </c>
       <c r="C129" t="n">
         <v>0.1577</v>
-      </c>
-      <c r="D129" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>44865</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
       </c>
       <c r="C130" t="n">
         <v>0.0788</v>
-      </c>
-      <c r="D130" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
-        <v>44865</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
       </c>
       <c r="C131" t="n">
         <v>0.1123</v>
-      </c>
-      <c r="D131" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
-        <v>44865</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
       </c>
       <c r="C132" t="n">
         <v>0.111</v>
-      </c>
-      <c r="D132" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>44865</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
       </c>
       <c r="C133" t="n">
         <v>0.1452</v>
-      </c>
-      <c r="D133" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
-        <v>44865</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
       </c>
       <c r="C134" t="n">
         <v>0.1006</v>
-      </c>
-      <c r="D134" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
-        <v>44858</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
       </c>
       <c r="C135" t="n">
         <v>0.195</v>
-      </c>
-      <c r="D135" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
-        <v>44858</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2022-10-29</t>
+        </is>
       </c>
       <c r="C136" t="n">
         <v>0.1276</v>
-      </c>
-      <c r="D136" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
-        <v>44858</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
       </c>
       <c r="C137" t="n">
         <v>0.1554</v>
-      </c>
-      <c r="D137" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>44858</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
       </c>
       <c r="C138" t="n">
         <v>0.1265</v>
-      </c>
-      <c r="D138" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
-        <v>44858</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
       </c>
       <c r="C139" t="n">
         <v>0.1062</v>
-      </c>
-      <c r="D139" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
-        <v>44858</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
       </c>
       <c r="C140" t="n">
         <v>0.1318</v>
-      </c>
-      <c r="D140" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
-        <v>44858</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
       </c>
       <c r="C141" t="n">
         <v>0.0616</v>
-      </c>
-      <c r="D141" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
-        <v>44851</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2022-10-23</t>
+        </is>
       </c>
       <c r="C142" t="n">
         <v>0.2109</v>
-      </c>
-      <c r="D142" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>44851</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
       </c>
       <c r="C143" t="n">
         <v>0.1981</v>
-      </c>
-      <c r="D143" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>44851</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
       </c>
       <c r="C144" t="n">
         <v>0.1303</v>
-      </c>
-      <c r="D144" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
-        <v>44851</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
       </c>
       <c r="C145" t="n">
         <v>0.0956</v>
-      </c>
-      <c r="D145" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
-        <v>44851</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
       </c>
       <c r="C146" t="n">
         <v>0.1155</v>
-      </c>
-      <c r="D146" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
-        <v>44851</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="C147" t="n">
         <v>0.106</v>
-      </c>
-      <c r="D147" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
-        <v>44851</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
       </c>
       <c r="C148" t="n">
         <v>0.1281</v>
-      </c>
-      <c r="D148" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
-        <v>44844</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2022-10-16</t>
+        </is>
       </c>
       <c r="C149" t="n">
         <v>0.1538</v>
-      </c>
-      <c r="D149" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>44844</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2022-10-15</t>
+        </is>
       </c>
       <c r="C150" t="n">
         <v>0.1054</v>
-      </c>
-      <c r="D150" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>44844</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
       </c>
       <c r="C151" t="n">
         <v>0.0912</v>
-      </c>
-      <c r="D151" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>44844</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
       </c>
       <c r="C152" t="n">
         <v>0.1033</v>
-      </c>
-      <c r="D152" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
-        <v>44844</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
       </c>
       <c r="C153" t="n">
         <v>0.1159</v>
-      </c>
-      <c r="D153" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
-        <v>44844</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
       </c>
       <c r="C154" t="n">
         <v>0.0922</v>
-      </c>
-      <c r="D154" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
-        <v>44844</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
       </c>
       <c r="C155" t="n">
         <v>0.1131</v>
-      </c>
-      <c r="D155" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
-        <v>44837</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
       </c>
       <c r="C156" t="n">
         <v>0.0906</v>
-      </c>
-      <c r="D156" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
-        <v>44837</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
       </c>
       <c r="C157" t="n">
         <v>0.09420000000000001</v>
-      </c>
-      <c r="D157" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
-        <v>44837</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
       </c>
       <c r="C158" t="n">
         <v>0.1474</v>
-      </c>
-      <c r="D158" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
-        <v>44837</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
       </c>
       <c r="C159" t="n">
         <v>0.1655</v>
-      </c>
-      <c r="D159" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
-        <v>44837</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
       </c>
       <c r="C160" t="n">
         <v>0.1668</v>
-      </c>
-      <c r="D160" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
-        <v>44837</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
       </c>
       <c r="C161" t="n">
         <v>0.1266</v>
-      </c>
-      <c r="D161" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
-        <v>44837</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
       </c>
       <c r="C162" t="n">
         <v>0.1065</v>
-      </c>
-      <c r="D162" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
-        <v>44830</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
       </c>
       <c r="C163" t="n">
         <v>0.1153</v>
-      </c>
-      <c r="D163" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
-        <v>44830</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2022-10-01</t>
+        </is>
       </c>
       <c r="C164" t="n">
         <v>0.0959</v>
-      </c>
-      <c r="D164" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
-        <v>44830</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
       </c>
       <c r="C165" t="n">
         <v>0.124</v>
-      </c>
-      <c r="D165" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
-        <v>44830</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
       </c>
       <c r="C166" t="n">
         <v>0.0984</v>
-      </c>
-      <c r="D166" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
-        <v>44830</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
       </c>
       <c r="C167" t="n">
         <v>0.1141</v>
-      </c>
-      <c r="D167" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
-        <v>44830</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
       </c>
       <c r="C168" t="n">
         <v>0.1348</v>
-      </c>
-      <c r="D168" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
-        <v>44830</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
       </c>
       <c r="C169" t="n">
         <v>0.1508</v>
-      </c>
-      <c r="D169" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
-        <v>44823</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2022-09-25</t>
+        </is>
       </c>
       <c r="C170" t="n">
         <v>0.1659</v>
-      </c>
-      <c r="D170" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
-        <v>44823</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
       </c>
       <c r="C171" t="n">
         <v>0.132</v>
-      </c>
-      <c r="D171" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
-        <v>44823</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
       </c>
       <c r="C172" t="n">
         <v>0.1044</v>
-      </c>
-      <c r="D172" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
-        <v>44823</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
       </c>
       <c r="C173" t="n">
         <v>0.089</v>
-      </c>
-      <c r="D173" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
-        <v>44823</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
       </c>
       <c r="C174" t="n">
         <v>0.1141</v>
-      </c>
-      <c r="D174" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
-        <v>44823</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
       </c>
       <c r="C175" t="n">
         <v>0.09320000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
-        <v>44823</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
       </c>
       <c r="C176" t="n">
         <v>0.09320000000000001</v>
-      </c>
-      <c r="D176" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
-        <v>44816</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2022-09-18</t>
+        </is>
       </c>
       <c r="C177" t="n">
         <v>0.1244</v>
-      </c>
-      <c r="D177" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
-        <v>44816</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2022-09-17</t>
+        </is>
       </c>
       <c r="C178" t="n">
         <v>0.1559</v>
-      </c>
-      <c r="D178" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
-        <v>44816</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
       </c>
       <c r="C179" t="n">
         <v>0.152</v>
-      </c>
-      <c r="D179" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
-        <v>44816</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
       </c>
       <c r="C180" t="n">
         <v>0.142</v>
-      </c>
-      <c r="D180" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
-        <v>44816</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
       </c>
       <c r="C181" t="n">
         <v>0.0961</v>
-      </c>
-      <c r="D181" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
-        <v>44816</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
       </c>
       <c r="C182" t="n">
         <v>0.1259</v>
-      </c>
-      <c r="D182" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
-        <v>44816</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
       </c>
       <c r="C183" t="n">
         <v>0.1431</v>
-      </c>
-      <c r="D183" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
-        <v>44809</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2022-09-11</t>
+        </is>
       </c>
       <c r="C184" t="n">
         <v>0.2117</v>
-      </c>
-      <c r="D184" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
-        <v>44809</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
       </c>
       <c r="C185" t="n">
         <v>0.1518</v>
-      </c>
-      <c r="D185" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
-        <v>44809</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
       </c>
       <c r="C186" t="n">
         <v>0.1434</v>
-      </c>
-      <c r="D186" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
-        <v>44809</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
       </c>
       <c r="C187" t="n">
         <v>0.1894</v>
-      </c>
-      <c r="D187" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
-        <v>44809</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
       </c>
       <c r="C188" t="n">
         <v>0.1723</v>
-      </c>
-      <c r="D188" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
-        <v>44809</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
       </c>
       <c r="C189" t="n">
         <v>0.1107</v>
-      </c>
-      <c r="D189" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
-        <v>44809</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
       </c>
       <c r="C190" t="n">
         <v>0.1581</v>
-      </c>
-      <c r="D190" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
-        <v>44802</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2022-09-04</t>
+        </is>
       </c>
       <c r="C191" t="n">
         <v>0.18</v>
-      </c>
-      <c r="D191" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
-        <v>44802</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2022-09-03</t>
+        </is>
       </c>
       <c r="C192" t="n">
         <v>0.2458</v>
-      </c>
-      <c r="D192" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
-        <v>44802</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
       </c>
       <c r="C193" t="n">
         <v>0.1554</v>
-      </c>
-      <c r="D193" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
-        <v>44802</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
       </c>
       <c r="C194" t="n">
         <v>0.1287</v>
-      </c>
-      <c r="D194" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
-        <v>44802</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
       </c>
       <c r="C195" t="n">
         <v>0.1132</v>
-      </c>
-      <c r="D195" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
-        <v>44802</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
       </c>
       <c r="C196" t="n">
         <v>0.1238</v>
-      </c>
-      <c r="D196" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
-        <v>44802</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
       <c r="C197" t="n">
         <v>0.1109</v>
-      </c>
-      <c r="D197" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
-        <v>44795</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
       </c>
       <c r="C198" t="n">
         <v>0.167</v>
-      </c>
-      <c r="D198" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
-        <v>44795</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2022-08-27</t>
+        </is>
       </c>
       <c r="C199" t="n">
         <v>0.1482</v>
-      </c>
-      <c r="D199" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
-        <v>44795</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
       </c>
       <c r="C200" t="n">
         <v>0.1228</v>
-      </c>
-      <c r="D200" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
-        <v>44795</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
       </c>
       <c r="C201" t="n">
         <v>0.1508</v>
-      </c>
-      <c r="D201" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
-        <v>44795</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
       </c>
       <c r="C202" t="n">
         <v>0.1282</v>
-      </c>
-      <c r="D202" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
-        <v>44795</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
       </c>
       <c r="C203" t="n">
         <v>0.1186</v>
-      </c>
-      <c r="D203" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
-        <v>44795</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
       </c>
       <c r="C204" t="n">
         <v>0.1327</v>
-      </c>
-      <c r="D204" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
-        <v>44788</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2022-08-21</t>
+        </is>
       </c>
       <c r="C205" t="n">
         <v>0.1693</v>
-      </c>
-      <c r="D205" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
-        <v>44788</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2022-08-20</t>
+        </is>
       </c>
       <c r="C206" t="n">
         <v>0.1732</v>
-      </c>
-      <c r="D206" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
-        <v>44788</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
       </c>
       <c r="C207" t="n">
         <v>0.1717</v>
-      </c>
-      <c r="D207" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
-        <v>44788</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
       </c>
       <c r="C208" t="n">
         <v>0.1556</v>
-      </c>
-      <c r="D208" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
-        <v>44788</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
       </c>
       <c r="C209" t="n">
         <v>0.1204</v>
-      </c>
-      <c r="D209" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
-        <v>44788</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
       </c>
       <c r="C210" t="n">
         <v>0.1394</v>
-      </c>
-      <c r="D210" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
-        <v>44788</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
       </c>
       <c r="C211" t="n">
         <v>0.131</v>
-      </c>
-      <c r="D211" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
-        <v>44781</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2022-08-14</t>
+        </is>
       </c>
       <c r="C212" t="n">
         <v>0.1345</v>
-      </c>
-      <c r="D212" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
-        <v>44781</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
       </c>
       <c r="C213" t="n">
         <v>0.1675</v>
-      </c>
-      <c r="D213" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
-        <v>44781</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
       </c>
       <c r="C214" t="n">
         <v>0.1009</v>
-      </c>
-      <c r="D214" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
-        <v>44781</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
       </c>
       <c r="C215" t="n">
         <v>0.1395</v>
-      </c>
-      <c r="D215" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
-        <v>44781</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
       </c>
       <c r="C216" t="n">
         <v>0.1601</v>
-      </c>
-      <c r="D216" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
-        <v>44781</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
       </c>
       <c r="C217" t="n">
         <v>-0.1167</v>
-      </c>
-      <c r="D217" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
-        <v>44767</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
       </c>
       <c r="C218" t="n">
         <v>0.234</v>
-      </c>
-      <c r="D218" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
-        <v>44767</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
       </c>
       <c r="C219" t="n">
         <v>0.1357</v>
-      </c>
-      <c r="D219" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
-        <v>44767</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
       </c>
       <c r="C220" t="n">
         <v>0.09180000000000001</v>
-      </c>
-      <c r="D220" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
-        <v>44767</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
       </c>
       <c r="C221" t="n">
         <v>0.1265</v>
-      </c>
-      <c r="D221" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
-        <v>44767</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
       </c>
       <c r="C222" t="n">
         <v>0.1197</v>
-      </c>
-      <c r="D222" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
-        <v>44760</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2022-07-24</t>
+        </is>
       </c>
       <c r="C223" t="n">
         <v>0.1561</v>
-      </c>
-      <c r="D223" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
-        <v>44760</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2022-07-23</t>
+        </is>
       </c>
       <c r="C224" t="n">
         <v>0.1713</v>
-      </c>
-      <c r="D224" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
-        <v>44760</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
       </c>
       <c r="C225" t="n">
         <v>0.0762</v>
-      </c>
-      <c r="D225" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
-        <v>44760</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
       </c>
       <c r="C226" t="n">
         <v>0.0927</v>
-      </c>
-      <c r="D226" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
-        <v>44760</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
       </c>
       <c r="C227" t="n">
         <v>0.09370000000000001</v>
-      </c>
-      <c r="D227" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
-        <v>44760</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
       </c>
       <c r="C228" t="n">
         <v>0.08069999999999999</v>
-      </c>
-      <c r="D228" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
-        <v>44760</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
       </c>
       <c r="C229" t="n">
         <v>0.0828</v>
-      </c>
-      <c r="D229" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
-        <v>44753</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2022-07-17</t>
+        </is>
       </c>
       <c r="C230" t="n">
         <v>0.1656</v>
-      </c>
-      <c r="D230" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
-        <v>44753</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2022-07-16</t>
+        </is>
       </c>
       <c r="C231" t="n">
         <v>0.0925</v>
-      </c>
-      <c r="D231" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
-        <v>44753</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
       </c>
       <c r="C232" t="n">
         <v>0.08939999999999999</v>
-      </c>
-      <c r="D232" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
-        <v>44753</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
       </c>
       <c r="C233" t="n">
         <v>0.1169</v>
-      </c>
-      <c r="D233" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
-        <v>44753</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
       </c>
       <c r="C234" t="n">
         <v>0.1065</v>
-      </c>
-      <c r="D234" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
-        <v>44753</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
       </c>
       <c r="C235" t="n">
         <v>0.0993</v>
-      </c>
-      <c r="D235" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
-        <v>44753</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
       </c>
       <c r="C236" t="n">
         <v>0.1143</v>
-      </c>
-      <c r="D236" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
-        <v>44746</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2022-07-10</t>
+        </is>
       </c>
       <c r="C237" t="n">
         <v>0.1582</v>
-      </c>
-      <c r="D237" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
-        <v>44746</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2022-07-09</t>
+        </is>
       </c>
       <c r="C238" t="n">
         <v>0.1411</v>
-      </c>
-      <c r="D238" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
-        <v>44746</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
       </c>
       <c r="C239" t="n">
         <v>0.1312</v>
-      </c>
-      <c r="D239" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>44746</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
       </c>
       <c r="C240" t="n">
         <v>0.0725</v>
-      </c>
-      <c r="D240" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
-        <v>44746</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
       </c>
       <c r="C241" t="n">
         <v>0.11</v>
-      </c>
-      <c r="D241" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
-        <v>44746</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
       </c>
       <c r="C242" t="n">
         <v>0.0833</v>
-      </c>
-      <c r="D242" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
-        <v>44746</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
       </c>
       <c r="C243" t="n">
         <v>0.0721</v>
-      </c>
-      <c r="D243" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
-        <v>44739</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
       </c>
       <c r="C244" t="n">
         <v>0.08359999999999999</v>
-      </c>
-      <c r="D244" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
-        <v>44739</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
       </c>
       <c r="C245" t="n">
         <v>0.0997</v>
-      </c>
-      <c r="D245" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
-        <v>44739</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
       </c>
       <c r="C246" t="n">
         <v>0.0781</v>
-      </c>
-      <c r="D246" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
-        <v>44739</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
       </c>
       <c r="C247" t="n">
         <v>0.0526</v>
-      </c>
-      <c r="D247" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
-        <v>44739</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
       </c>
       <c r="C248" t="n">
         <v>0.0934</v>
-      </c>
-      <c r="D248" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
-        <v>44739</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
       </c>
       <c r="C249" t="n">
         <v>0.1142</v>
-      </c>
-      <c r="D249" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
-        <v>44739</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
       </c>
       <c r="C250" t="n">
         <v>0.116</v>
-      </c>
-      <c r="D250" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
-        <v>44732</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2022-06-26</t>
+        </is>
       </c>
       <c r="C251" t="n">
         <v>0.0866</v>
-      </c>
-      <c r="D251" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
-        <v>44732</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2022-06-25</t>
+        </is>
       </c>
       <c r="C252" t="n">
         <v>0.1766</v>
-      </c>
-      <c r="D252" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
-        <v>44732</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
       </c>
       <c r="C253" t="n">
         <v>0.1105</v>
-      </c>
-      <c r="D253" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
-        <v>44732</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
       </c>
       <c r="C254" t="n">
         <v>0.0867</v>
-      </c>
-      <c r="D254" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="n">
-        <v>44732</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
       </c>
       <c r="C255" t="n">
         <v>0.1018</v>
-      </c>
-      <c r="D255" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
-        <v>44732</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
       </c>
       <c r="C256" t="n">
         <v>0.1193</v>
-      </c>
-      <c r="D256" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
-        <v>44732</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
       </c>
       <c r="C257" t="n">
         <v>0.1368</v>
-      </c>
-      <c r="D257" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
-        <v>44725</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
       </c>
       <c r="C258" t="n">
         <v>0.1472</v>
-      </c>
-      <c r="D258" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
-        <v>44725</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
       </c>
       <c r="C259" t="n">
         <v>0.138</v>
-      </c>
-      <c r="D259" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="n">
-        <v>44725</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
       </c>
       <c r="C260" t="n">
         <v>0.046</v>
-      </c>
-      <c r="D260" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="n">
-        <v>44725</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="C261" t="n">
         <v>0.1126</v>
-      </c>
-      <c r="D261" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="n">
-        <v>44725</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
       </c>
       <c r="C262" t="n">
         <v>0.1186</v>
-      </c>
-      <c r="D262" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="n">
-        <v>44725</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
       </c>
       <c r="C263" t="n">
         <v>0.0939</v>
-      </c>
-      <c r="D263" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="n">
-        <v>44725</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
       </c>
       <c r="C264" t="n">
         <v>0.09719999999999999</v>
-      </c>
-      <c r="D264" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="n">
-        <v>44718</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2022-06-12</t>
+        </is>
       </c>
       <c r="C265" t="n">
         <v>0.2385</v>
-      </c>
-      <c r="D265" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="n">
-        <v>44718</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
       </c>
       <c r="C266" t="n">
         <v>0.2231</v>
-      </c>
-      <c r="D266" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="n">
-        <v>44718</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
       </c>
       <c r="C267" t="n">
         <v>0.1541</v>
-      </c>
-      <c r="D267" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="n">
-        <v>44718</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
       </c>
       <c r="C268" t="n">
         <v>0.1387</v>
-      </c>
-      <c r="D268" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="n">
-        <v>44718</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
       </c>
       <c r="C269" t="n">
         <v>0.0944</v>
-      </c>
-      <c r="D269" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="n">
-        <v>44718</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
       </c>
       <c r="C270" t="n">
         <v>0.1293</v>
-      </c>
-      <c r="D270" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="n">
-        <v>44718</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
       </c>
       <c r="C271" t="n">
         <v>0.0951</v>
-      </c>
-      <c r="D271" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="n">
-        <v>44711</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2022-06-05</t>
+        </is>
       </c>
       <c r="C272" t="n">
         <v>0.1209</v>
-      </c>
-      <c r="D272" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="n">
-        <v>44711</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
+        </is>
       </c>
       <c r="C273" t="n">
         <v>0.1012</v>
-      </c>
-      <c r="D273" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="n">
-        <v>44711</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
       </c>
       <c r="C274" t="n">
         <v>0.0856</v>
-      </c>
-      <c r="D274" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="n">
-        <v>44711</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
       </c>
       <c r="C275" t="n">
         <v>0.107</v>
-      </c>
-      <c r="D275" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="n">
-        <v>44711</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
       </c>
       <c r="C276" t="n">
         <v>0.0871</v>
-      </c>
-      <c r="D276" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="n">
-        <v>44711</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="C277" t="n">
         <v>0.0985</v>
-      </c>
-      <c r="D277" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="n">
-        <v>44711</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
       </c>
       <c r="C278" t="n">
         <v>0.1341</v>
-      </c>
-      <c r="D278" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="n">
-        <v>44704</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2022-05-29</t>
+        </is>
       </c>
       <c r="C279" t="n">
         <v>0.1664</v>
-      </c>
-      <c r="D279" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="n">
-        <v>44704</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2022-05-28</t>
+        </is>
       </c>
       <c r="C280" t="n">
         <v>0.0436</v>
-      </c>
-      <c r="D280" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="n">
-        <v>44704</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
       </c>
       <c r="C281" t="n">
         <v>0.1312</v>
-      </c>
-      <c r="D281" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="n">
-        <v>44704</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
       </c>
       <c r="C282" t="n">
         <v>0.1228</v>
-      </c>
-      <c r="D282" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="n">
-        <v>44704</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
       </c>
       <c r="C283" t="n">
         <v>0.1465</v>
-      </c>
-      <c r="D283" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="n">
-        <v>44704</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
       </c>
       <c r="C284" t="n">
         <v>0.07729999999999999</v>
-      </c>
-      <c r="D284" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="n">
-        <v>44704</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
       <c r="C285" t="n">
         <v>0.07240000000000001</v>
-      </c>
-      <c r="D285" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="n">
-        <v>44697</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2022-05-22</t>
+        </is>
       </c>
       <c r="C286" t="n">
         <v>0.1093</v>
-      </c>
-      <c r="D286" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="n">
-        <v>44697</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2022-05-21</t>
+        </is>
       </c>
       <c r="C287" t="n">
         <v>0.1382</v>
-      </c>
-      <c r="D287" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="n">
-        <v>44697</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
       </c>
       <c r="C288" t="n">
         <v>0.0129</v>
-      </c>
-      <c r="D288" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="2" t="n">
-        <v>44697</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
       </c>
       <c r="C289" t="n">
         <v>0.06469999999999999</v>
-      </c>
-      <c r="D289" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="2" t="n">
-        <v>44697</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
+        </is>
       </c>
       <c r="C290" t="n">
         <v>-0.0226</v>
-      </c>
-      <c r="D290" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="2" t="n">
-        <v>44697</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
       </c>
       <c r="C291" t="n">
         <v>-0.0276</v>
-      </c>
-      <c r="D291" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="2" t="n">
-        <v>44697</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
       </c>
       <c r="C292" t="n">
         <v>0.0572</v>
-      </c>
-      <c r="D292" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="2" t="n">
-        <v>44690</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2022-05-15</t>
+        </is>
       </c>
       <c r="C293" t="n">
         <v>0.1528</v>
-      </c>
-      <c r="D293" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="2" t="n">
-        <v>44690</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2022-05-14</t>
+        </is>
       </c>
       <c r="C294" t="n">
         <v>0.1888</v>
-      </c>
-      <c r="D294" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="2" t="n">
-        <v>44690</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
       </c>
       <c r="C295" t="n">
         <v>0.0771</v>
-      </c>
-      <c r="D295" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="2" t="n">
-        <v>44690</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
       </c>
       <c r="C296" t="n">
         <v>0.1075</v>
-      </c>
-      <c r="D296" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="2" t="n">
-        <v>44690</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
       </c>
       <c r="C297" t="n">
         <v>0.1632</v>
-      </c>
-      <c r="D297" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="2" t="n">
-        <v>44690</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2022-05-10</t>
+        </is>
       </c>
       <c r="C298" t="n">
         <v>0.0403</v>
-      </c>
-      <c r="D298" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="2" t="n">
-        <v>44690</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2022-05-09</t>
+        </is>
       </c>
       <c r="C299" t="n">
         <v>0.0838</v>
-      </c>
-      <c r="D299" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" s="2" t="n">
-        <v>44683</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2022-05-08</t>
+        </is>
       </c>
       <c r="C300" t="n">
         <v>0.0738</v>
-      </c>
-      <c r="D300" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" s="2" t="n">
-        <v>44683</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
       </c>
       <c r="C301" t="n">
         <v>0.07770000000000001</v>
-      </c>
-      <c r="D301" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" s="2" t="n">
-        <v>44683</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
       </c>
       <c r="C302" t="n">
         <v>0.1374</v>
-      </c>
-      <c r="D302" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" s="2" t="n">
-        <v>44683</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
       </c>
       <c r="C303" t="n">
         <v>0.0968</v>
-      </c>
-      <c r="D303" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" s="2" t="n">
-        <v>44683</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
       </c>
       <c r="C304" t="n">
         <v>0.1028</v>
-      </c>
-      <c r="D304" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" s="2" t="n">
-        <v>44683</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
       </c>
       <c r="C305" t="n">
         <v>0.1173</v>
-      </c>
-      <c r="D305" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" s="2" t="n">
-        <v>44683</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
       </c>
       <c r="C306" t="n">
         <v>0.1225</v>
-      </c>
-      <c r="D306" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" s="2" t="n">
-        <v>44676</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
       </c>
       <c r="C307" t="n">
         <v>0.077</v>
-      </c>
-      <c r="D307" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" s="2" t="n">
-        <v>44676</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
       </c>
       <c r="C308" t="n">
         <v>0.1041</v>
-      </c>
-      <c r="D308" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" s="2" t="n">
-        <v>44676</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
       </c>
       <c r="C309" t="n">
         <v>0.1184</v>
-      </c>
-      <c r="D309" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" s="2" t="n">
-        <v>44676</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
       </c>
       <c r="C310" t="n">
         <v>0.0911</v>
-      </c>
-      <c r="D310" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" s="2" t="n">
-        <v>44676</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
       </c>
       <c r="C311" t="n">
         <v>0.0525</v>
-      </c>
-      <c r="D311" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" s="2" t="n">
-        <v>44676</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
       </c>
       <c r="C312" t="n">
         <v>0.0707</v>
-      </c>
-      <c r="D312" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" s="2" t="n">
-        <v>44676</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
       </c>
       <c r="C313" t="n">
         <v>0.0272</v>
-      </c>
-      <c r="D313" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" s="2" t="n">
-        <v>44669</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2022-04-24</t>
+        </is>
       </c>
       <c r="C314" t="n">
         <v>0.0864</v>
-      </c>
-      <c r="D314" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" s="2" t="n">
-        <v>44669</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
       </c>
       <c r="C315" t="n">
         <v>0.1117</v>
-      </c>
-      <c r="D315" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" s="2" t="n">
-        <v>44669</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
       </c>
       <c r="C316" t="n">
         <v>0.0442</v>
-      </c>
-      <c r="D316" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" s="2" t="n">
-        <v>44669</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
       </c>
       <c r="C317" t="n">
         <v>0.0174</v>
-      </c>
-      <c r="D317" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" s="2" t="n">
-        <v>44669</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
       </c>
       <c r="C318" t="n">
         <v>0.0482</v>
-      </c>
-      <c r="D318" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" s="2" t="n">
-        <v>44669</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
       </c>
       <c r="C319" t="n">
         <v>0.1009</v>
-      </c>
-      <c r="D319" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" s="2" t="n">
-        <v>44669</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
       </c>
       <c r="C320" t="n">
         <v>0.0815</v>
-      </c>
-      <c r="D320" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" s="2" t="n">
-        <v>44662</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2022-04-17</t>
+        </is>
       </c>
       <c r="C321" t="n">
         <v>0.0979</v>
-      </c>
-      <c r="D321" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" s="2" t="n">
-        <v>44662</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
       </c>
       <c r="C322" t="n">
         <v>0.0341</v>
-      </c>
-      <c r="D322" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" s="2" t="n">
-        <v>44662</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
       </c>
       <c r="C323" t="n">
         <v>0.065</v>
-      </c>
-      <c r="D323" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" s="2" t="n">
-        <v>44662</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
       </c>
       <c r="C324" t="n">
         <v>0.0823</v>
-      </c>
-      <c r="D324" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" s="2" t="n">
-        <v>44662</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
       </c>
       <c r="C325" t="n">
         <v>0.0969</v>
-      </c>
-      <c r="D325" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" s="2" t="n">
-        <v>44662</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
       </c>
       <c r="C326" t="n">
         <v>0.1</v>
-      </c>
-      <c r="D326" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" s="2" t="n">
-        <v>44662</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
       </c>
       <c r="C327" t="n">
         <v>0.0849</v>
-      </c>
-      <c r="D327" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" s="2" t="n">
-        <v>44655</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2022-04-10</t>
+        </is>
       </c>
       <c r="C328" t="n">
         <v>0.1386</v>
-      </c>
-      <c r="D328" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" s="2" t="n">
-        <v>44655</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2022-04-09</t>
+        </is>
       </c>
       <c r="C329" t="n">
         <v>0.1086</v>
-      </c>
-      <c r="D329" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" s="2" t="n">
-        <v>44655</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
       </c>
       <c r="C330" t="n">
         <v>0.1226</v>
-      </c>
-      <c r="D330" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" s="2" t="n">
-        <v>44655</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
       </c>
       <c r="C331" t="n">
         <v>0.1105</v>
-      </c>
-      <c r="D331" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" s="2" t="n">
-        <v>44655</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
       </c>
       <c r="C332" t="n">
         <v>0.1146</v>
-      </c>
-      <c r="D332" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" s="2" t="n">
-        <v>44655</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
       </c>
       <c r="C333" t="n">
         <v>0.1123</v>
-      </c>
-      <c r="D333" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" s="2" t="n">
-        <v>44655</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
       </c>
       <c r="C334" t="n">
         <v>0.08939999999999999</v>
-      </c>
-      <c r="D334" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" s="2" t="n">
-        <v>44648</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2022-04-03</t>
+        </is>
       </c>
       <c r="C335" t="n">
         <v>0.1308</v>
-      </c>
-      <c r="D335" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" s="2" t="n">
-        <v>44648</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
       </c>
       <c r="C336" t="n">
         <v>0.1009</v>
-      </c>
-      <c r="D336" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" s="2" t="n">
-        <v>44648</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
       </c>
       <c r="C337" t="n">
         <v>0.0741</v>
-      </c>
-      <c r="D337" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" s="2" t="n">
-        <v>44648</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
       </c>
       <c r="C338" t="n">
         <v>0.1009</v>
-      </c>
-      <c r="D338" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" s="2" t="n">
-        <v>44648</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
       </c>
       <c r="C339" t="n">
         <v>0.1269</v>
-      </c>
-      <c r="D339" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" s="2" t="n">
-        <v>44648</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
       </c>
       <c r="C340" t="n">
         <v>0.08840000000000001</v>
-      </c>
-      <c r="D340" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" s="2" t="n">
-        <v>44648</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
       </c>
       <c r="C341" t="n">
         <v>0.1604</v>
-      </c>
-      <c r="D341" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" s="2" t="n">
-        <v>44641</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
       </c>
       <c r="C342" t="n">
         <v>0.1629</v>
-      </c>
-      <c r="D342" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" s="2" t="n">
-        <v>44641</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2022-03-26</t>
+        </is>
       </c>
       <c r="C343" t="n">
         <v>0.1141</v>
-      </c>
-      <c r="D343" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" s="2" t="n">
-        <v>44641</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
       </c>
       <c r="C344" t="n">
         <v>0.1052</v>
-      </c>
-      <c r="D344" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" s="2" t="n">
-        <v>44641</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
       </c>
       <c r="C345" t="n">
         <v>0.1141</v>
-      </c>
-      <c r="D345" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" s="2" t="n">
-        <v>44641</v>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
       </c>
       <c r="C346" t="n">
         <v>0.1369</v>
-      </c>
-      <c r="D346" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" s="2" t="n">
-        <v>44641</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
       </c>
       <c r="C347" t="n">
         <v>0.116</v>
-      </c>
-      <c r="D347" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" s="2" t="n">
-        <v>44641</v>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
       </c>
       <c r="C348" t="n">
         <v>0.1071</v>
-      </c>
-      <c r="D348" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" s="2" t="n">
-        <v>44634</v>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
       </c>
       <c r="C349" t="n">
         <v>0.2643</v>
-      </c>
-      <c r="D349" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" s="2" t="n">
-        <v>44634</v>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
       </c>
       <c r="C350" t="n">
         <v>0.0414</v>
-      </c>
-      <c r="D350" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" s="2" t="n">
-        <v>44634</v>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
       </c>
       <c r="C351" t="n">
         <v>0.1089</v>
-      </c>
-      <c r="D351" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" s="2" t="n">
-        <v>44634</v>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
       </c>
       <c r="C352" t="n">
         <v>0.1101</v>
-      </c>
-      <c r="D352" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" s="2" t="n">
-        <v>44634</v>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
       </c>
       <c r="C353" t="n">
         <v>0.1074</v>
-      </c>
-      <c r="D353" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" s="2" t="n">
-        <v>44634</v>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="C354" t="n">
         <v>0.1987</v>
-      </c>
-      <c r="D354" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" s="2" t="n">
-        <v>44634</v>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
       </c>
       <c r="C355" t="n">
         <v>0.057</v>
-      </c>
-      <c r="D355" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" s="2" t="n">
-        <v>44627</v>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2022-03-13</t>
+        </is>
       </c>
       <c r="C356" t="n">
         <v>0.067</v>
-      </c>
-      <c r="D356" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" s="2" t="n">
-        <v>44627</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2022-03-12</t>
+        </is>
       </c>
       <c r="C357" t="n">
         <v>0.115</v>
-      </c>
-      <c r="D357" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" s="2" t="n">
-        <v>44627</v>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
       </c>
       <c r="C358" t="n">
         <v>0.1734</v>
-      </c>
-      <c r="D358" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" s="2" t="n">
-        <v>44627</v>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
       </c>
       <c r="C359" t="n">
         <v>0.0994</v>
-      </c>
-      <c r="D359" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" s="2" t="n">
-        <v>44627</v>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="C360" t="n">
         <v>0.1186</v>
-      </c>
-      <c r="D360" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" s="2" t="n">
-        <v>44627</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
       </c>
       <c r="C361" t="n">
         <v>0.0955</v>
-      </c>
-      <c r="D361" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" s="2" t="n">
-        <v>44627</v>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
       </c>
       <c r="C362" t="n">
         <v>0.1414</v>
-      </c>
-      <c r="D362" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" s="2" t="n">
-        <v>44620</v>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2022-03-06</t>
+        </is>
       </c>
       <c r="C363" t="n">
         <v>0.1197</v>
-      </c>
-      <c r="D363" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" s="2" t="n">
-        <v>44620</v>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="C364" t="n">
         <v>0.13</v>
-      </c>
-      <c r="D364" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" s="2" t="n">
-        <v>44620</v>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
       </c>
       <c r="C365" t="n">
         <v>0.0892</v>
-      </c>
-      <c r="D365" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" s="2" t="n">
-        <v>44620</v>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
       </c>
       <c r="C366" t="n">
         <v>0.08210000000000001</v>
-      </c>
-      <c r="D366" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" s="2" t="n">
-        <v>44620</v>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="C367" t="n">
         <v>0.1338</v>
-      </c>
-      <c r="D367" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" s="2" t="n">
-        <v>44620</v>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
       </c>
       <c r="C368" t="n">
         <v>0.252</v>
-      </c>
-      <c r="D368" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" s="2" t="n">
-        <v>44620</v>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
       </c>
       <c r="C369" t="n">
         <v>0.099</v>
-      </c>
-      <c r="D369" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" s="2" t="n">
-        <v>44613</v>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2022-02-27</t>
+        </is>
       </c>
       <c r="C370" t="n">
         <v>0.062</v>
-      </c>
-      <c r="D370" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" s="2" t="n">
-        <v>44613</v>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
       </c>
       <c r="C371" t="n">
         <v>0.1061</v>
-      </c>
-      <c r="D371" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" s="2" t="n">
-        <v>44613</v>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="C372" t="n">
         <v>0.0355</v>
-      </c>
-      <c r="D372" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" s="2" t="n">
-        <v>44613</v>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
       </c>
       <c r="C373" t="n">
         <v>0.1499</v>
-      </c>
-      <c r="D373" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" s="2" t="n">
-        <v>44613</v>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
       </c>
       <c r="C374" t="n">
         <v>0.1345</v>
-      </c>
-      <c r="D374" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" s="2" t="n">
-        <v>44613</v>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
       </c>
       <c r="C375" t="n">
         <v>0.1448</v>
-      </c>
-      <c r="D375" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" s="2" t="n">
-        <v>44613</v>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2022-02-21</t>
+        </is>
       </c>
       <c r="C376" t="n">
         <v>0.06619999999999999</v>
-      </c>
-      <c r="D376" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" s="2" t="n">
-        <v>44606</v>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2022-02-20</t>
+        </is>
       </c>
       <c r="C377" t="n">
         <v>0.2655</v>
-      </c>
-      <c r="D377" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" s="2" t="n">
-        <v>44606</v>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2022-02-19</t>
+        </is>
       </c>
       <c r="C378" t="n">
         <v>0.0573</v>
-      </c>
-      <c r="D378" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" s="2" t="n">
-        <v>44606</v>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
       </c>
       <c r="C379" t="n">
         <v>0.0931</v>
-      </c>
-      <c r="D379" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" s="2" t="n">
-        <v>44606</v>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
       </c>
       <c r="C380" t="n">
         <v>0.0574</v>
-      </c>
-      <c r="D380" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" s="2" t="n">
-        <v>44606</v>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
       </c>
       <c r="C381" t="n">
         <v>-0.0418</v>
-      </c>
-      <c r="D381" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" s="2" t="n">
-        <v>44606</v>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
       </c>
       <c r="C382" t="n">
         <v>0.1652</v>
-      </c>
-      <c r="D382" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" s="2" t="n">
-        <v>44606</v>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
       </c>
       <c r="C383" t="n">
         <v>0.0341</v>
-      </c>
-      <c r="D383" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" s="2" t="n">
-        <v>44599</v>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
       </c>
       <c r="C384" t="n">
         <v>0.0878</v>
-      </c>
-      <c r="D384" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" s="2" t="n">
-        <v>44599</v>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
       </c>
       <c r="C385" t="n">
         <v>0.1898</v>
-      </c>
-      <c r="D385" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" s="2" t="n">
-        <v>44599</v>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
+        </is>
       </c>
       <c r="C386" t="n">
         <v>0.1777</v>
-      </c>
-      <c r="D386" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" s="2" t="n">
-        <v>44599</v>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
       </c>
       <c r="C387" t="n">
         <v>0.0755</v>
-      </c>
-      <c r="D387" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" s="2" t="n">
-        <v>44599</v>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
       </c>
       <c r="C388" t="n">
         <v>0.2259</v>
-      </c>
-      <c r="D388" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" s="2" t="n">
-        <v>44599</v>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
       </c>
       <c r="C389" t="n">
         <v>0.284</v>
-      </c>
-      <c r="D389" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" s="2" t="n">
-        <v>44599</v>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
       </c>
       <c r="C390" t="n">
         <v>0.2019</v>
-      </c>
-      <c r="D390" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" s="2" t="n">
-        <v>44592</v>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
       </c>
       <c r="C391" t="n">
         <v>0.2947</v>
-      </c>
-      <c r="D391" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" s="2" t="n">
-        <v>44592</v>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
       </c>
       <c r="C392" t="n">
         <v>0.1646</v>
-      </c>
-      <c r="D392" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" s="2" t="n">
-        <v>44592</v>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
       </c>
       <c r="C393" t="n">
         <v>0.009599999999999999</v>
-      </c>
-      <c r="D393" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" s="2" t="n">
-        <v>44592</v>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2022-02-03</t>
+        </is>
       </c>
       <c r="C394" t="n">
         <v>0.0759</v>
-      </c>
-      <c r="D394" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" s="2" t="n">
-        <v>44592</v>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
       </c>
       <c r="C395" t="n">
         <v>0</v>
-      </c>
-      <c r="D395" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" s="2" t="n">
-        <v>44585</v>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2022-01-29</t>
+        </is>
       </c>
       <c r="C396" t="n">
         <v>-0.3182</v>
-      </c>
-      <c r="D396" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" s="2" t="n">
-        <v>44585</v>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
       </c>
       <c r="C397" t="n">
         <v>0.4215</v>
-      </c>
-      <c r="D397" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" s="2" t="n">
-        <v>44578</v>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
       </c>
       <c r="C398" t="n">
         <v>0.1275</v>
-      </c>
-      <c r="D398" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" s="2" t="n">
-        <v>44578</v>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
       </c>
       <c r="C399" t="n">
         <v>0.097</v>
-      </c>
-      <c r="D399" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" s="2" t="n">
-        <v>44578</v>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
       </c>
       <c r="C400" t="n">
         <v>0.0847</v>
-      </c>
-      <c r="D400" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" s="2" t="n">
-        <v>44578</v>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
       </c>
       <c r="C401" t="n">
         <v>0.1182</v>
-      </c>
-      <c r="D401" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" s="2" t="n">
-        <v>44571</v>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
       </c>
       <c r="C402" t="n">
         <v>0.1274</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" s="2" t="n">
-        <v>44571</v>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
       </c>
       <c r="C403" t="n">
         <v>0.1045</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" s="2" t="n">
-        <v>44571</v>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
       </c>
       <c r="C404" t="n">
         <v>0.1048</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" s="2" t="n">
-        <v>44571</v>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
       </c>
       <c r="C405" t="n">
         <v>0.0699</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" s="2" t="n">
-        <v>44571</v>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
       </c>
       <c r="C406" t="n">
         <v>0.1062</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" s="2" t="n">
-        <v>44571</v>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
       </c>
       <c r="C407" t="n">
         <v>0.1082</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" s="2" t="n">
-        <v>44571</v>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
       </c>
       <c r="C408" t="n">
         <v>0.113</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" s="2" t="n">
-        <v>44564</v>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
       </c>
       <c r="C409" t="n">
         <v>0.1297</v>
-      </c>
-      <c r="D409" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" s="2" t="n">
-        <v>44564</v>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
       </c>
       <c r="C410" t="n">
         <v>0.1425</v>
-      </c>
-      <c r="D410" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" s="2" t="n">
-        <v>44564</v>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
       </c>
       <c r="C411" t="n">
         <v>0.09</v>
-      </c>
-      <c r="D411" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" s="2" t="n">
-        <v>44564</v>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
       </c>
       <c r="C412" t="n">
         <v>0.0828</v>
-      </c>
-      <c r="D412" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" s="2" t="n">
-        <v>44564</v>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
       </c>
       <c r="C413" t="n">
         <v>0.06</v>
-      </c>
-      <c r="D413" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" s="2" t="n">
-        <v>44564</v>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
       </c>
       <c r="C414" t="n">
         <v>0.1125</v>
-      </c>
-      <c r="D414" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" s="2" t="n">
-        <v>44564</v>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
       </c>
       <c r="C415" t="n">
         <v>0.1091</v>
-      </c>
-      <c r="D415" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" s="2" t="n">
-        <v>44557</v>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
       </c>
       <c r="C416" t="n">
         <v>0.0809</v>
-      </c>
-      <c r="D416" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" s="2" t="n">
-        <v>44557</v>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
       </c>
       <c r="C417" t="n">
         <v>0.1225</v>
-      </c>
-      <c r="D417" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" s="2" t="n">
-        <v>44557</v>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
       </c>
       <c r="C418" t="n">
         <v>0.1378</v>
-      </c>
-      <c r="D418" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" s="2" t="n">
-        <v>44557</v>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
       </c>
       <c r="C419" t="n">
         <v>0.0993</v>
-      </c>
-      <c r="D419" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" s="2" t="n">
-        <v>44557</v>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
       </c>
       <c r="C420" t="n">
         <v>0.1262</v>
-      </c>
-      <c r="D420" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" s="2" t="n">
-        <v>44557</v>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
       </c>
       <c r="C421" t="n">
         <v>0.1067</v>
-      </c>
-      <c r="D421" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422" s="2" t="n">
-        <v>44557</v>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
       </c>
       <c r="C422" t="n">
         <v>0.1186</v>
-      </c>
-      <c r="D422" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423" s="2" t="n">
-        <v>44550</v>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
       </c>
       <c r="C423" t="n">
         <v>0.165</v>
-      </c>
-      <c r="D423" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424" s="2" t="n">
-        <v>44550</v>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
       </c>
       <c r="C424" t="n">
         <v>0.1683</v>
-      </c>
-      <c r="D424" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425" s="2" t="n">
-        <v>44550</v>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
       </c>
       <c r="C425" t="n">
         <v>0.1631</v>
-      </c>
-      <c r="D425" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426" s="2" t="n">
-        <v>44550</v>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
       </c>
       <c r="C426" t="n">
         <v>0.1318</v>
-      </c>
-      <c r="D426" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427" s="2" t="n">
-        <v>44550</v>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
       </c>
       <c r="C427" t="n">
         <v>0.1117</v>
-      </c>
-      <c r="D427" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428" s="2" t="n">
-        <v>44550</v>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
       </c>
       <c r="C428" t="n">
         <v>0.1012</v>
-      </c>
-      <c r="D428" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -449,10 +453,8 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C2" t="n">
         <v>0.0692</v>
@@ -462,10 +464,8 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-03-11</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C3" t="n">
         <v>0.2014</v>
@@ -475,10 +475,8 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C4" t="n">
         <v>0.2272</v>
@@ -488,10 +486,8 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C5" t="n">
         <v>0.1553</v>
@@ -501,10 +497,8 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C6" t="n">
         <v>0.0626</v>
@@ -514,10 +508,8 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C7" t="n">
         <v>0.1045</v>
@@ -527,10 +519,8 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C8" t="n">
         <v>0.1185</v>
@@ -540,10 +530,8 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C9" t="n">
         <v>0.2476</v>
@@ -553,10 +541,8 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C10" t="n">
         <v>0.2134</v>
@@ -566,10 +552,8 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C11" t="n">
         <v>0.1958</v>
@@ -579,10 +563,8 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C12" t="n">
         <v>0.1816</v>
@@ -592,10 +574,8 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C13" t="n">
         <v>0.1843</v>
@@ -605,10 +585,8 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C14" t="n">
         <v>0.2027</v>
@@ -618,10 +596,8 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C15" t="n">
         <v>0.1533</v>
@@ -631,10 +607,8 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C16" t="n">
         <v>0.1252</v>
@@ -644,10 +618,8 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C17" t="n">
         <v>0.0466</v>
@@ -657,10 +629,8 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C18" t="n">
         <v>0.1156</v>
@@ -670,10 +640,8 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C19" t="n">
         <v>0.1513</v>
@@ -683,10 +651,8 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C20" t="n">
         <v>0.09660000000000001</v>
@@ -696,10 +662,8 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C21" t="n">
         <v>0.0107</v>
@@ -709,10 +673,8 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C22" t="n">
         <v>0.15</v>
@@ -722,10 +684,8 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-02-19</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C23" t="n">
         <v>0.1962</v>
@@ -735,10 +695,8 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C24" t="n">
         <v>0.1031</v>
@@ -748,10 +706,8 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C25" t="n">
         <v>0.1278</v>
@@ -761,10 +717,8 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C26" t="n">
         <v>0.1052</v>
@@ -774,10 +728,8 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C27" t="n">
         <v>0.1043</v>
@@ -787,10 +739,8 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C28" t="n">
         <v>0.1646</v>
@@ -800,10 +750,8 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>44970</v>
       </c>
       <c r="C29" t="n">
         <v>-0.07829999999999999</v>
@@ -813,10 +761,8 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-02-12</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C30" t="n">
         <v>0.07389999999999999</v>
@@ -826,10 +772,8 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-02-11</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C31" t="n">
         <v>0.1455</v>
@@ -839,10 +783,8 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2023-02-10</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C32" t="n">
         <v>0.1368</v>
@@ -852,10 +794,8 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-02-09</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C33" t="n">
         <v>0.1208</v>
@@ -865,10 +805,8 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C34" t="n">
         <v>0.1411</v>
@@ -878,10 +816,8 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C35" t="n">
         <v>0.1308</v>
@@ -891,10 +827,8 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>44963</v>
       </c>
       <c r="C36" t="n">
         <v>0.135</v>
@@ -904,10 +838,8 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C37" t="n">
         <v>0.1032</v>
@@ -917,10 +849,8 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C38" t="n">
         <v>0.1887</v>
@@ -930,10 +860,8 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C39" t="n">
         <v>0.1706</v>
@@ -943,10 +871,8 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C40" t="n">
         <v>0.1526</v>
@@ -956,10 +882,8 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C41" t="n">
         <v>0.1497</v>
@@ -969,10 +893,8 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-01-31</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C42" t="n">
         <v>0.1315</v>
@@ -982,10 +904,8 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-01-30</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>44956</v>
       </c>
       <c r="C43" t="n">
         <v>0.1257</v>
@@ -995,10 +915,8 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2023-01-29</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C44" t="n">
         <v>0.1471</v>
@@ -1008,10 +926,8 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2023-01-28</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C45" t="n">
         <v>0.1436</v>
@@ -1021,10 +937,8 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-01-27</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C46" t="n">
         <v>0.1464</v>
@@ -1034,10 +948,8 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2023-01-26</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C47" t="n">
         <v>0.1753</v>
@@ -1047,10 +959,8 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2023-01-25</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C48" t="n">
         <v>0.0902</v>
@@ -1060,10 +970,8 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2023-01-24</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C49" t="n">
         <v>0.1072</v>
@@ -1073,10 +981,8 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-01-23</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>44949</v>
       </c>
       <c r="C50" t="n">
         <v>0.1338</v>
@@ -1086,10 +992,8 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023-01-22</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C51" t="n">
         <v>0.1626</v>
@@ -1099,10 +1003,8 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023-01-21</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C52" t="n">
         <v>0.1378</v>
@@ -1112,10 +1014,8 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-01-20</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C53" t="n">
         <v>0.1241</v>
@@ -1125,10 +1025,8 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-01-19</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C54" t="n">
         <v>0.1256</v>
@@ -1138,10 +1036,8 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-01-18</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C55" t="n">
         <v>0.08069999999999999</v>
@@ -1151,10 +1047,8 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-01-17</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C56" t="n">
         <v>0.1149</v>
@@ -1164,10 +1058,8 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-01-16</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>44942</v>
       </c>
       <c r="C57" t="n">
         <v>0.1185</v>
@@ -1177,10 +1069,8 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-01-15</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C58" t="n">
         <v>0.1027</v>
@@ -1190,10 +1080,8 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-01-14</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C59" t="n">
         <v>0.077</v>
@@ -1203,10 +1091,8 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C60" t="n">
         <v>0.0735</v>
@@ -1216,10 +1102,8 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-01-12</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C61" t="n">
         <v>0.102</v>
@@ -1229,10 +1113,8 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023-01-11</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C62" t="n">
         <v>0.07389999999999999</v>
@@ -1242,10 +1124,8 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-01-10</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C63" t="n">
         <v>-0.0472</v>
@@ -1255,10 +1135,8 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-01-09</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>44935</v>
       </c>
       <c r="C64" t="n">
         <v>0.0387</v>
@@ -1268,10 +1146,8 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-01-08</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C65" t="n">
         <v>0.1028</v>
@@ -1281,10 +1157,8 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023-01-07</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C66" t="n">
         <v>0.0905</v>
@@ -1294,10 +1168,8 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023-01-06</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C67" t="n">
         <v>0.0243</v>
@@ -1307,10 +1179,8 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-01-05</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C68" t="n">
         <v>0.09710000000000001</v>
@@ -1320,10 +1190,8 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-01-04</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C69" t="n">
         <v>0.09039999999999999</v>
@@ -1333,10 +1201,8 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023-01-03</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C70" t="n">
         <v>0.0588</v>
@@ -1346,10 +1212,8 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-01-02</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>44928</v>
       </c>
       <c r="C71" t="n">
         <v>0.0559</v>
@@ -1359,10 +1223,8 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C72" t="n">
         <v>0.09619999999999999</v>
@@ -1372,10 +1234,8 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022-12-31</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C73" t="n">
         <v>0.1308</v>
@@ -1385,10 +1245,8 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022-12-30</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C74" t="n">
         <v>0.1135</v>
@@ -1398,10 +1256,8 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022-12-29</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C75" t="n">
         <v>0.082</v>
@@ -1411,10 +1267,8 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022-12-28</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C76" t="n">
         <v>0.0692</v>
@@ -1424,10 +1278,8 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022-12-27</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C77" t="n">
         <v>0.0101</v>
@@ -1437,10 +1289,8 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022-12-26</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>44921</v>
       </c>
       <c r="C78" t="n">
         <v>0.0809</v>
@@ -1450,10 +1300,8 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022-12-25</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C79" t="n">
         <v>0.0917</v>
@@ -1463,10 +1311,8 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022-12-24</t>
-        </is>
+      <c r="B80" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C80" t="n">
         <v>0.1129</v>
@@ -1476,10 +1322,8 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022-12-23</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C81" t="n">
         <v>0.0822</v>
@@ -1489,10 +1333,8 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022-12-22</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C82" t="n">
         <v>0.1056</v>
@@ -1502,10 +1344,8 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022-12-21</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C83" t="n">
         <v>0.1114</v>
@@ -1515,10 +1355,8 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022-12-20</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C84" t="n">
         <v>0.0941</v>
@@ -1528,10 +1366,8 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022-12-19</t>
-        </is>
+      <c r="B85" s="2" t="n">
+        <v>44914</v>
       </c>
       <c r="C85" t="n">
         <v>0.1105</v>
@@ -1541,10 +1377,8 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022-12-18</t>
-        </is>
+      <c r="B86" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C86" t="n">
         <v>0.1019</v>
@@ -1554,10 +1388,8 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022-12-17</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C87" t="n">
         <v>0.0805</v>
@@ -1567,10 +1399,8 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022-12-16</t>
-        </is>
+      <c r="B88" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C88" t="n">
         <v>0.0743</v>
@@ -1580,10 +1410,8 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022-12-15</t>
-        </is>
+      <c r="B89" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C89" t="n">
         <v>0.1471</v>
@@ -1593,10 +1421,8 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022-12-14</t>
-        </is>
+      <c r="B90" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C90" t="n">
         <v>0.0849</v>
@@ -1606,10 +1432,8 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022-12-13</t>
-        </is>
+      <c r="B91" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C91" t="n">
         <v>0.07820000000000001</v>
@@ -1619,10 +1443,8 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022-12-12</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>44907</v>
       </c>
       <c r="C92" t="n">
         <v>0.08019999999999999</v>
@@ -1632,10 +1454,8 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022-12-11</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C93" t="n">
         <v>0.1609</v>
@@ -1645,10 +1465,8 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022-12-10</t>
-        </is>
+      <c r="B94" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C94" t="n">
         <v>0.07530000000000001</v>
@@ -1658,10 +1476,8 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022-12-09</t>
-        </is>
+      <c r="B95" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C95" t="n">
         <v>0.0533</v>
@@ -1671,10 +1487,8 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022-12-08</t>
-        </is>
+      <c r="B96" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C96" t="n">
         <v>0.0609</v>
@@ -1684,10 +1498,8 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022-12-07</t>
-        </is>
+      <c r="B97" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C97" t="n">
         <v>0.0779</v>
@@ -1697,10 +1509,8 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022-12-06</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C98" t="n">
         <v>0.0717</v>
@@ -1710,10 +1520,8 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022-12-05</t>
-        </is>
+      <c r="B99" s="2" t="n">
+        <v>44900</v>
       </c>
       <c r="C99" t="n">
         <v>0.027</v>
@@ -1723,10 +1531,8 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022-12-04</t>
-        </is>
+      <c r="B100" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C100" t="n">
         <v>0.159</v>
@@ -1736,10 +1542,8 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022-12-03</t>
-        </is>
+      <c r="B101" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C101" t="n">
         <v>0.1456</v>
@@ -1749,10 +1553,8 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022-12-02</t>
-        </is>
+      <c r="B102" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C102" t="n">
         <v>0.2151</v>
@@ -1762,10 +1564,8 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022-12-01</t>
-        </is>
+      <c r="B103" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C103" t="n">
         <v>0.1138</v>
@@ -1775,10 +1575,8 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022-11-30</t>
-        </is>
+      <c r="B104" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C104" t="n">
         <v>0.1268</v>
@@ -1788,10 +1586,8 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022-11-29</t>
-        </is>
+      <c r="B105" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C105" t="n">
         <v>0.0009</v>
@@ -1801,10 +1597,8 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022-11-28</t>
-        </is>
+      <c r="B106" s="2" t="n">
+        <v>44893</v>
       </c>
       <c r="C106" t="n">
         <v>0.09959999999999999</v>
@@ -1814,10 +1608,8 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022-11-27</t>
-        </is>
+      <c r="B107" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C107" t="n">
         <v>0.1155</v>
@@ -1827,10 +1619,8 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022-11-26</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C108" t="n">
         <v>0.1366</v>
@@ -1840,10 +1630,8 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022-11-25</t>
-        </is>
+      <c r="B109" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C109" t="n">
         <v>0.1335</v>
@@ -1853,10 +1641,8 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022-11-24</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C110" t="n">
         <v>0.164</v>
@@ -1866,10 +1652,8 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022-11-23</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C111" t="n">
         <v>0.09130000000000001</v>
@@ -1879,10 +1663,8 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="B112" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C112" t="n">
         <v>0.0885</v>
@@ -1892,10 +1674,8 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022-11-21</t>
-        </is>
+      <c r="B113" s="2" t="n">
+        <v>44886</v>
       </c>
       <c r="C113" t="n">
         <v>0.1042</v>
@@ -1905,10 +1685,8 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022-11-20</t>
-        </is>
+      <c r="B114" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C114" t="n">
         <v>0.1287</v>
@@ -1918,10 +1696,8 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022-11-19</t>
-        </is>
+      <c r="B115" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C115" t="n">
         <v>0.1228</v>
@@ -1931,10 +1707,8 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022-11-18</t>
-        </is>
+      <c r="B116" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C116" t="n">
         <v>0.1159</v>
@@ -1944,10 +1718,8 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022-11-17</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C117" t="n">
         <v>0.1137</v>
@@ -1957,10 +1729,8 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022-11-16</t>
-        </is>
+      <c r="B118" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C118" t="n">
         <v>0.098</v>
@@ -1970,10 +1740,8 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022-11-15</t>
-        </is>
+      <c r="B119" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C119" t="n">
         <v>0.1046</v>
@@ -1983,10 +1751,8 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022-11-14</t>
-        </is>
+      <c r="B120" s="2" t="n">
+        <v>44879</v>
       </c>
       <c r="C120" t="n">
         <v>0.0842</v>
@@ -1996,10 +1762,8 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022-11-13</t>
-        </is>
+      <c r="B121" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C121" t="n">
         <v>0.08459999999999999</v>
@@ -2009,10 +1773,8 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022-11-12</t>
-        </is>
+      <c r="B122" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C122" t="n">
         <v>0.1065</v>
@@ -2022,10 +1784,8 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022-11-11</t>
-        </is>
+      <c r="B123" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C123" t="n">
         <v>0.116</v>
@@ -2035,10 +1795,8 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022-11-10</t>
-        </is>
+      <c r="B124" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C124" t="n">
         <v>0.0649</v>
@@ -2048,10 +1806,8 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022-11-09</t>
-        </is>
+      <c r="B125" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C125" t="n">
         <v>0.1581</v>
@@ -2061,10 +1817,8 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022-11-08</t>
-        </is>
+      <c r="B126" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C126" t="n">
         <v>0.0339</v>
@@ -2074,10 +1828,8 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022-11-07</t>
-        </is>
+      <c r="B127" s="2" t="n">
+        <v>44872</v>
       </c>
       <c r="C127" t="n">
         <v>0.0227</v>
@@ -2087,10 +1839,8 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022-11-06</t>
-        </is>
+      <c r="B128" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C128" t="n">
         <v>0.2103</v>
@@ -2100,10 +1850,8 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022-11-05</t>
-        </is>
+      <c r="B129" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C129" t="n">
         <v>0.1577</v>
@@ -2113,10 +1861,8 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022-11-04</t>
-        </is>
+      <c r="B130" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C130" t="n">
         <v>0.0788</v>
@@ -2126,10 +1872,8 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022-11-03</t>
-        </is>
+      <c r="B131" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C131" t="n">
         <v>0.1123</v>
@@ -2139,10 +1883,8 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022-11-02</t>
-        </is>
+      <c r="B132" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C132" t="n">
         <v>0.111</v>
@@ -2152,10 +1894,8 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022-11-01</t>
-        </is>
+      <c r="B133" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C133" t="n">
         <v>0.1452</v>
@@ -2165,10 +1905,8 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022-10-31</t>
-        </is>
+      <c r="B134" s="2" t="n">
+        <v>44865</v>
       </c>
       <c r="C134" t="n">
         <v>0.1006</v>
@@ -2178,10 +1916,8 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022-10-30</t>
-        </is>
+      <c r="B135" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C135" t="n">
         <v>0.195</v>
@@ -2191,10 +1927,8 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022-10-29</t>
-        </is>
+      <c r="B136" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C136" t="n">
         <v>0.1276</v>
@@ -2204,10 +1938,8 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022-10-28</t>
-        </is>
+      <c r="B137" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C137" t="n">
         <v>0.1554</v>
@@ -2217,10 +1949,8 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022-10-27</t>
-        </is>
+      <c r="B138" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C138" t="n">
         <v>0.1265</v>
@@ -2230,10 +1960,8 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022-10-26</t>
-        </is>
+      <c r="B139" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C139" t="n">
         <v>0.1062</v>
@@ -2243,10 +1971,8 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022-10-25</t>
-        </is>
+      <c r="B140" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C140" t="n">
         <v>0.1318</v>
@@ -2256,10 +1982,8 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022-10-24</t>
-        </is>
+      <c r="B141" s="2" t="n">
+        <v>44858</v>
       </c>
       <c r="C141" t="n">
         <v>0.0616</v>
@@ -2269,10 +1993,8 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022-10-23</t>
-        </is>
+      <c r="B142" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C142" t="n">
         <v>0.2109</v>
@@ -2282,10 +2004,8 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022-10-22</t>
-        </is>
+      <c r="B143" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C143" t="n">
         <v>0.1981</v>
@@ -2295,10 +2015,8 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022-10-21</t>
-        </is>
+      <c r="B144" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C144" t="n">
         <v>0.1303</v>
@@ -2308,10 +2026,8 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022-10-20</t>
-        </is>
+      <c r="B145" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C145" t="n">
         <v>0.0956</v>
@@ -2321,10 +2037,8 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022-10-19</t>
-        </is>
+      <c r="B146" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C146" t="n">
         <v>0.1155</v>
@@ -2334,10 +2048,8 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022-10-18</t>
-        </is>
+      <c r="B147" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C147" t="n">
         <v>0.106</v>
@@ -2347,10 +2059,8 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022-10-17</t>
-        </is>
+      <c r="B148" s="2" t="n">
+        <v>44851</v>
       </c>
       <c r="C148" t="n">
         <v>0.1281</v>
@@ -2360,10 +2070,8 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022-10-16</t>
-        </is>
+      <c r="B149" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C149" t="n">
         <v>0.1538</v>
@@ -2373,10 +2081,8 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022-10-15</t>
-        </is>
+      <c r="B150" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C150" t="n">
         <v>0.1054</v>
@@ -2386,10 +2092,8 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022-10-14</t>
-        </is>
+      <c r="B151" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C151" t="n">
         <v>0.0912</v>
@@ -2399,10 +2103,8 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022-10-13</t>
-        </is>
+      <c r="B152" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C152" t="n">
         <v>0.1033</v>
@@ -2412,10 +2114,8 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022-10-12</t>
-        </is>
+      <c r="B153" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C153" t="n">
         <v>0.1159</v>
@@ -2425,10 +2125,8 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022-10-11</t>
-        </is>
+      <c r="B154" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C154" t="n">
         <v>0.0922</v>
@@ -2438,10 +2136,8 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022-10-10</t>
-        </is>
+      <c r="B155" s="2" t="n">
+        <v>44844</v>
       </c>
       <c r="C155" t="n">
         <v>0.1131</v>
@@ -2451,10 +2147,8 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022-10-09</t>
-        </is>
+      <c r="B156" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C156" t="n">
         <v>0.0906</v>
@@ -2464,10 +2158,8 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022-10-08</t>
-        </is>
+      <c r="B157" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C157" t="n">
         <v>0.09420000000000001</v>
@@ -2477,10 +2169,8 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022-10-07</t>
-        </is>
+      <c r="B158" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C158" t="n">
         <v>0.1474</v>
@@ -2490,10 +2180,8 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022-10-06</t>
-        </is>
+      <c r="B159" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C159" t="n">
         <v>0.1655</v>
@@ -2503,10 +2191,8 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022-10-05</t>
-        </is>
+      <c r="B160" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C160" t="n">
         <v>0.1668</v>
@@ -2516,10 +2202,8 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022-10-04</t>
-        </is>
+      <c r="B161" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C161" t="n">
         <v>0.1266</v>
@@ -2529,10 +2213,8 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022-10-03</t>
-        </is>
+      <c r="B162" s="2" t="n">
+        <v>44837</v>
       </c>
       <c r="C162" t="n">
         <v>0.1065</v>
@@ -2542,10 +2224,8 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022-10-02</t>
-        </is>
+      <c r="B163" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C163" t="n">
         <v>0.1153</v>
@@ -2555,10 +2235,8 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
+      <c r="B164" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C164" t="n">
         <v>0.0959</v>
@@ -2568,10 +2246,8 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022-09-30</t>
-        </is>
+      <c r="B165" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C165" t="n">
         <v>0.124</v>
@@ -2581,10 +2257,8 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022-09-29</t>
-        </is>
+      <c r="B166" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C166" t="n">
         <v>0.0984</v>
@@ -2594,10 +2268,8 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022-09-28</t>
-        </is>
+      <c r="B167" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C167" t="n">
         <v>0.1141</v>
@@ -2607,10 +2279,8 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022-09-27</t>
-        </is>
+      <c r="B168" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C168" t="n">
         <v>0.1348</v>
@@ -2620,10 +2290,8 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022-09-26</t>
-        </is>
+      <c r="B169" s="2" t="n">
+        <v>44830</v>
       </c>
       <c r="C169" t="n">
         <v>0.1508</v>
@@ -2633,10 +2301,8 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022-09-25</t>
-        </is>
+      <c r="B170" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C170" t="n">
         <v>0.1659</v>
@@ -2646,10 +2312,8 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022-09-24</t>
-        </is>
+      <c r="B171" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C171" t="n">
         <v>0.132</v>
@@ -2659,10 +2323,8 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
+      <c r="B172" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C172" t="n">
         <v>0.1044</v>
@@ -2672,10 +2334,8 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022-09-22</t>
-        </is>
+      <c r="B173" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C173" t="n">
         <v>0.089</v>
@@ -2685,10 +2345,8 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022-09-21</t>
-        </is>
+      <c r="B174" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C174" t="n">
         <v>0.1141</v>
@@ -2698,10 +2356,8 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022-09-20</t>
-        </is>
+      <c r="B175" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C175" t="n">
         <v>0.09320000000000001</v>
@@ -2711,10 +2367,8 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022-09-19</t>
-        </is>
+      <c r="B176" s="2" t="n">
+        <v>44823</v>
       </c>
       <c r="C176" t="n">
         <v>0.09320000000000001</v>
@@ -2724,10 +2378,8 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022-09-18</t>
-        </is>
+      <c r="B177" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C177" t="n">
         <v>0.1244</v>
@@ -2737,10 +2389,8 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022-09-17</t>
-        </is>
+      <c r="B178" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C178" t="n">
         <v>0.1559</v>
@@ -2750,10 +2400,8 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022-09-16</t>
-        </is>
+      <c r="B179" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C179" t="n">
         <v>0.152</v>
@@ -2763,10 +2411,8 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022-09-15</t>
-        </is>
+      <c r="B180" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C180" t="n">
         <v>0.142</v>
@@ -2776,10 +2422,8 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
+      <c r="B181" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C181" t="n">
         <v>0.0961</v>
@@ -2789,10 +2433,8 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022-09-13</t>
-        </is>
+      <c r="B182" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C182" t="n">
         <v>0.1259</v>
@@ -2802,10 +2444,8 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022-09-12</t>
-        </is>
+      <c r="B183" s="2" t="n">
+        <v>44816</v>
       </c>
       <c r="C183" t="n">
         <v>0.1431</v>
@@ -2815,10 +2455,8 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022-09-11</t>
-        </is>
+      <c r="B184" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C184" t="n">
         <v>0.2117</v>
@@ -2828,10 +2466,8 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
+      <c r="B185" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C185" t="n">
         <v>0.1518</v>
@@ -2841,10 +2477,8 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
+      <c r="B186" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C186" t="n">
         <v>0.1434</v>
@@ -2854,10 +2488,8 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
+      <c r="B187" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C187" t="n">
         <v>0.1894</v>
@@ -2867,10 +2499,8 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
+      <c r="B188" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C188" t="n">
         <v>0.1723</v>
@@ -2880,10 +2510,8 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
+      <c r="B189" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C189" t="n">
         <v>0.1107</v>
@@ -2893,10 +2521,8 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
+      <c r="B190" s="2" t="n">
+        <v>44809</v>
       </c>
       <c r="C190" t="n">
         <v>0.1581</v>
@@ -2906,10 +2532,8 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
+      <c r="B191" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C191" t="n">
         <v>0.18</v>
@@ -2919,10 +2543,8 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
+      <c r="B192" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C192" t="n">
         <v>0.2458</v>
@@ -2932,10 +2554,8 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
+      <c r="B193" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C193" t="n">
         <v>0.1554</v>
@@ -2945,10 +2565,8 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
+      <c r="B194" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C194" t="n">
         <v>0.1287</v>
@@ -2958,10 +2576,8 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
+      <c r="B195" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C195" t="n">
         <v>0.1132</v>
@@ -2971,10 +2587,8 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
+      <c r="B196" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C196" t="n">
         <v>0.1238</v>
@@ -2984,10 +2598,8 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
+      <c r="B197" s="2" t="n">
+        <v>44802</v>
       </c>
       <c r="C197" t="n">
         <v>0.1109</v>
@@ -2997,10 +2609,8 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
+      <c r="B198" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C198" t="n">
         <v>0.167</v>
@@ -3010,10 +2620,8 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
+      <c r="B199" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C199" t="n">
         <v>0.1482</v>
@@ -3023,10 +2631,8 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
+      <c r="B200" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C200" t="n">
         <v>0.1228</v>
@@ -3036,10 +2642,8 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
+      <c r="B201" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C201" t="n">
         <v>0.1508</v>
@@ -3049,10 +2653,8 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
+      <c r="B202" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C202" t="n">
         <v>0.1282</v>
@@ -3062,10 +2664,8 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
+      <c r="B203" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C203" t="n">
         <v>0.1186</v>
@@ -3075,10 +2675,8 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
+      <c r="B204" s="2" t="n">
+        <v>44795</v>
       </c>
       <c r="C204" t="n">
         <v>0.1327</v>
@@ -3088,10 +2686,8 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
+      <c r="B205" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C205" t="n">
         <v>0.1693</v>
@@ -3101,10 +2697,8 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
+      <c r="B206" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C206" t="n">
         <v>0.1732</v>
@@ -3114,10 +2708,8 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
+      <c r="B207" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C207" t="n">
         <v>0.1717</v>
@@ -3127,10 +2719,8 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
+      <c r="B208" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C208" t="n">
         <v>0.1556</v>
@@ -3140,10 +2730,8 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
+      <c r="B209" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C209" t="n">
         <v>0.1204</v>
@@ -3153,10 +2741,8 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
+      <c r="B210" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C210" t="n">
         <v>0.1394</v>
@@ -3166,10 +2752,8 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
+      <c r="B211" s="2" t="n">
+        <v>44788</v>
       </c>
       <c r="C211" t="n">
         <v>0.131</v>
@@ -3179,10 +2763,8 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
+      <c r="B212" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C212" t="n">
         <v>0.1345</v>
@@ -3192,10 +2774,8 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+      <c r="B213" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C213" t="n">
         <v>0.1675</v>
@@ -3205,10 +2785,8 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
+      <c r="B214" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C214" t="n">
         <v>0.1009</v>
@@ -3218,10 +2796,8 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
+      <c r="B215" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C215" t="n">
         <v>0.1395</v>
@@ -3231,10 +2807,8 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
+      <c r="B216" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C216" t="n">
         <v>0.1601</v>
@@ -3244,10 +2818,8 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
+      <c r="B217" s="2" t="n">
+        <v>44781</v>
       </c>
       <c r="C217" t="n">
         <v>-0.1167</v>
@@ -3257,10 +2829,8 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2022-07-29</t>
-        </is>
+      <c r="B218" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C218" t="n">
         <v>0.234</v>
@@ -3270,10 +2840,8 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2022-07-28</t>
-        </is>
+      <c r="B219" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C219" t="n">
         <v>0.1357</v>
@@ -3283,10 +2851,8 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
+      <c r="B220" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C220" t="n">
         <v>0.09180000000000001</v>
@@ -3296,10 +2862,8 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2022-07-26</t>
-        </is>
+      <c r="B221" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C221" t="n">
         <v>0.1265</v>
@@ -3309,10 +2873,8 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2022-07-25</t>
-        </is>
+      <c r="B222" s="2" t="n">
+        <v>44767</v>
       </c>
       <c r="C222" t="n">
         <v>0.1197</v>
@@ -3322,10 +2884,8 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2022-07-24</t>
-        </is>
+      <c r="B223" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C223" t="n">
         <v>0.1561</v>
@@ -3335,10 +2895,8 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2022-07-23</t>
-        </is>
+      <c r="B224" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C224" t="n">
         <v>0.1713</v>
@@ -3348,10 +2906,8 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2022-07-22</t>
-        </is>
+      <c r="B225" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C225" t="n">
         <v>0.0762</v>
@@ -3361,10 +2917,8 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2022-07-21</t>
-        </is>
+      <c r="B226" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C226" t="n">
         <v>0.0927</v>
@@ -3374,10 +2928,8 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2022-07-20</t>
-        </is>
+      <c r="B227" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C227" t="n">
         <v>0.09370000000000001</v>
@@ -3387,10 +2939,8 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2022-07-19</t>
-        </is>
+      <c r="B228" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C228" t="n">
         <v>0.08069999999999999</v>
@@ -3400,10 +2950,8 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2022-07-18</t>
-        </is>
+      <c r="B229" s="2" t="n">
+        <v>44760</v>
       </c>
       <c r="C229" t="n">
         <v>0.0828</v>
@@ -3413,10 +2961,8 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2022-07-17</t>
-        </is>
+      <c r="B230" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C230" t="n">
         <v>0.1656</v>
@@ -3426,10 +2972,8 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2022-07-16</t>
-        </is>
+      <c r="B231" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C231" t="n">
         <v>0.0925</v>
@@ -3439,10 +2983,8 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2022-07-15</t>
-        </is>
+      <c r="B232" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C232" t="n">
         <v>0.08939999999999999</v>
@@ -3452,10 +2994,8 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2022-07-14</t>
-        </is>
+      <c r="B233" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C233" t="n">
         <v>0.1169</v>
@@ -3465,10 +3005,8 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2022-07-13</t>
-        </is>
+      <c r="B234" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C234" t="n">
         <v>0.1065</v>
@@ -3478,10 +3016,8 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2022-07-12</t>
-        </is>
+      <c r="B235" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C235" t="n">
         <v>0.0993</v>
@@ -3491,10 +3027,8 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2022-07-11</t>
-        </is>
+      <c r="B236" s="2" t="n">
+        <v>44753</v>
       </c>
       <c r="C236" t="n">
         <v>0.1143</v>
@@ -3504,10 +3038,8 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
+      <c r="B237" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C237" t="n">
         <v>0.1582</v>
@@ -3517,10 +3049,8 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
+      <c r="B238" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C238" t="n">
         <v>0.1411</v>
@@ -3530,10 +3060,8 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2022-07-08</t>
-        </is>
+      <c r="B239" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C239" t="n">
         <v>0.1312</v>
@@ -3543,10 +3071,8 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2022-07-07</t>
-        </is>
+      <c r="B240" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C240" t="n">
         <v>0.0725</v>
@@ -3556,10 +3082,8 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2022-07-06</t>
-        </is>
+      <c r="B241" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C241" t="n">
         <v>0.11</v>
@@ -3569,10 +3093,8 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2022-07-05</t>
-        </is>
+      <c r="B242" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C242" t="n">
         <v>0.0833</v>
@@ -3582,10 +3104,8 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2022-07-04</t>
-        </is>
+      <c r="B243" s="2" t="n">
+        <v>44746</v>
       </c>
       <c r="C243" t="n">
         <v>0.0721</v>
@@ -3595,10 +3115,8 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2022-07-03</t>
-        </is>
+      <c r="B244" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C244" t="n">
         <v>0.08359999999999999</v>
@@ -3608,10 +3126,8 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2022-07-02</t>
-        </is>
+      <c r="B245" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C245" t="n">
         <v>0.0997</v>
@@ -3621,10 +3137,8 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2022-07-01</t>
-        </is>
+      <c r="B246" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C246" t="n">
         <v>0.0781</v>
@@ -3634,10 +3148,8 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
+      <c r="B247" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C247" t="n">
         <v>0.0526</v>
@@ -3647,10 +3159,8 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2022-06-29</t>
-        </is>
+      <c r="B248" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C248" t="n">
         <v>0.0934</v>
@@ -3660,10 +3170,8 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2022-06-28</t>
-        </is>
+      <c r="B249" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C249" t="n">
         <v>0.1142</v>
@@ -3673,10 +3181,8 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2022-06-27</t>
-        </is>
+      <c r="B250" s="2" t="n">
+        <v>44739</v>
       </c>
       <c r="C250" t="n">
         <v>0.116</v>
@@ -3686,10 +3192,8 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2022-06-26</t>
-        </is>
+      <c r="B251" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C251" t="n">
         <v>0.0866</v>
@@ -3699,10 +3203,8 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>2022-06-25</t>
-        </is>
+      <c r="B252" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C252" t="n">
         <v>0.1766</v>
@@ -3712,10 +3214,8 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2022-06-24</t>
-        </is>
+      <c r="B253" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C253" t="n">
         <v>0.1105</v>
@@ -3725,10 +3225,8 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
+      <c r="B254" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C254" t="n">
         <v>0.0867</v>
@@ -3738,10 +3236,8 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2022-06-22</t>
-        </is>
+      <c r="B255" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C255" t="n">
         <v>0.1018</v>
@@ -3751,10 +3247,8 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2022-06-21</t>
-        </is>
+      <c r="B256" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C256" t="n">
         <v>0.1193</v>
@@ -3764,10 +3258,8 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
-        </is>
+      <c r="B257" s="2" t="n">
+        <v>44732</v>
       </c>
       <c r="C257" t="n">
         <v>0.1368</v>
@@ -3777,10 +3269,8 @@
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>2022-06-19</t>
-        </is>
+      <c r="B258" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C258" t="n">
         <v>0.1472</v>
@@ -3790,10 +3280,8 @@
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2022-06-18</t>
-        </is>
+      <c r="B259" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C259" t="n">
         <v>0.138</v>
@@ -3803,10 +3291,8 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2022-06-17</t>
-        </is>
+      <c r="B260" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C260" t="n">
         <v>0.046</v>
@@ -3816,10 +3302,8 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2022-06-16</t>
-        </is>
+      <c r="B261" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C261" t="n">
         <v>0.1126</v>
@@ -3829,10 +3313,8 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
+      <c r="B262" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C262" t="n">
         <v>0.1186</v>
@@ -3842,10 +3324,8 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2022-06-14</t>
-        </is>
+      <c r="B263" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C263" t="n">
         <v>0.0939</v>
@@ -3855,10 +3335,8 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2022-06-13</t>
-        </is>
+      <c r="B264" s="2" t="n">
+        <v>44725</v>
       </c>
       <c r="C264" t="n">
         <v>0.09719999999999999</v>
@@ -3868,10 +3346,8 @@
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2022-06-12</t>
-        </is>
+      <c r="B265" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C265" t="n">
         <v>0.2385</v>
@@ -3881,10 +3357,8 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
+      <c r="B266" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C266" t="n">
         <v>0.2231</v>
@@ -3894,10 +3368,8 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2022-06-10</t>
-        </is>
+      <c r="B267" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C267" t="n">
         <v>0.1541</v>
@@ -3907,10 +3379,8 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2022-06-09</t>
-        </is>
+      <c r="B268" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C268" t="n">
         <v>0.1387</v>
@@ -3920,10 +3390,8 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
+      <c r="B269" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C269" t="n">
         <v>0.0944</v>
@@ -3933,10 +3401,8 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
+      <c r="B270" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C270" t="n">
         <v>0.1293</v>
@@ -3946,10 +3412,8 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2022-06-06</t>
-        </is>
+      <c r="B271" s="2" t="n">
+        <v>44718</v>
       </c>
       <c r="C271" t="n">
         <v>0.0951</v>
@@ -3959,10 +3423,8 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2022-06-05</t>
-        </is>
+      <c r="B272" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C272" t="n">
         <v>0.1209</v>
@@ -3972,10 +3434,8 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
+      <c r="B273" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C273" t="n">
         <v>0.1012</v>
@@ -3985,10 +3445,8 @@
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2022-06-03</t>
-        </is>
+      <c r="B274" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C274" t="n">
         <v>0.0856</v>
@@ -3998,10 +3456,8 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2022-06-02</t>
-        </is>
+      <c r="B275" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C275" t="n">
         <v>0.107</v>
@@ -4011,10 +3467,8 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
+      <c r="B276" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C276" t="n">
         <v>0.0871</v>
@@ -4024,10 +3478,8 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2022-05-31</t>
-        </is>
+      <c r="B277" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C277" t="n">
         <v>0.0985</v>
@@ -4037,10 +3489,8 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2022-05-30</t>
-        </is>
+      <c r="B278" s="2" t="n">
+        <v>44711</v>
       </c>
       <c r="C278" t="n">
         <v>0.1341</v>
@@ -4050,10 +3500,8 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
+      <c r="B279" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C279" t="n">
         <v>0.1664</v>
@@ -4063,10 +3511,8 @@
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2022-05-28</t>
-        </is>
+      <c r="B280" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C280" t="n">
         <v>0.0436</v>
@@ -4076,10 +3522,8 @@
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2022-05-27</t>
-        </is>
+      <c r="B281" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C281" t="n">
         <v>0.1312</v>
@@ -4089,10 +3533,8 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2022-05-26</t>
-        </is>
+      <c r="B282" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C282" t="n">
         <v>0.1228</v>
@@ -4102,10 +3544,8 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2022-05-25</t>
-        </is>
+      <c r="B283" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C283" t="n">
         <v>0.1465</v>
@@ -4115,10 +3555,8 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2022-05-24</t>
-        </is>
+      <c r="B284" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C284" t="n">
         <v>0.07729999999999999</v>
@@ -4128,10 +3566,8 @@
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
+      <c r="B285" s="2" t="n">
+        <v>44704</v>
       </c>
       <c r="C285" t="n">
         <v>0.07240000000000001</v>
@@ -4141,10 +3577,8 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2022-05-22</t>
-        </is>
+      <c r="B286" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C286" t="n">
         <v>0.1093</v>
@@ -4154,10 +3588,8 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
+      <c r="B287" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C287" t="n">
         <v>0.1382</v>
@@ -4167,10 +3599,8 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2022-05-20</t>
-        </is>
+      <c r="B288" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C288" t="n">
         <v>0.0129</v>
@@ -4180,10 +3610,8 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2022-05-19</t>
-        </is>
+      <c r="B289" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C289" t="n">
         <v>0.06469999999999999</v>
@@ -4193,10 +3621,8 @@
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2022-05-18</t>
-        </is>
+      <c r="B290" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C290" t="n">
         <v>-0.0226</v>
@@ -4206,10 +3632,8 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2022-05-17</t>
-        </is>
+      <c r="B291" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C291" t="n">
         <v>-0.0276</v>
@@ -4219,10 +3643,8 @@
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2022-05-16</t>
-        </is>
+      <c r="B292" s="2" t="n">
+        <v>44697</v>
       </c>
       <c r="C292" t="n">
         <v>0.0572</v>
@@ -4232,10 +3654,8 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
+      <c r="B293" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C293" t="n">
         <v>0.1528</v>
@@ -4245,10 +3665,8 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2022-05-14</t>
-        </is>
+      <c r="B294" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C294" t="n">
         <v>0.1888</v>
@@ -4258,10 +3676,8 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2022-05-13</t>
-        </is>
+      <c r="B295" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C295" t="n">
         <v>0.0771</v>
@@ -4271,10 +3687,8 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2022-05-12</t>
-        </is>
+      <c r="B296" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C296" t="n">
         <v>0.1075</v>
@@ -4284,10 +3698,8 @@
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2022-05-11</t>
-        </is>
+      <c r="B297" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C297" t="n">
         <v>0.1632</v>
@@ -4297,10 +3709,8 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2022-05-10</t>
-        </is>
+      <c r="B298" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C298" t="n">
         <v>0.0403</v>
@@ -4310,10 +3720,8 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2022-05-09</t>
-        </is>
+      <c r="B299" s="2" t="n">
+        <v>44690</v>
       </c>
       <c r="C299" t="n">
         <v>0.0838</v>
@@ -4323,10 +3731,8 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
+      <c r="B300" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C300" t="n">
         <v>0.0738</v>
@@ -4336,10 +3742,8 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2022-05-07</t>
-        </is>
+      <c r="B301" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C301" t="n">
         <v>0.07770000000000001</v>
@@ -4349,10 +3753,8 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2022-05-06</t>
-        </is>
+      <c r="B302" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C302" t="n">
         <v>0.1374</v>
@@ -4362,10 +3764,8 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2022-05-05</t>
-        </is>
+      <c r="B303" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C303" t="n">
         <v>0.0968</v>
@@ -4375,10 +3775,8 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2022-05-04</t>
-        </is>
+      <c r="B304" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C304" t="n">
         <v>0.1028</v>
@@ -4388,10 +3786,8 @@
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
+      <c r="B305" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C305" t="n">
         <v>0.1173</v>
@@ -4401,10 +3797,8 @@
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2022-05-02</t>
-        </is>
+      <c r="B306" s="2" t="n">
+        <v>44683</v>
       </c>
       <c r="C306" t="n">
         <v>0.1225</v>
@@ -4414,10 +3808,8 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="B307" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C307" t="n">
         <v>0.077</v>
@@ -4427,10 +3819,8 @@
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
+      <c r="B308" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C308" t="n">
         <v>0.1041</v>
@@ -4440,10 +3830,8 @@
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2022-04-29</t>
-        </is>
+      <c r="B309" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C309" t="n">
         <v>0.1184</v>
@@ -4453,10 +3841,8 @@
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2022-04-28</t>
-        </is>
+      <c r="B310" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C310" t="n">
         <v>0.0911</v>
@@ -4466,10 +3852,8 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2022-04-27</t>
-        </is>
+      <c r="B311" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C311" t="n">
         <v>0.0525</v>
@@ -4479,10 +3863,8 @@
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2022-04-26</t>
-        </is>
+      <c r="B312" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C312" t="n">
         <v>0.0707</v>
@@ -4492,10 +3874,8 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
-        </is>
+      <c r="B313" s="2" t="n">
+        <v>44676</v>
       </c>
       <c r="C313" t="n">
         <v>0.0272</v>
@@ -4505,10 +3885,8 @@
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2022-04-24</t>
-        </is>
+      <c r="B314" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C314" t="n">
         <v>0.0864</v>
@@ -4518,10 +3896,8 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2022-04-23</t>
-        </is>
+      <c r="B315" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C315" t="n">
         <v>0.1117</v>
@@ -4531,10 +3907,8 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2022-04-22</t>
-        </is>
+      <c r="B316" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C316" t="n">
         <v>0.0442</v>
@@ -4544,10 +3918,8 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2022-04-21</t>
-        </is>
+      <c r="B317" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C317" t="n">
         <v>0.0174</v>
@@ -4557,10 +3929,8 @@
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2022-04-20</t>
-        </is>
+      <c r="B318" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C318" t="n">
         <v>0.0482</v>
@@ -4570,10 +3940,8 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2022-04-19</t>
-        </is>
+      <c r="B319" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C319" t="n">
         <v>0.1009</v>
@@ -4583,10 +3951,8 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
+      <c r="B320" s="2" t="n">
+        <v>44669</v>
       </c>
       <c r="C320" t="n">
         <v>0.0815</v>
@@ -4596,10 +3962,8 @@
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2022-04-17</t>
-        </is>
+      <c r="B321" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C321" t="n">
         <v>0.0979</v>
@@ -4609,10 +3973,8 @@
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
+      <c r="B322" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C322" t="n">
         <v>0.0341</v>
@@ -4622,10 +3984,8 @@
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2022-04-15</t>
-        </is>
+      <c r="B323" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C323" t="n">
         <v>0.065</v>
@@ -4635,10 +3995,8 @@
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2022-04-14</t>
-        </is>
+      <c r="B324" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C324" t="n">
         <v>0.0823</v>
@@ -4648,10 +4006,8 @@
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2022-04-13</t>
-        </is>
+      <c r="B325" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C325" t="n">
         <v>0.0969</v>
@@ -4661,10 +4017,8 @@
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2022-04-12</t>
-        </is>
+      <c r="B326" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C326" t="n">
         <v>0.1</v>
@@ -4674,10 +4028,8 @@
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2022-04-11</t>
-        </is>
+      <c r="B327" s="2" t="n">
+        <v>44662</v>
       </c>
       <c r="C327" t="n">
         <v>0.0849</v>
@@ -4687,10 +4039,8 @@
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
+      <c r="B328" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C328" t="n">
         <v>0.1386</v>
@@ -4700,10 +4050,8 @@
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2022-04-09</t>
-        </is>
+      <c r="B329" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C329" t="n">
         <v>0.1086</v>
@@ -4713,10 +4061,8 @@
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2022-04-08</t>
-        </is>
+      <c r="B330" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C330" t="n">
         <v>0.1226</v>
@@ -4726,10 +4072,8 @@
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2022-04-07</t>
-        </is>
+      <c r="B331" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C331" t="n">
         <v>0.1105</v>
@@ -4739,10 +4083,8 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2022-04-06</t>
-        </is>
+      <c r="B332" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C332" t="n">
         <v>0.1146</v>
@@ -4752,10 +4094,8 @@
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2022-04-05</t>
-        </is>
+      <c r="B333" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C333" t="n">
         <v>0.1123</v>
@@ -4765,10 +4105,8 @@
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2022-04-04</t>
-        </is>
+      <c r="B334" s="2" t="n">
+        <v>44655</v>
       </c>
       <c r="C334" t="n">
         <v>0.08939999999999999</v>
@@ -4778,10 +4116,8 @@
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2022-04-03</t>
-        </is>
+      <c r="B335" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C335" t="n">
         <v>0.1308</v>
@@ -4791,10 +4127,8 @@
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2022-04-02</t>
-        </is>
+      <c r="B336" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C336" t="n">
         <v>0.1009</v>
@@ -4804,10 +4138,8 @@
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2022-04-01</t>
-        </is>
+      <c r="B337" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C337" t="n">
         <v>0.0741</v>
@@ -4817,10 +4149,8 @@
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2022-03-31</t>
-        </is>
+      <c r="B338" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C338" t="n">
         <v>0.1009</v>
@@ -4830,10 +4160,8 @@
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2022-03-30</t>
-        </is>
+      <c r="B339" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C339" t="n">
         <v>0.1269</v>
@@ -4843,10 +4171,8 @@
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2022-03-29</t>
-        </is>
+      <c r="B340" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C340" t="n">
         <v>0.08840000000000001</v>
@@ -4856,10 +4182,8 @@
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
+      <c r="B341" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="C341" t="n">
         <v>0.1604</v>
@@ -4869,10 +4193,8 @@
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2022-03-27</t>
-        </is>
+      <c r="B342" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C342" t="n">
         <v>0.1629</v>
@@ -4882,10 +4204,8 @@
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2022-03-26</t>
-        </is>
+      <c r="B343" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C343" t="n">
         <v>0.1141</v>
@@ -4895,10 +4215,8 @@
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2022-03-25</t>
-        </is>
+      <c r="B344" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C344" t="n">
         <v>0.1052</v>
@@ -4908,10 +4226,8 @@
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>2022-03-24</t>
-        </is>
+      <c r="B345" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C345" t="n">
         <v>0.1141</v>
@@ -4921,10 +4237,8 @@
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2022-03-23</t>
-        </is>
+      <c r="B346" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C346" t="n">
         <v>0.1369</v>
@@ -4934,10 +4248,8 @@
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2022-03-22</t>
-        </is>
+      <c r="B347" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C347" t="n">
         <v>0.116</v>
@@ -4947,10 +4259,8 @@
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2022-03-21</t>
-        </is>
+      <c r="B348" s="2" t="n">
+        <v>44641</v>
       </c>
       <c r="C348" t="n">
         <v>0.1071</v>
@@ -4960,10 +4270,8 @@
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2022-03-20</t>
-        </is>
+      <c r="B349" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C349" t="n">
         <v>0.2643</v>
@@ -4973,10 +4281,8 @@
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2022-03-19</t>
-        </is>
+      <c r="B350" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C350" t="n">
         <v>0.0414</v>
@@ -4986,10 +4292,8 @@
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2022-03-18</t>
-        </is>
+      <c r="B351" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C351" t="n">
         <v>0.1089</v>
@@ -4999,10 +4303,8 @@
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2022-03-17</t>
-        </is>
+      <c r="B352" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C352" t="n">
         <v>0.1101</v>
@@ -5012,10 +4314,8 @@
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2022-03-16</t>
-        </is>
+      <c r="B353" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C353" t="n">
         <v>0.1074</v>
@@ -5025,10 +4325,8 @@
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2022-03-15</t>
-        </is>
+      <c r="B354" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C354" t="n">
         <v>0.1987</v>
@@ -5038,10 +4336,8 @@
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
-        </is>
+      <c r="B355" s="2" t="n">
+        <v>44634</v>
       </c>
       <c r="C355" t="n">
         <v>0.057</v>
@@ -5051,10 +4347,8 @@
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2022-03-13</t>
-        </is>
+      <c r="B356" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C356" t="n">
         <v>0.067</v>
@@ -5064,10 +4358,8 @@
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2022-03-12</t>
-        </is>
+      <c r="B357" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C357" t="n">
         <v>0.115</v>
@@ -5077,10 +4369,8 @@
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2022-03-11</t>
-        </is>
+      <c r="B358" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C358" t="n">
         <v>0.1734</v>
@@ -5090,10 +4380,8 @@
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2022-03-10</t>
-        </is>
+      <c r="B359" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C359" t="n">
         <v>0.0994</v>
@@ -5103,10 +4391,8 @@
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2022-03-09</t>
-        </is>
+      <c r="B360" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C360" t="n">
         <v>0.1186</v>
@@ -5116,10 +4402,8 @@
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2022-03-08</t>
-        </is>
+      <c r="B361" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C361" t="n">
         <v>0.0955</v>
@@ -5129,10 +4413,8 @@
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2022-03-07</t>
-        </is>
+      <c r="B362" s="2" t="n">
+        <v>44627</v>
       </c>
       <c r="C362" t="n">
         <v>0.1414</v>
@@ -5142,10 +4424,8 @@
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
+      <c r="B363" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C363" t="n">
         <v>0.1197</v>
@@ -5155,10 +4435,8 @@
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2022-03-05</t>
-        </is>
+      <c r="B364" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C364" t="n">
         <v>0.13</v>
@@ -5168,10 +4446,8 @@
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2022-03-04</t>
-        </is>
+      <c r="B365" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C365" t="n">
         <v>0.0892</v>
@@ -5181,10 +4457,8 @@
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2022-03-03</t>
-        </is>
+      <c r="B366" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C366" t="n">
         <v>0.08210000000000001</v>
@@ -5194,10 +4468,8 @@
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2022-03-02</t>
-        </is>
+      <c r="B367" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C367" t="n">
         <v>0.1338</v>
@@ -5207,10 +4479,8 @@
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2022-03-01</t>
-        </is>
+      <c r="B368" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C368" t="n">
         <v>0.252</v>
@@ -5220,10 +4490,8 @@
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2022-02-28</t>
-        </is>
+      <c r="B369" s="2" t="n">
+        <v>44620</v>
       </c>
       <c r="C369" t="n">
         <v>0.099</v>
@@ -5233,10 +4501,8 @@
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2022-02-27</t>
-        </is>
+      <c r="B370" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C370" t="n">
         <v>0.062</v>
@@ -5246,10 +4512,8 @@
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2022-02-26</t>
-        </is>
+      <c r="B371" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C371" t="n">
         <v>0.1061</v>
@@ -5259,10 +4523,8 @@
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2022-02-25</t>
-        </is>
+      <c r="B372" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C372" t="n">
         <v>0.0355</v>
@@ -5272,10 +4534,8 @@
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2022-02-24</t>
-        </is>
+      <c r="B373" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C373" t="n">
         <v>0.1499</v>
@@ -5285,10 +4545,8 @@
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
+      <c r="B374" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C374" t="n">
         <v>0.1345</v>
@@ -5298,10 +4556,8 @@
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2022-02-22</t>
-        </is>
+      <c r="B375" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C375" t="n">
         <v>0.1448</v>
@@ -5311,10 +4567,8 @@
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2022-02-21</t>
-        </is>
+      <c r="B376" s="2" t="n">
+        <v>44613</v>
       </c>
       <c r="C376" t="n">
         <v>0.06619999999999999</v>
@@ -5324,10 +4578,8 @@
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2022-02-20</t>
-        </is>
+      <c r="B377" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C377" t="n">
         <v>0.2655</v>
@@ -5337,10 +4589,8 @@
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2022-02-19</t>
-        </is>
+      <c r="B378" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C378" t="n">
         <v>0.0573</v>
@@ -5350,10 +4600,8 @@
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2022-02-18</t>
-        </is>
+      <c r="B379" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C379" t="n">
         <v>0.0931</v>
@@ -5363,10 +4611,8 @@
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2022-02-17</t>
-        </is>
+      <c r="B380" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C380" t="n">
         <v>0.0574</v>
@@ -5376,10 +4622,8 @@
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2022-02-16</t>
-        </is>
+      <c r="B381" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C381" t="n">
         <v>-0.0418</v>
@@ -5389,10 +4633,8 @@
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2022-02-15</t>
-        </is>
+      <c r="B382" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C382" t="n">
         <v>0.1652</v>
@@ -5402,10 +4644,8 @@
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2022-02-14</t>
-        </is>
+      <c r="B383" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="C383" t="n">
         <v>0.0341</v>
@@ -5415,10 +4655,8 @@
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2022-02-13</t>
-        </is>
+      <c r="B384" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C384" t="n">
         <v>0.0878</v>
@@ -5428,10 +4666,8 @@
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2022-02-12</t>
-        </is>
+      <c r="B385" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C385" t="n">
         <v>0.1898</v>
@@ -5441,10 +4677,8 @@
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
-        </is>
+      <c r="B386" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C386" t="n">
         <v>0.1777</v>
@@ -5454,10 +4688,8 @@
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2022-02-10</t>
-        </is>
+      <c r="B387" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C387" t="n">
         <v>0.0755</v>
@@ -5467,10 +4699,8 @@
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2022-02-09</t>
-        </is>
+      <c r="B388" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C388" t="n">
         <v>0.2259</v>
@@ -5480,10 +4710,8 @@
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2022-02-08</t>
-        </is>
+      <c r="B389" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C389" t="n">
         <v>0.284</v>
@@ -5493,10 +4721,8 @@
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2022-02-07</t>
-        </is>
+      <c r="B390" s="2" t="n">
+        <v>44599</v>
       </c>
       <c r="C390" t="n">
         <v>0.2019</v>
@@ -5506,10 +4732,8 @@
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2022-02-06</t>
-        </is>
+      <c r="B391" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C391" t="n">
         <v>0.2947</v>
@@ -5519,10 +4743,8 @@
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2022-02-05</t>
-        </is>
+      <c r="B392" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C392" t="n">
         <v>0.1646</v>
@@ -5532,10 +4754,8 @@
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2022-02-04</t>
-        </is>
+      <c r="B393" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C393" t="n">
         <v>0.009599999999999999</v>
@@ -5545,10 +4765,8 @@
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2022-02-03</t>
-        </is>
+      <c r="B394" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C394" t="n">
         <v>0.0759</v>
@@ -5558,10 +4776,8 @@
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2022-02-01</t>
-        </is>
+      <c r="B395" s="2" t="n">
+        <v>44592</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5571,10 +4787,8 @@
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2022-01-29</t>
-        </is>
+      <c r="B396" s="2" t="n">
+        <v>44585</v>
       </c>
       <c r="C396" t="n">
         <v>-0.3182</v>
@@ -5584,10 +4798,8 @@
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2022-01-27</t>
-        </is>
+      <c r="B397" s="2" t="n">
+        <v>44585</v>
       </c>
       <c r="C397" t="n">
         <v>0.4215</v>
@@ -5597,10 +4809,8 @@
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2022-01-20</t>
-        </is>
+      <c r="B398" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C398" t="n">
         <v>0.1275</v>
@@ -5610,10 +4820,8 @@
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2022-01-19</t>
-        </is>
+      <c r="B399" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C399" t="n">
         <v>0.097</v>
@@ -5623,10 +4831,8 @@
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2022-01-18</t>
-        </is>
+      <c r="B400" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C400" t="n">
         <v>0.0847</v>
@@ -5636,10 +4842,8 @@
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2022-01-17</t>
-        </is>
+      <c r="B401" s="2" t="n">
+        <v>44578</v>
       </c>
       <c r="C401" t="n">
         <v>0.1182</v>
@@ -5649,10 +4853,8 @@
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2022-01-16</t>
-        </is>
+      <c r="B402" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C402" t="n">
         <v>0.1274</v>
@@ -5662,10 +4864,8 @@
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2022-01-15</t>
-        </is>
+      <c r="B403" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C403" t="n">
         <v>0.1045</v>
@@ -5675,10 +4875,8 @@
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2022-01-14</t>
-        </is>
+      <c r="B404" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C404" t="n">
         <v>0.1048</v>
@@ -5688,10 +4886,8 @@
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2022-01-13</t>
-        </is>
+      <c r="B405" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C405" t="n">
         <v>0.0699</v>
@@ -5701,10 +4897,8 @@
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2022-01-12</t>
-        </is>
+      <c r="B406" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C406" t="n">
         <v>0.1062</v>
@@ -5714,10 +4908,8 @@
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2022-01-11</t>
-        </is>
+      <c r="B407" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C407" t="n">
         <v>0.1082</v>
@@ -5727,10 +4919,8 @@
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2022-01-10</t>
-        </is>
+      <c r="B408" s="2" t="n">
+        <v>44571</v>
       </c>
       <c r="C408" t="n">
         <v>0.113</v>
@@ -5740,10 +4930,8 @@
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2022-01-09</t>
-        </is>
+      <c r="B409" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C409" t="n">
         <v>0.1297</v>
@@ -5753,10 +4941,8 @@
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2022-01-08</t>
-        </is>
+      <c r="B410" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C410" t="n">
         <v>0.1425</v>
@@ -5766,10 +4952,8 @@
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2022-01-07</t>
-        </is>
+      <c r="B411" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C411" t="n">
         <v>0.09</v>
@@ -5779,10 +4963,8 @@
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2022-01-06</t>
-        </is>
+      <c r="B412" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C412" t="n">
         <v>0.0828</v>
@@ -5792,10 +4974,8 @@
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2022-01-05</t>
-        </is>
+      <c r="B413" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C413" t="n">
         <v>0.06</v>
@@ -5805,10 +4985,8 @@
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2022-01-04</t>
-        </is>
+      <c r="B414" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C414" t="n">
         <v>0.1125</v>
@@ -5818,10 +4996,8 @@
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2022-01-03</t>
-        </is>
+      <c r="B415" s="2" t="n">
+        <v>44564</v>
       </c>
       <c r="C415" t="n">
         <v>0.1091</v>
@@ -5831,10 +5007,8 @@
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
+      <c r="B416" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C416" t="n">
         <v>0.0809</v>
@@ -5844,10 +5018,8 @@
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
+      <c r="B417" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C417" t="n">
         <v>0.1225</v>
@@ -5857,10 +5029,8 @@
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
+      <c r="B418" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C418" t="n">
         <v>0.1378</v>
@@ -5870,10 +5040,8 @@
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2021-12-30</t>
-        </is>
+      <c r="B419" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C419" t="n">
         <v>0.0993</v>
@@ -5883,10 +5051,8 @@
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2021-12-29</t>
-        </is>
+      <c r="B420" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C420" t="n">
         <v>0.1262</v>
@@ -5896,10 +5062,8 @@
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2021-12-28</t>
-        </is>
+      <c r="B421" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C421" t="n">
         <v>0.1067</v>
@@ -5909,10 +5073,8 @@
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2021-12-27</t>
-        </is>
+      <c r="B422" s="2" t="n">
+        <v>44557</v>
       </c>
       <c r="C422" t="n">
         <v>0.1186</v>
@@ -5922,10 +5084,8 @@
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2021-12-26</t>
-        </is>
+      <c r="B423" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C423" t="n">
         <v>0.165</v>
@@ -5935,10 +5095,8 @@
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2021-12-25</t>
-        </is>
+      <c r="B424" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C424" t="n">
         <v>0.1683</v>
@@ -5948,10 +5106,8 @@
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2021-12-24</t>
-        </is>
+      <c r="B425" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C425" t="n">
         <v>0.1631</v>
@@ -5961,10 +5117,8 @@
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2021-12-23</t>
-        </is>
+      <c r="B426" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C426" t="n">
         <v>0.1318</v>
@@ -5974,10 +5128,8 @@
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2021-12-22</t>
-        </is>
+      <c r="B427" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C427" t="n">
         <v>0.1117</v>
@@ -5987,10 +5139,8 @@
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2021-12-21</t>
-        </is>
+      <c r="B428" s="2" t="n">
+        <v>44550</v>
       </c>
       <c r="C428" t="n">
         <v>0.1012</v>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,4331 +449,5119 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44991</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0692</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44991</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2014</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44991</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2272</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44991</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1553</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44991</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0626</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44991</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1045</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44991</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1185</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44984</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2476</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44984</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2134</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44984</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1958</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44984</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1816</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44984</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1843</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44984</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2027</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44984</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1533</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44977</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1252</v>
+        <v>0.1726</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>44977</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0466</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44977</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1156</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44977</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1513</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44977</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44977</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0107</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44977</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44970</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-02-19</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1962</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44970</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1031</v>
+        <v>0.1282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44970</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1278</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44970</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1052</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>44970</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1043</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>44970</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1646</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>44970</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.07829999999999999</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>44963</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>44963</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1455</v>
+        <v>0.1573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>44963</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1368</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>44963</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1208</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>44963</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1411</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>44963</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1308</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>44963</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.135</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>44956</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1032</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>44956</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1887</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>44956</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1706</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>44956</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1526</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>44956</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1497</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>44956</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1315</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>44956</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1257</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>44949</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>0.1471</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>44949</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-01-28</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1436</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>44949</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1464</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>44949</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1753</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>44949</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0902</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>44949</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1072</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>44949</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-01-23</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1338</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>44942</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-01-22</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1626</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>44942</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2023-01-21</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1378</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>44942</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1241</v>
+        <v>-0.2588</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>44942</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1256</v>
+        <v>-0.5181</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>44942</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.08069999999999999</v>
+        <v>-0.3793</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>44942</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1149</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>44942</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1185</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>44935</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-01-15</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1027</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>44935</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.077</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>44935</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0735</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>44935</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-01-12</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0.102</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
-        <v>44935</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>44935</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-01-10</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.0472</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
-        <v>44935</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-01-09</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0.0387</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
-        <v>44928</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1028</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
-        <v>44928</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-01-07</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0905</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>44928</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-01-06</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0.0243</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
-        <v>44928</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-01-05</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0.09710000000000001</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>44928</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-01-04</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
-        <v>44928</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0588</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
-        <v>44928</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>0.0559</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
-        <v>44921</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.09619999999999999</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>44921</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1308</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <v>44921</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1135</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>44921</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2022-12-29</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.082</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>44921</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2022-12-28</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.0692</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
-        <v>44921</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2022-12-27</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.0101</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
-        <v>44921</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0809</v>
+        <v>0.1468</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>44914</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2022-12-25</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0917</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>44914</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2022-12-24</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1129</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>44914</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0.0822</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>44914</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0.1056</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>44914</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2022-12-21</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.1114</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
-        <v>44914</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2022-12-20</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0941</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>44914</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1105</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
-        <v>44907</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2022-12-18</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1019</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
-        <v>44907</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2022-12-17</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0805</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
-        <v>44907</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2022-12-16</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0743</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
-        <v>44907</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.1471</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
-        <v>44907</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0849</v>
+        <v>0.1605</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>44907</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
-        <v>44907</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
-        <v>44900</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2022-12-11</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.1609</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>44900</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2022-12-10</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>44900</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0533</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
-        <v>44900</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0609</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
-        <v>44900</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0.0779</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
-        <v>44900</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0717</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
-        <v>44900</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>0.027</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
-        <v>44893</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2022-12-04</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>0.159</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
-        <v>44893</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1456</v>
+        <v>0.1235</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
-        <v>44893</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>0.2151</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
-        <v>44893</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>0.1138</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
-        <v>44893</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>0.1268</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
-        <v>44893</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0009</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
-        <v>44893</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>0.09959999999999999</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
-        <v>44886</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0.1155</v>
+        <v>0.1232</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>44886</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0.1366</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
-        <v>44886</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1335</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
-        <v>44886</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>0.164</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>44886</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>0.09130000000000001</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
-        <v>44886</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0885</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
-        <v>44886</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.1042</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
-        <v>44879</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2022-11-20</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0.1287</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
-        <v>44879</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1228</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
-        <v>44879</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1159</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
-        <v>44879</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0.1137</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
-        <v>44879</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0.098</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
-        <v>44879</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0.1046</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
-        <v>44879</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0842</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
-        <v>44872</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
-        <v>44872</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>0.1065</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
-        <v>44872</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>0.116</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
-        <v>44872</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0649</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
-        <v>44872</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>0.1581</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
-        <v>44872</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0339</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
-        <v>44872</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0227</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
-        <v>44865</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>0.2103</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
-        <v>44865</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>0.1577</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>44865</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>0.0788</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
-        <v>44865</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>0.1123</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
-        <v>44865</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0.111</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>44865</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
       </c>
       <c r="C133" t="n">
-        <v>0.1452</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
-        <v>44865</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1006</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
-        <v>44858</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>0.195</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
-        <v>44858</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2022-10-29</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0.1276</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
-        <v>44858</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0.1554</v>
+        <v>0.1393</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>44858</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>0.1265</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
-        <v>44858</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0.1062</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
-        <v>44858</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0.1318</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
-        <v>44858</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>0.0616</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
-        <v>44851</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2022-10-23</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>0.2109</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>44851</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>0.1981</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>44851</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>0.1303</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
-        <v>44851</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>0.0956</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
-        <v>44851</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>0.1155</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
-        <v>44851</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0.106</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
-        <v>44851</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1281</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
-        <v>44844</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2022-10-16</t>
+        </is>
       </c>
       <c r="C149" t="n">
-        <v>0.1538</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>44844</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2022-10-15</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>0.1054</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>44844</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>0.0912</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>44844</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
       </c>
       <c r="C152" t="n">
-        <v>0.1033</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
-        <v>44844</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1159</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
-        <v>44844</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
       </c>
       <c r="C154" t="n">
-        <v>0.0922</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
-        <v>44844</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
       </c>
       <c r="C155" t="n">
-        <v>0.1131</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
-        <v>44837</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
       </c>
       <c r="C156" t="n">
-        <v>0.0906</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
-        <v>44837</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
       </c>
       <c r="C157" t="n">
-        <v>0.09420000000000001</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
-        <v>44837</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
       </c>
       <c r="C158" t="n">
-        <v>0.1474</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
-        <v>44837</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
       </c>
       <c r="C159" t="n">
-        <v>0.1655</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
-        <v>44837</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
       </c>
       <c r="C160" t="n">
-        <v>0.1668</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
-        <v>44837</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
       </c>
       <c r="C161" t="n">
-        <v>0.1266</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
-        <v>44837</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
       </c>
       <c r="C162" t="n">
-        <v>0.1065</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
-        <v>44830</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
       </c>
       <c r="C163" t="n">
-        <v>0.1153</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
-        <v>44830</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2022-10-01</t>
+        </is>
       </c>
       <c r="C164" t="n">
-        <v>0.0959</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
-        <v>44830</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
       </c>
       <c r="C165" t="n">
-        <v>0.124</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
-        <v>44830</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0984</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
-        <v>44830</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
       </c>
       <c r="C167" t="n">
-        <v>0.1141</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
-        <v>44830</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
       </c>
       <c r="C168" t="n">
-        <v>0.1348</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
-        <v>44830</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
       </c>
       <c r="C169" t="n">
-        <v>0.1508</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
-        <v>44823</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2022-09-25</t>
+        </is>
       </c>
       <c r="C170" t="n">
-        <v>0.1659</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
-        <v>44823</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
       </c>
       <c r="C171" t="n">
-        <v>0.132</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
-        <v>44823</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
       </c>
       <c r="C172" t="n">
-        <v>0.1044</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
-        <v>44823</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
       </c>
       <c r="C173" t="n">
-        <v>0.089</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
-        <v>44823</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1141</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
-        <v>44823</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
       </c>
       <c r="C175" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
-        <v>44823</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
       </c>
       <c r="C176" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
-        <v>44816</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2022-09-18</t>
+        </is>
       </c>
       <c r="C177" t="n">
-        <v>0.1244</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
-        <v>44816</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2022-09-17</t>
+        </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1559</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
-        <v>44816</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
       </c>
       <c r="C179" t="n">
-        <v>0.152</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
-        <v>44816</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
       </c>
       <c r="C180" t="n">
-        <v>0.142</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
-        <v>44816</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
       </c>
       <c r="C181" t="n">
-        <v>0.0961</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
-        <v>44816</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
       </c>
       <c r="C182" t="n">
-        <v>0.1259</v>
+        <v>0.1253</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
-        <v>44816</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
       </c>
       <c r="C183" t="n">
-        <v>0.1431</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
-        <v>44809</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2022-09-11</t>
+        </is>
       </c>
       <c r="C184" t="n">
-        <v>0.2117</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
-        <v>44809</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
       </c>
       <c r="C185" t="n">
-        <v>0.1518</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
-        <v>44809</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
       </c>
       <c r="C186" t="n">
-        <v>0.1434</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
-        <v>44809</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
       </c>
       <c r="C187" t="n">
-        <v>0.1894</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
-        <v>44809</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1723</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
-        <v>44809</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
       </c>
       <c r="C189" t="n">
-        <v>0.1107</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
-        <v>44809</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
       </c>
       <c r="C190" t="n">
-        <v>0.1581</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
-        <v>44802</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2022-09-04</t>
+        </is>
       </c>
       <c r="C191" t="n">
-        <v>0.18</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
-        <v>44802</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2022-09-03</t>
+        </is>
       </c>
       <c r="C192" t="n">
-        <v>0.2458</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
-        <v>44802</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
       </c>
       <c r="C193" t="n">
-        <v>0.1554</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
-        <v>44802</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
       </c>
       <c r="C194" t="n">
-        <v>0.1287</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
-        <v>44802</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
       </c>
       <c r="C195" t="n">
-        <v>0.1132</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
-        <v>44802</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
       </c>
       <c r="C196" t="n">
-        <v>0.1238</v>
+        <v>0.1839</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
-        <v>44802</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
       </c>
       <c r="C197" t="n">
-        <v>0.1109</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
-        <v>44795</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
       </c>
       <c r="C198" t="n">
-        <v>0.167</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
-        <v>44795</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2022-08-27</t>
+        </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1482</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
-        <v>44795</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
       </c>
       <c r="C200" t="n">
-        <v>0.1228</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
-        <v>44795</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
       </c>
       <c r="C201" t="n">
-        <v>0.1508</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
-        <v>44795</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
       </c>
       <c r="C202" t="n">
-        <v>0.1282</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
-        <v>44795</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
       </c>
       <c r="C203" t="n">
-        <v>0.1186</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
-        <v>44795</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
       </c>
       <c r="C204" t="n">
-        <v>0.1327</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
-        <v>44788</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2022-08-21</t>
+        </is>
       </c>
       <c r="C205" t="n">
-        <v>0.1693</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
-        <v>44788</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2022-08-20</t>
+        </is>
       </c>
       <c r="C206" t="n">
-        <v>0.1732</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
-        <v>44788</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
       </c>
       <c r="C207" t="n">
-        <v>0.1717</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
-        <v>44788</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
       </c>
       <c r="C208" t="n">
-        <v>0.1556</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
-        <v>44788</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
       </c>
       <c r="C209" t="n">
-        <v>0.1204</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
-        <v>44788</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
       </c>
       <c r="C210" t="n">
-        <v>0.1394</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
-        <v>44788</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
       </c>
       <c r="C211" t="n">
-        <v>0.131</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
-        <v>44781</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2022-08-14</t>
+        </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1345</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
-        <v>44781</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
       </c>
       <c r="C213" t="n">
-        <v>0.1675</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
-        <v>44781</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
       </c>
       <c r="C214" t="n">
-        <v>0.1009</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
-        <v>44781</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
       </c>
       <c r="C215" t="n">
-        <v>0.1395</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
-        <v>44781</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
       </c>
       <c r="C216" t="n">
-        <v>0.1601</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
-        <v>44781</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
       </c>
       <c r="C217" t="n">
-        <v>-0.1167</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
-        <v>44767</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
       </c>
       <c r="C218" t="n">
-        <v>0.234</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
-        <v>44767</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
       </c>
       <c r="C219" t="n">
-        <v>0.1357</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
-        <v>44767</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
       </c>
       <c r="C220" t="n">
-        <v>0.09180000000000001</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
-        <v>44767</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
       </c>
       <c r="C221" t="n">
-        <v>0.1265</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
-        <v>44767</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
       </c>
       <c r="C222" t="n">
-        <v>0.1197</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
-        <v>44760</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2022-07-24</t>
+        </is>
       </c>
       <c r="C223" t="n">
-        <v>0.1561</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
-        <v>44760</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2022-07-23</t>
+        </is>
       </c>
       <c r="C224" t="n">
-        <v>0.1713</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
-        <v>44760</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
       </c>
       <c r="C225" t="n">
-        <v>0.0762</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
-        <v>44760</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
       </c>
       <c r="C226" t="n">
-        <v>0.0927</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
-        <v>44760</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
       </c>
       <c r="C227" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
-        <v>44760</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
       </c>
       <c r="C228" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
-        <v>44760</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
       </c>
       <c r="C229" t="n">
-        <v>0.0828</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
-        <v>44753</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2022-07-17</t>
+        </is>
       </c>
       <c r="C230" t="n">
-        <v>0.1656</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
-        <v>44753</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2022-07-16</t>
+        </is>
       </c>
       <c r="C231" t="n">
-        <v>0.0925</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
-        <v>44753</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
       </c>
       <c r="C232" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
-        <v>44753</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
       </c>
       <c r="C233" t="n">
-        <v>0.1169</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
-        <v>44753</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
       </c>
       <c r="C234" t="n">
-        <v>0.1065</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
-        <v>44753</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
       </c>
       <c r="C235" t="n">
-        <v>0.0993</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
-        <v>44753</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
       </c>
       <c r="C236" t="n">
-        <v>0.1143</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
-        <v>44746</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2022-07-10</t>
+        </is>
       </c>
       <c r="C237" t="n">
-        <v>0.1582</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
-        <v>44746</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2022-07-09</t>
+        </is>
       </c>
       <c r="C238" t="n">
-        <v>0.1411</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
-        <v>44746</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
       </c>
       <c r="C239" t="n">
-        <v>0.1312</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>44746</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
       </c>
       <c r="C240" t="n">
-        <v>0.0725</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
-        <v>44746</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
       </c>
       <c r="C241" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
-        <v>44746</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
       </c>
       <c r="C242" t="n">
-        <v>0.0833</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
-        <v>44746</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
       </c>
       <c r="C243" t="n">
-        <v>0.0721</v>
+        <v>0.3446</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
-        <v>44739</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
       </c>
       <c r="C244" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
-        <v>44739</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
       </c>
       <c r="C245" t="n">
-        <v>0.0997</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
-        <v>44739</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
       </c>
       <c r="C246" t="n">
-        <v>0.0781</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
-        <v>44739</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
       </c>
       <c r="C247" t="n">
-        <v>0.0526</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
-        <v>44739</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
       </c>
       <c r="C248" t="n">
-        <v>0.0934</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
-        <v>44739</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
       </c>
       <c r="C249" t="n">
-        <v>0.1142</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
-        <v>44739</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
       </c>
       <c r="C250" t="n">
-        <v>0.116</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
-        <v>44732</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2022-06-26</t>
+        </is>
       </c>
       <c r="C251" t="n">
-        <v>0.0866</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
-        <v>44732</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2022-06-25</t>
+        </is>
       </c>
       <c r="C252" t="n">
-        <v>0.1766</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
-        <v>44732</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
       </c>
       <c r="C253" t="n">
-        <v>0.1105</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
-        <v>44732</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
       </c>
       <c r="C254" t="n">
-        <v>0.0867</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="n">
-        <v>44732</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
       </c>
       <c r="C255" t="n">
-        <v>0.1018</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
-        <v>44732</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
       </c>
       <c r="C256" t="n">
-        <v>0.1193</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
-        <v>44732</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
       </c>
       <c r="C257" t="n">
-        <v>0.1368</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
-        <v>44725</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
       </c>
       <c r="C258" t="n">
-        <v>0.1472</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
-        <v>44725</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
       </c>
       <c r="C259" t="n">
-        <v>0.138</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="n">
-        <v>44725</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
       </c>
       <c r="C260" t="n">
-        <v>0.046</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="n">
-        <v>44725</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="C261" t="n">
-        <v>0.1126</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="n">
-        <v>44725</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
       </c>
       <c r="C262" t="n">
-        <v>0.1186</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="n">
-        <v>44725</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
       </c>
       <c r="C263" t="n">
-        <v>0.0939</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="n">
-        <v>44725</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
       </c>
       <c r="C264" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="n">
-        <v>44718</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2022-06-12</t>
+        </is>
       </c>
       <c r="C265" t="n">
-        <v>0.2385</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="n">
-        <v>44718</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
       </c>
       <c r="C266" t="n">
-        <v>0.2231</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="n">
-        <v>44718</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
       </c>
       <c r="C267" t="n">
-        <v>0.1541</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="n">
-        <v>44718</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
       </c>
       <c r="C268" t="n">
-        <v>0.1387</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="n">
-        <v>44718</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
       </c>
       <c r="C269" t="n">
-        <v>0.0944</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="n">
-        <v>44718</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
       </c>
       <c r="C270" t="n">
-        <v>0.1293</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="n">
-        <v>44718</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
       </c>
       <c r="C271" t="n">
-        <v>0.0951</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="n">
-        <v>44711</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2022-06-05</t>
+        </is>
       </c>
       <c r="C272" t="n">
-        <v>0.1209</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="n">
-        <v>44711</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
+        </is>
       </c>
       <c r="C273" t="n">
-        <v>0.1012</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="n">
-        <v>44711</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
       </c>
       <c r="C274" t="n">
-        <v>0.0856</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="n">
-        <v>44711</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
       </c>
       <c r="C275" t="n">
-        <v>0.107</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="n">
-        <v>44711</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0871</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="n">
-        <v>44711</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="C277" t="n">
-        <v>0.0985</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="n">
-        <v>44711</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
       </c>
       <c r="C278" t="n">
-        <v>0.1341</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="n">
-        <v>44704</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2022-05-29</t>
+        </is>
       </c>
       <c r="C279" t="n">
-        <v>0.1664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="n">
-        <v>44704</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2022-05-28</t>
+        </is>
       </c>
       <c r="C280" t="n">
-        <v>0.0436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="n">
-        <v>44704</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
       </c>
       <c r="C281" t="n">
-        <v>0.1312</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="n">
-        <v>44704</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
       </c>
       <c r="C282" t="n">
-        <v>0.1228</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="n">
-        <v>44704</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
       </c>
       <c r="C283" t="n">
-        <v>0.1465</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="n">
-        <v>44704</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
       </c>
       <c r="C284" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="n">
-        <v>44704</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
       </c>
       <c r="C285" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="n">
-        <v>44697</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2022-05-22</t>
+        </is>
       </c>
       <c r="C286" t="n">
-        <v>0.1093</v>
+        <v>0.3402</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="n">
-        <v>44697</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2022-05-21</t>
+        </is>
       </c>
       <c r="C287" t="n">
-        <v>0.1382</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="n">
-        <v>44697</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0129</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="2" t="n">
-        <v>44697</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
       </c>
       <c r="C289" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="2" t="n">
-        <v>44697</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
+        </is>
       </c>
       <c r="C290" t="n">
-        <v>-0.0226</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="2" t="n">
-        <v>44697</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
       </c>
       <c r="C291" t="n">
-        <v>-0.0276</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="2" t="n">
-        <v>44697</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
       </c>
       <c r="C292" t="n">
-        <v>0.0572</v>
+        <v>-0.1211</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="2" t="n">
-        <v>44690</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2022-05-15</t>
+        </is>
       </c>
       <c r="C293" t="n">
-        <v>0.1528</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="2" t="n">
-        <v>44690</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2022-05-14</t>
+        </is>
       </c>
       <c r="C294" t="n">
-        <v>0.1888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="2" t="n">
-        <v>44690</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
       </c>
       <c r="C295" t="n">
-        <v>0.0771</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="2" t="n">
-        <v>44690</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
       </c>
       <c r="C296" t="n">
-        <v>0.1075</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="2" t="n">
-        <v>44690</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
       </c>
       <c r="C297" t="n">
-        <v>0.1632</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="2" t="n">
-        <v>44690</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2022-05-10</t>
+        </is>
       </c>
       <c r="C298" t="n">
-        <v>0.0403</v>
+        <v>-0.0397</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="2" t="n">
-        <v>44690</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2022-05-09</t>
+        </is>
       </c>
       <c r="C299" t="n">
-        <v>0.0838</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" s="2" t="n">
-        <v>44683</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2022-05-08</t>
+        </is>
       </c>
       <c r="C300" t="n">
-        <v>0.0738</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" s="2" t="n">
-        <v>44683</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
       </c>
       <c r="C301" t="n">
-        <v>0.07770000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" s="2" t="n">
-        <v>44683</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
       </c>
       <c r="C302" t="n">
-        <v>0.1374</v>
+        <v>-0.06909999999999999</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" s="2" t="n">
-        <v>44683</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
       </c>
       <c r="C303" t="n">
-        <v>0.0968</v>
+        <v>-0.0795</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" s="2" t="n">
-        <v>44683</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
       </c>
       <c r="C304" t="n">
-        <v>0.1028</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" s="2" t="n">
-        <v>44683</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
       </c>
       <c r="C305" t="n">
-        <v>0.1173</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" s="2" t="n">
-        <v>44683</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
       </c>
       <c r="C306" t="n">
-        <v>0.1225</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" s="2" t="n">
-        <v>44676</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
       </c>
       <c r="C307" t="n">
-        <v>0.077</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" s="2" t="n">
-        <v>44676</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
       </c>
       <c r="C308" t="n">
-        <v>0.1041</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" s="2" t="n">
-        <v>44676</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
       </c>
       <c r="C309" t="n">
-        <v>0.1184</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" s="2" t="n">
-        <v>44676</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
       </c>
       <c r="C310" t="n">
-        <v>0.0911</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" s="2" t="n">
-        <v>44676</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0525</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" s="2" t="n">
-        <v>44676</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0707</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" s="2" t="n">
-        <v>44676</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
       </c>
       <c r="C313" t="n">
-        <v>0.0272</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" s="2" t="n">
-        <v>44669</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2022-04-24</t>
+        </is>
       </c>
       <c r="C314" t="n">
-        <v>0.0864</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" s="2" t="n">
-        <v>44669</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
       </c>
       <c r="C315" t="n">
-        <v>0.1117</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" s="2" t="n">
-        <v>44669</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
       </c>
       <c r="C316" t="n">
-        <v>0.0442</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" s="2" t="n">
-        <v>44669</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0174</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" s="2" t="n">
-        <v>44669</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
       </c>
       <c r="C318" t="n">
-        <v>0.0482</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" s="2" t="n">
-        <v>44669</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
       </c>
       <c r="C319" t="n">
-        <v>0.1009</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" s="2" t="n">
-        <v>44669</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
       </c>
       <c r="C320" t="n">
-        <v>0.0815</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" s="2" t="n">
-        <v>44662</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2022-04-17</t>
+        </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0979</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" s="2" t="n">
-        <v>44662</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
       </c>
       <c r="C322" t="n">
-        <v>0.0341</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" s="2" t="n">
-        <v>44662</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
       </c>
       <c r="C323" t="n">
-        <v>0.065</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" s="2" t="n">
-        <v>44662</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
       </c>
       <c r="C324" t="n">
-        <v>0.0823</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" s="2" t="n">
-        <v>44662</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0969</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" s="2" t="n">
-        <v>44662</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
       </c>
       <c r="C326" t="n">
-        <v>0.1</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" s="2" t="n">
-        <v>44662</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
       </c>
       <c r="C327" t="n">
-        <v>0.0849</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" s="2" t="n">
-        <v>44655</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2022-04-10</t>
+        </is>
       </c>
       <c r="C328" t="n">
-        <v>0.1386</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" s="2" t="n">
-        <v>44655</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2022-04-09</t>
+        </is>
       </c>
       <c r="C329" t="n">
-        <v>0.1086</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" s="2" t="n">
-        <v>44655</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
       </c>
       <c r="C330" t="n">
-        <v>0.1226</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" s="2" t="n">
-        <v>44655</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
       </c>
       <c r="C331" t="n">
-        <v>0.1105</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" s="2" t="n">
-        <v>44655</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
       </c>
       <c r="C332" t="n">
-        <v>0.1146</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" s="2" t="n">
-        <v>44655</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
       </c>
       <c r="C333" t="n">
-        <v>0.1123</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" s="2" t="n">
-        <v>44655</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
       </c>
       <c r="C334" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" s="2" t="n">
-        <v>44648</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2022-04-03</t>
+        </is>
       </c>
       <c r="C335" t="n">
-        <v>0.1308</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" s="2" t="n">
-        <v>44648</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
       </c>
       <c r="C336" t="n">
-        <v>0.1009</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" s="2" t="n">
-        <v>44648</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
       </c>
       <c r="C337" t="n">
-        <v>0.0741</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" s="2" t="n">
-        <v>44648</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
       </c>
       <c r="C338" t="n">
-        <v>0.1009</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" s="2" t="n">
-        <v>44648</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
       </c>
       <c r="C339" t="n">
-        <v>0.1269</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" s="2" t="n">
-        <v>44648</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
       </c>
       <c r="C340" t="n">
-        <v>0.08840000000000001</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" s="2" t="n">
-        <v>44648</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
       </c>
       <c r="C341" t="n">
-        <v>0.1604</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" s="2" t="n">
-        <v>44641</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
       </c>
       <c r="C342" t="n">
-        <v>0.1629</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" s="2" t="n">
-        <v>44641</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2022-03-26</t>
+        </is>
       </c>
       <c r="C343" t="n">
-        <v>0.1141</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" s="2" t="n">
-        <v>44641</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
       </c>
       <c r="C344" t="n">
-        <v>0.1052</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" s="2" t="n">
-        <v>44641</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
       </c>
       <c r="C345" t="n">
-        <v>0.1141</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" s="2" t="n">
-        <v>44641</v>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
       </c>
       <c r="C346" t="n">
-        <v>0.1369</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" s="2" t="n">
-        <v>44641</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
       </c>
       <c r="C347" t="n">
-        <v>0.116</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" s="2" t="n">
-        <v>44641</v>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
       </c>
       <c r="C348" t="n">
-        <v>0.1071</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" s="2" t="n">
-        <v>44634</v>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
       </c>
       <c r="C349" t="n">
-        <v>0.2643</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" s="2" t="n">
-        <v>44634</v>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
       </c>
       <c r="C350" t="n">
-        <v>0.0414</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" s="2" t="n">
-        <v>44634</v>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
       </c>
       <c r="C351" t="n">
-        <v>0.1089</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" s="2" t="n">
-        <v>44634</v>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
       </c>
       <c r="C352" t="n">
-        <v>0.1101</v>
+        <v>0.2443</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" s="2" t="n">
-        <v>44634</v>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
       </c>
       <c r="C353" t="n">
-        <v>0.1074</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" s="2" t="n">
-        <v>44634</v>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="C354" t="n">
-        <v>0.1987</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" s="2" t="n">
-        <v>44634</v>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
       </c>
       <c r="C355" t="n">
-        <v>0.057</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" s="2" t="n">
-        <v>44627</v>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2022-03-13</t>
+        </is>
       </c>
       <c r="C356" t="n">
-        <v>0.067</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" s="2" t="n">
-        <v>44627</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2022-03-12</t>
+        </is>
       </c>
       <c r="C357" t="n">
-        <v>0.115</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" s="2" t="n">
-        <v>44627</v>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
       </c>
       <c r="C358" t="n">
-        <v>0.1734</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" s="2" t="n">
-        <v>44627</v>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
       </c>
       <c r="C359" t="n">
-        <v>0.0994</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" s="2" t="n">
-        <v>44627</v>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
       </c>
       <c r="C360" t="n">
-        <v>0.1186</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" s="2" t="n">
-        <v>44627</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
       </c>
       <c r="C361" t="n">
-        <v>0.0955</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" s="2" t="n">
-        <v>44627</v>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
       </c>
       <c r="C362" t="n">
-        <v>0.1414</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" s="2" t="n">
-        <v>44620</v>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2022-03-06</t>
+        </is>
       </c>
       <c r="C363" t="n">
-        <v>0.1197</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" s="2" t="n">
-        <v>44620</v>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
       </c>
       <c r="C364" t="n">
-        <v>0.13</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" s="2" t="n">
-        <v>44620</v>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
       </c>
       <c r="C365" t="n">
-        <v>0.0892</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" s="2" t="n">
-        <v>44620</v>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
       </c>
       <c r="C366" t="n">
-        <v>0.08210000000000001</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" s="2" t="n">
-        <v>44620</v>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="C367" t="n">
-        <v>0.1338</v>
+        <v>-0.1645</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" s="2" t="n">
-        <v>44620</v>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
       </c>
       <c r="C368" t="n">
-        <v>0.252</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" s="2" t="n">
-        <v>44620</v>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
       </c>
       <c r="C369" t="n">
-        <v>0.099</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" s="2" t="n">
-        <v>44613</v>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2022-02-27</t>
+        </is>
       </c>
       <c r="C370" t="n">
-        <v>0.062</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" s="2" t="n">
-        <v>44613</v>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
       </c>
       <c r="C371" t="n">
-        <v>0.1061</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" s="2" t="n">
-        <v>44613</v>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="C372" t="n">
-        <v>0.0355</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" s="2" t="n">
-        <v>44613</v>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
       </c>
       <c r="C373" t="n">
-        <v>0.1499</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" s="2" t="n">
-        <v>44613</v>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
       </c>
       <c r="C374" t="n">
-        <v>0.1345</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" s="2" t="n">
-        <v>44613</v>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
       </c>
       <c r="C375" t="n">
-        <v>0.1448</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" s="2" t="n">
-        <v>44613</v>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2022-02-21</t>
+        </is>
       </c>
       <c r="C376" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.7096</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" s="2" t="n">
-        <v>44606</v>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2022-02-20</t>
+        </is>
       </c>
       <c r="C377" t="n">
-        <v>0.2655</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" s="2" t="n">
-        <v>44606</v>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2022-02-19</t>
+        </is>
       </c>
       <c r="C378" t="n">
-        <v>0.0573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" s="2" t="n">
-        <v>44606</v>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
       </c>
       <c r="C379" t="n">
-        <v>0.0931</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" s="2" t="n">
-        <v>44606</v>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
       </c>
       <c r="C380" t="n">
-        <v>0.0574</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" s="2" t="n">
-        <v>44606</v>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
       </c>
       <c r="C381" t="n">
-        <v>-0.0418</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" s="2" t="n">
-        <v>44606</v>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
       </c>
       <c r="C382" t="n">
-        <v>0.1652</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" s="2" t="n">
-        <v>44606</v>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
       </c>
       <c r="C383" t="n">
-        <v>0.0341</v>
+        <v>-0.0357</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" s="2" t="n">
-        <v>44599</v>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
       </c>
       <c r="C384" t="n">
-        <v>0.0878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" s="2" t="n">
-        <v>44599</v>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
       </c>
       <c r="C385" t="n">
-        <v>0.1898</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" s="2" t="n">
-        <v>44599</v>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
+        </is>
       </c>
       <c r="C386" t="n">
-        <v>0.1777</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" s="2" t="n">
-        <v>44599</v>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
       </c>
       <c r="C387" t="n">
-        <v>0.0755</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" s="2" t="n">
-        <v>44599</v>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
       </c>
       <c r="C388" t="n">
-        <v>0.2259</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" s="2" t="n">
-        <v>44599</v>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
       </c>
       <c r="C389" t="n">
-        <v>0.284</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" s="2" t="n">
-        <v>44599</v>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
       </c>
       <c r="C390" t="n">
-        <v>0.2019</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" s="2" t="n">
-        <v>44592</v>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
       </c>
       <c r="C391" t="n">
-        <v>0.2947</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" s="2" t="n">
-        <v>44592</v>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
       </c>
       <c r="C392" t="n">
-        <v>0.1646</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" s="2" t="n">
-        <v>44592</v>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
       </c>
       <c r="C393" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" s="2" t="n">
-        <v>44592</v>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2022-02-03</t>
+        </is>
       </c>
       <c r="C394" t="n">
-        <v>0.0759</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" s="2" t="n">
-        <v>44592</v>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2022-02-02</t>
+        </is>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -4787,363 +5571,507 @@
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" s="2" t="n">
-        <v>44585</v>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
       </c>
       <c r="C396" t="n">
-        <v>-0.3182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" s="2" t="n">
-        <v>44585</v>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
       </c>
       <c r="C397" t="n">
-        <v>0.4215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" s="2" t="n">
-        <v>44578</v>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2022-01-29</t>
+        </is>
       </c>
       <c r="C398" t="n">
-        <v>0.1275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" s="2" t="n">
-        <v>44578</v>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
       </c>
       <c r="C399" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" s="2" t="n">
-        <v>44578</v>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
       </c>
       <c r="C400" t="n">
-        <v>0.0847</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" s="2" t="n">
-        <v>44578</v>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
       </c>
       <c r="C401" t="n">
-        <v>0.1182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" s="2" t="n">
-        <v>44571</v>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2022-01-25</t>
+        </is>
       </c>
       <c r="C402" t="n">
-        <v>0.1274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" s="2" t="n">
-        <v>44571</v>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2022-01-21</t>
+        </is>
       </c>
       <c r="C403" t="n">
-        <v>0.1045</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" s="2" t="n">
-        <v>44571</v>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
       </c>
       <c r="C404" t="n">
-        <v>0.1048</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" s="2" t="n">
-        <v>44571</v>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
       </c>
       <c r="C405" t="n">
-        <v>0.0699</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" s="2" t="n">
-        <v>44571</v>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
       </c>
       <c r="C406" t="n">
-        <v>0.1062</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" s="2" t="n">
-        <v>44571</v>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
       </c>
       <c r="C407" t="n">
-        <v>0.1082</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" s="2" t="n">
-        <v>44571</v>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
       </c>
       <c r="C408" t="n">
-        <v>0.113</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" s="2" t="n">
-        <v>44564</v>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
       </c>
       <c r="C409" t="n">
-        <v>0.1297</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" s="2" t="n">
-        <v>44564</v>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
       </c>
       <c r="C410" t="n">
-        <v>0.1425</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" s="2" t="n">
-        <v>44564</v>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
       </c>
       <c r="C411" t="n">
-        <v>0.09</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" s="2" t="n">
-        <v>44564</v>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
       </c>
       <c r="C412" t="n">
-        <v>0.0828</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" s="2" t="n">
-        <v>44564</v>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
       </c>
       <c r="C413" t="n">
-        <v>0.06</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" s="2" t="n">
-        <v>44564</v>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
       </c>
       <c r="C414" t="n">
-        <v>0.1125</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" s="2" t="n">
-        <v>44564</v>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
       </c>
       <c r="C415" t="n">
-        <v>0.1091</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" s="2" t="n">
-        <v>44557</v>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
       </c>
       <c r="C416" t="n">
-        <v>0.0809</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" s="2" t="n">
-        <v>44557</v>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
       </c>
       <c r="C417" t="n">
-        <v>0.1225</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" s="2" t="n">
-        <v>44557</v>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
       </c>
       <c r="C418" t="n">
-        <v>0.1378</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" s="2" t="n">
-        <v>44557</v>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
       </c>
       <c r="C419" t="n">
-        <v>0.0993</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" s="2" t="n">
-        <v>44557</v>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
       </c>
       <c r="C420" t="n">
-        <v>0.1262</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" s="2" t="n">
-        <v>44557</v>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
       </c>
       <c r="C421" t="n">
-        <v>0.1067</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
         <v>420</v>
       </c>
-      <c r="B422" s="2" t="n">
-        <v>44557</v>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
       </c>
       <c r="C422" t="n">
-        <v>0.1186</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
         <v>421</v>
       </c>
-      <c r="B423" s="2" t="n">
-        <v>44550</v>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
       </c>
       <c r="C423" t="n">
-        <v>0.165</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
         <v>422</v>
       </c>
-      <c r="B424" s="2" t="n">
-        <v>44550</v>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
       </c>
       <c r="C424" t="n">
-        <v>0.1683</v>
+        <v>0.1685</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
         <v>423</v>
       </c>
-      <c r="B425" s="2" t="n">
-        <v>44550</v>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
       </c>
       <c r="C425" t="n">
-        <v>0.1631</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="B426" s="2" t="n">
-        <v>44550</v>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
       </c>
       <c r="C426" t="n">
-        <v>0.1318</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
         <v>425</v>
       </c>
-      <c r="B427" s="2" t="n">
-        <v>44550</v>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
       </c>
       <c r="C427" t="n">
-        <v>0.1117</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
         <v>426</v>
       </c>
-      <c r="B428" s="2" t="n">
-        <v>44550</v>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
       </c>
       <c r="C428" t="n">
-        <v>0.1012</v>
+        <v>0.2568</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2019</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2921</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1829</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.2003</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0002</v>
+        <v>0.1274</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0752</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0876</v>
+        <v>0.4609</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1711</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1545</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-03-04</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0961</v>
+        <v>-0.1759</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1457</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1862</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1005</v>
+        <v>0.8555</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1726</v>
+        <v>0.4196</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1891</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06569999999999999</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1831</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1013</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.22</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1792</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1282</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.098</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-01-22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1403</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-01-21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1897</v>
+        <v>-0.296</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1083</v>
+        <v>-0.296</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-01-19</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1317</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-01-17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1898</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1573</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1669</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1257</v>
+        <v>0.2793</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0472</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.06619999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-02-05</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0479</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1157</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.116</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1554</v>
+        <v>0.3185</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1754</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1534</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.1536</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2022-12-13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0863</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1669</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2022-12-11</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0835</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-01-22</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.09420000000000001</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-01-21</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.077</v>
+        <v>0.6249</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.2588</v>
+        <v>-0.3818</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-01-19</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.5181</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.3793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2022-11-27</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1445</v>
+        <v>0.2038</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1644</v>
+        <v>0.1781</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.1204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1304</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.063</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0897</v>
+        <v>0.2715</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.1346</v>
+        <v>-0.296</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1566</v>
+        <v>-0.1909</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1301</v>
+        <v>0.1147</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2022-11-12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1902</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1557</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1468</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-12-25</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.1039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.1631</v>
+        <v>-0.128</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.1384</v>
+        <v>0.3375</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1186</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0713</v>
+        <v>0.2108</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.0168</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.1702</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1605</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.1794</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.1273</v>
+        <v>-0.4184</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-12-11</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.1329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.2105</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1389</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.1023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.1182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.1116</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1467</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1235</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.1376</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.1447</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.08690000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-08-28</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1048</v>
+        <v>-0.0465</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-08-27</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.1411</v>
+        <v>0.5461</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-11-27</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.1232</v>
+        <v>0.1929</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.1443</v>
+        <v>-0.1589</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1169</v>
+        <v>0.5461</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.2053</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.1676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.1978</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.1855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-08-15</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1612</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-08-11</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.199</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.1702</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.1277</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1598</v>
+        <v>-0.4184</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.1462</v>
+        <v>-0.0723</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2022-11-12</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.1511</v>
+        <v>-0.1589</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.1518</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.1544</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.1752</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.1875</v>
+        <v>-0.1081</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.1583</v>
+        <v>-0.0162</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2022-11-06</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.1479</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.1606</v>
+        <v>-0.1586</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.1216</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.1498</v>
+        <v>-0.4082</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.1402</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.1384</v>
+        <v>0.1684</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1284</v>
+        <v>-0.1589</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.1251</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.1138</v>
+        <v>-0.1059</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.1393</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.2281</v>
+        <v>-0.4184</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.1628</v>
+        <v>-0.1586</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.1785</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.1396</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2022-10-23</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.1271</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.166</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.1114</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.1437</v>
+        <v>0.0489</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.1791</v>
+        <v>0.0429</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.2157</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1602</v>
+        <v>-0.0424</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.0916</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2022-10-15</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.1217</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.106</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="152">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0553</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="153">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1715</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="154">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.1311</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.1265</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.1368</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.1084</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.092</v>
+        <v>-0.2345</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.0992</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.1174</v>
+        <v>-0.1776</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.09719999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +2531,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2022-10-02</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-06-04</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.1068</v>
+        <v>0.2553</v>
       </c>
     </row>
     <row r="165">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.1059</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="166">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0919</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="167">
@@ -2596,11 +2596,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0975</v>
+        <v>0.2553</v>
       </c>
     </row>
     <row r="168">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.1454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.1445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -2635,11 +2635,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.1783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.1984</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="172">
@@ -2661,11 +2661,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.0738</v>
+        <v>0.4404</v>
       </c>
     </row>
     <row r="173">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.0804</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="174">
@@ -2687,11 +2687,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1218</v>
+        <v>0.2688</v>
       </c>
     </row>
     <row r="175">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.1526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.1323</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.2102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.2267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.1426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.1253</v>
+        <v>0.1227</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.1791</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.245</v>
+        <v>0.1472</v>
       </c>
     </row>
     <row r="185">
@@ -2830,11 +2830,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.176</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.1984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -2856,11 +2856,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1778</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="189">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2022-09-06</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.1275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -2895,11 +2895,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.1545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.2289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -2921,11 +2921,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2022-09-03</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.2275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.1474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.1983</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="195">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.1317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.1839</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="197">
@@ -2986,11 +2986,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.1889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3012,11 +3012,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2022-08-27</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.1454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2022-08-25</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.2176</v>
+        <v>-0.4334</v>
       </c>
     </row>
     <row r="202">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.274</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="203">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2022-08-23</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.2243</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="204">
@@ -3077,11 +3077,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.14</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="205">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2022-08-21</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.1674</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="206">
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.1331</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="207">
@@ -3116,11 +3116,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.1526</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="208">
@@ -3129,11 +3129,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.1739</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="209">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.1575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.182</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="211">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.1886</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="212">
@@ -3181,11 +3181,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3194,11 +3194,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.2761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.1363</v>
+        <v>-0.0258</v>
       </c>
     </row>
     <row r="215">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2022-08-11</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.1767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.1267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.2102</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="219">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.1581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.1596</v>
+        <v>0.5423</v>
       </c>
     </row>
     <row r="221">
@@ -3298,11 +3298,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.1912</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="222">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.2349</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="223">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.1805</v>
+        <v>-0.3818</v>
       </c>
     </row>
     <row r="224">
@@ -3337,11 +3337,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.1081</v>
+        <v>-0.3818</v>
       </c>
     </row>
     <row r="225">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.1885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3363,11 +3363,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.2106</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="227">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.1889</v>
+        <v>-0.0898</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.08690000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.1216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.0809</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-02-14</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.0594</v>
+        <v>-0.0898</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.1022</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.1792</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-02-09</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.07480000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.0926</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-02-06</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.1642</v>
+        <v>-0.3818</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.1567</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-02-03</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.1266</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.2081</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.109</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-01-20</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.2854</v>
+        <v>0.3515</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-01-18</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.3446</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.1015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.1313</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.062</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-01-13</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.0741</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.1193</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-01-08</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-01-07</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.0775</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-01-05</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.0602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.0148</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-01-03</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.0477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.0589</v>
+        <v>-0.5266999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2021-12-29</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.1135</v>
+        <v>0.5042</v>
       </c>
     </row>
     <row r="258">
@@ -3779,11 +3779,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.1715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -3792,11 +3792,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.1285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.1063</v>
+        <v>0.1724</v>
       </c>
     </row>
     <row r="261">
@@ -3818,2260 +3818,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2021-12-21</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.1612</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2022-06-15</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>0.1201</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2022-06-14</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>0.1201</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2022-06-13</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>0.0815</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2022-06-12</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>0.1156</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2022-06-11</t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>0.0948</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2022-06-10</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>0.1046</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2022-06-09</t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>0.0655</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2022-06-08</t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v>0.0413</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="C270" t="n">
-        <v>0.0143</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2022-06-06</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>0.1302</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2022-06-05</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>0.202</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2022-06-04</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="C274" t="n">
-        <v>-0.0425</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2022-06-02</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v>0.07770000000000001</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>0.0386</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2022-05-31</t>
-        </is>
-      </c>
-      <c r="C277" t="n">
-        <v>-0.0013</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2022-05-30</t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v>0.1411</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2022-05-28</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2022-05-27</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>0.1999</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2022-05-26</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>0.2941</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2022-05-25</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>0.1152</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2022-05-24</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>0.1372</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2022-05-23</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>0.1617</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2022-05-22</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>0.3402</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2022-05-21</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>0.2088</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2022-05-20</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>0.0707</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2022-05-19</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>0.2639</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2022-05-18</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>-0.0362</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2022-05-17</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>0.0664</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2022-05-16</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>-0.1211</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2022-05-15</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>0.4824</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2022-05-14</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2022-05-13</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>0.0086</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2022-05-12</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>0.0476</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2022-05-11</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>-0.0042</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2022-05-10</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>-0.0397</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2022-05-09</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>-0.0041</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2022-05-08</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2022-05-07</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2022-05-06</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>-0.06909999999999999</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2022-05-05</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>-0.0795</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2022-05-04</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>0.1144</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>0.0706</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2022-05-02</t>
-        </is>
-      </c>
-      <c r="C306" t="n">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
-      </c>
-      <c r="C307" t="n">
-        <v>0.0653</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
-      </c>
-      <c r="C308" t="n">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2022-04-29</t>
-        </is>
-      </c>
-      <c r="C309" t="n">
-        <v>0.1079</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2022-04-28</t>
-        </is>
-      </c>
-      <c r="C310" t="n">
-        <v>0.0906</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2022-04-27</t>
-        </is>
-      </c>
-      <c r="C311" t="n">
-        <v>0.0958</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2022-04-26</t>
-        </is>
-      </c>
-      <c r="C312" t="n">
-        <v>0.099</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
-        </is>
-      </c>
-      <c r="C313" t="n">
-        <v>0.1296</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2022-04-24</t>
-        </is>
-      </c>
-      <c r="C314" t="n">
-        <v>0.1031</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2022-04-23</t>
-        </is>
-      </c>
-      <c r="C315" t="n">
-        <v>0.1118</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2022-04-22</t>
-        </is>
-      </c>
-      <c r="C316" t="n">
-        <v>0.1024</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2022-04-21</t>
-        </is>
-      </c>
-      <c r="C317" t="n">
-        <v>0.0916</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2022-04-20</t>
-        </is>
-      </c>
-      <c r="C318" t="n">
-        <v>0.0491</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2022-04-19</t>
-        </is>
-      </c>
-      <c r="C319" t="n">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-      <c r="C320" t="n">
-        <v>0.08939999999999999</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2022-04-17</t>
-        </is>
-      </c>
-      <c r="C321" t="n">
-        <v>0.0408</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2022-04-16</t>
-        </is>
-      </c>
-      <c r="C322" t="n">
-        <v>0.0524</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2022-04-15</t>
-        </is>
-      </c>
-      <c r="C323" t="n">
-        <v>0.0688</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2022-04-14</t>
-        </is>
-      </c>
-      <c r="C324" t="n">
-        <v>0.0979</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2022-04-13</t>
-        </is>
-      </c>
-      <c r="C325" t="n">
-        <v>0.0767</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2022-04-12</t>
-        </is>
-      </c>
-      <c r="C326" t="n">
-        <v>0.1309</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2022-04-11</t>
-        </is>
-      </c>
-      <c r="C327" t="n">
-        <v>0.1099</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2022-04-10</t>
-        </is>
-      </c>
-      <c r="C328" t="n">
-        <v>0.0776</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2022-04-09</t>
-        </is>
-      </c>
-      <c r="C329" t="n">
-        <v>0.1144</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2022-04-08</t>
-        </is>
-      </c>
-      <c r="C330" t="n">
-        <v>0.1078</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2022-04-07</t>
-        </is>
-      </c>
-      <c r="C331" t="n">
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2022-04-06</t>
-        </is>
-      </c>
-      <c r="C332" t="n">
-        <v>0.1095</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2022-04-05</t>
-        </is>
-      </c>
-      <c r="C333" t="n">
-        <v>0.0824</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2022-04-04</t>
-        </is>
-      </c>
-      <c r="C334" t="n">
-        <v>0.1167</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2022-04-03</t>
-        </is>
-      </c>
-      <c r="C335" t="n">
-        <v>0.1441</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2022-04-02</t>
-        </is>
-      </c>
-      <c r="C336" t="n">
-        <v>0.1572</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2022-04-01</t>
-        </is>
-      </c>
-      <c r="C337" t="n">
-        <v>0.1554</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2022-03-31</t>
-        </is>
-      </c>
-      <c r="C338" t="n">
-        <v>0.1949</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2022-03-30</t>
-        </is>
-      </c>
-      <c r="C339" t="n">
-        <v>0.1323</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2022-03-29</t>
-        </is>
-      </c>
-      <c r="C340" t="n">
-        <v>0.1975</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2022-03-28</t>
-        </is>
-      </c>
-      <c r="C341" t="n">
-        <v>0.2482</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2022-03-27</t>
-        </is>
-      </c>
-      <c r="C342" t="n">
-        <v>0.2114</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2022-03-26</t>
-        </is>
-      </c>
-      <c r="C343" t="n">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2022-03-25</t>
-        </is>
-      </c>
-      <c r="C344" t="n">
-        <v>0.2336</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>2022-03-24</t>
-        </is>
-      </c>
-      <c r="C345" t="n">
-        <v>0.2267</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2022-03-23</t>
-        </is>
-      </c>
-      <c r="C346" t="n">
-        <v>0.2222</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2022-03-22</t>
-        </is>
-      </c>
-      <c r="C347" t="n">
-        <v>0.1787</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2022-03-21</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>0.1956</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2022-03-20</t>
-        </is>
-      </c>
-      <c r="C349" t="n">
-        <v>0.2856</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2022-03-19</t>
-        </is>
-      </c>
-      <c r="C350" t="n">
-        <v>0.3167</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2022-03-18</t>
-        </is>
-      </c>
-      <c r="C351" t="n">
-        <v>0.2625</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2022-03-17</t>
-        </is>
-      </c>
-      <c r="C352" t="n">
-        <v>0.2443</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2022-03-16</t>
-        </is>
-      </c>
-      <c r="C353" t="n">
-        <v>0.2227</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2022-03-15</t>
-        </is>
-      </c>
-      <c r="C354" t="n">
-        <v>0.321</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
-        </is>
-      </c>
-      <c r="C355" t="n">
-        <v>0.2696</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2022-03-13</t>
-        </is>
-      </c>
-      <c r="C356" t="n">
-        <v>0.2479</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2022-03-12</t>
-        </is>
-      </c>
-      <c r="C357" t="n">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2022-03-11</t>
-        </is>
-      </c>
-      <c r="C358" t="n">
-        <v>0.2727</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2022-03-10</t>
-        </is>
-      </c>
-      <c r="C359" t="n">
-        <v>0.2358</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2022-03-09</t>
-        </is>
-      </c>
-      <c r="C360" t="n">
-        <v>0.1648</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2022-03-08</t>
-        </is>
-      </c>
-      <c r="C361" t="n">
-        <v>0.1972</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2022-03-07</t>
-        </is>
-      </c>
-      <c r="C362" t="n">
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
-      </c>
-      <c r="C363" t="n">
-        <v>0.2236</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2022-03-05</t>
-        </is>
-      </c>
-      <c r="C364" t="n">
-        <v>0.2281</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2022-03-04</t>
-        </is>
-      </c>
-      <c r="C365" t="n">
-        <v>0.0926</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2022-03-03</t>
-        </is>
-      </c>
-      <c r="C366" t="n">
-        <v>0.1828</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2022-03-02</t>
-        </is>
-      </c>
-      <c r="C367" t="n">
-        <v>-0.1645</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2022-03-01</t>
-        </is>
-      </c>
-      <c r="C368" t="n">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2022-02-28</t>
-        </is>
-      </c>
-      <c r="C369" t="n">
-        <v>0.0476</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2022-02-27</t>
-        </is>
-      </c>
-      <c r="C370" t="n">
-        <v>-0.0147</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2022-02-26</t>
-        </is>
-      </c>
-      <c r="C371" t="n">
-        <v>0.1994</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2022-02-25</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
-        <v>0.0968</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2022-02-24</t>
-        </is>
-      </c>
-      <c r="C373" t="n">
-        <v>0.1217</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
-      </c>
-      <c r="C374" t="n">
-        <v>-0.0034</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2022-02-22</t>
-        </is>
-      </c>
-      <c r="C375" t="n">
-        <v>0.2746</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2022-02-21</t>
-        </is>
-      </c>
-      <c r="C376" t="n">
-        <v>0.7096</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2022-02-20</t>
-        </is>
-      </c>
-      <c r="C377" t="n">
-        <v>0.3055</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2022-02-19</t>
-        </is>
-      </c>
-      <c r="C378" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2022-02-18</t>
-        </is>
-      </c>
-      <c r="C379" t="n">
-        <v>-0.0251</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2022-02-17</t>
-        </is>
-      </c>
-      <c r="C380" t="n">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2022-02-16</t>
-        </is>
-      </c>
-      <c r="C381" t="n">
-        <v>0.0582</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2022-02-15</t>
-        </is>
-      </c>
-      <c r="C382" t="n">
-        <v>0.1146</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2022-02-14</t>
-        </is>
-      </c>
-      <c r="C383" t="n">
-        <v>-0.0357</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2022-02-13</t>
-        </is>
-      </c>
-      <c r="C384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2022-02-12</t>
-        </is>
-      </c>
-      <c r="C385" t="n">
-        <v>0.1789</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2022-02-11</t>
-        </is>
-      </c>
-      <c r="C386" t="n">
-        <v>0.1136</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2022-02-10</t>
-        </is>
-      </c>
-      <c r="C387" t="n">
-        <v>0.0293</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2022-02-09</t>
-        </is>
-      </c>
-      <c r="C388" t="n">
-        <v>0.0944</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2022-02-08</t>
-        </is>
-      </c>
-      <c r="C389" t="n">
-        <v>0.0786</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2022-02-07</t>
-        </is>
-      </c>
-      <c r="C390" t="n">
-        <v>0.0428</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2022-02-06</t>
-        </is>
-      </c>
-      <c r="C391" t="n">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2022-02-05</t>
-        </is>
-      </c>
-      <c r="C392" t="n">
-        <v>0.0533</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2022-02-04</t>
-        </is>
-      </c>
-      <c r="C393" t="n">
-        <v>0.1201</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2022-02-03</t>
-        </is>
-      </c>
-      <c r="C394" t="n">
-        <v>-0.0048</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="C395" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2022-02-01</t>
-        </is>
-      </c>
-      <c r="C396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2022-01-31</t>
-        </is>
-      </c>
-      <c r="C397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2022-01-29</t>
-        </is>
-      </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2022-01-28</t>
-        </is>
-      </c>
-      <c r="C399" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2022-01-27</t>
-        </is>
-      </c>
-      <c r="C400" t="n">
-        <v>0.2936</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2022-01-26</t>
-        </is>
-      </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2022-01-25</t>
-        </is>
-      </c>
-      <c r="C402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2022-01-21</t>
-        </is>
-      </c>
-      <c r="C403" t="n">
-        <v>0.367</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2022-01-20</t>
-        </is>
-      </c>
-      <c r="C404" t="n">
-        <v>0.1637</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2022-01-19</t>
-        </is>
-      </c>
-      <c r="C405" t="n">
-        <v>0.1167</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2022-01-18</t>
-        </is>
-      </c>
-      <c r="C406" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2022-01-17</t>
-        </is>
-      </c>
-      <c r="C407" t="n">
-        <v>0.0897</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2022-01-16</t>
-        </is>
-      </c>
-      <c r="C408" t="n">
-        <v>0.0969</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2022-01-15</t>
-        </is>
-      </c>
-      <c r="C409" t="n">
-        <v>0.1123</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2022-01-14</t>
-        </is>
-      </c>
-      <c r="C410" t="n">
-        <v>0.1335</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2022-01-13</t>
-        </is>
-      </c>
-      <c r="C411" t="n">
-        <v>0.1219</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2022-01-12</t>
-        </is>
-      </c>
-      <c r="C412" t="n">
-        <v>0.0837</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2022-01-11</t>
-        </is>
-      </c>
-      <c r="C413" t="n">
-        <v>0.0359</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2022-01-10</t>
-        </is>
-      </c>
-      <c r="C414" t="n">
-        <v>0.1146</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2022-01-09</t>
-        </is>
-      </c>
-      <c r="C415" t="n">
-        <v>0.1785</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2022-01-08</t>
-        </is>
-      </c>
-      <c r="C416" t="n">
-        <v>0.1673</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2022-01-07</t>
-        </is>
-      </c>
-      <c r="C417" t="n">
-        <v>0.1411</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2022-01-06</t>
-        </is>
-      </c>
-      <c r="C418" t="n">
-        <v>0.2813</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2022-01-05</t>
-        </is>
-      </c>
-      <c r="C419" t="n">
-        <v>0.1483</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2022-01-04</t>
-        </is>
-      </c>
-      <c r="C420" t="n">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2022-01-03</t>
-        </is>
-      </c>
-      <c r="C421" t="n">
-        <v>0.1272</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2022-01-02</t>
-        </is>
-      </c>
-      <c r="C422" t="n">
-        <v>0.2067</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="C423" t="n">
-        <v>0.1297</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2021-12-31</t>
-        </is>
-      </c>
-      <c r="C424" t="n">
-        <v>0.1685</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2021-12-30</t>
-        </is>
-      </c>
-      <c r="C425" t="n">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2021-12-29</t>
-        </is>
-      </c>
-      <c r="C426" t="n">
-        <v>0.2831</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2021-12-28</t>
-        </is>
-      </c>
-      <c r="C427" t="n">
-        <v>0.2399</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2021-12-27</t>
-        </is>
-      </c>
-      <c r="C428" t="n">
-        <v>0.2568</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2021-12-26</t>
-        </is>
-      </c>
-      <c r="C429" t="n">
-        <v>0.2019</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>2021-12-25</t>
-        </is>
-      </c>
-      <c r="C430" t="n">
-        <v>0.2921</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>2021-12-24</t>
-        </is>
-      </c>
-      <c r="C431" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>2021-12-23</t>
-        </is>
-      </c>
-      <c r="C432" t="n">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>2021-12-22</t>
-        </is>
-      </c>
-      <c r="C433" t="n">
-        <v>0.1829</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>2021-12-21</t>
-        </is>
-      </c>
-      <c r="C434" t="n">
-        <v>0.2003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.1145</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0692</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.2014</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1759</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1553</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4019</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2023-03-05</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.2476</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-11-12</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4588</v>
+        <v>0.1816</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.1843</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.2027</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1533</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2023-02-26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1252</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.1513</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.09660000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4404</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.016</v>
+        <v>0.1962</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.34</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4019</v>
+        <v>-0.07829999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2023</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-09-06</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4588</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.1208</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.1235</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3859</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.1887</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5106000000000001</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1366</v>
+        <v>0.1497</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.1315</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.1471</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.2732</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.1464</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.2732</v>
+        <v>0.1753</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.2732</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.1072</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1691</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2023-01-22</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2023-01-21</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2023-01-19</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2023-01-17</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.1149</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5106000000000001</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.2553</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.0735</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.4019</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.3021</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-0.0472</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.4019</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.201</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1198</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.2023</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1496</v>
+        <v>0.09710000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.148</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.4019</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4019</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.4212</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.201</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2263</v>
+        <v>0.0692</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.4019</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.148</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-12-25</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-01-20</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.1129</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-01-18</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.1019</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.0743</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.134</v>
+        <v>0.1471</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.4019</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,4392 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.07820000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2022-12-11</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1609</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2022-12-10</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.07530000000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.0533</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.0779</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.0717</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2022-12-04</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1456</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2151</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1268</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1335</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0885</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2022-11-20</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1137</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0842</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.0649</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.0339</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.2103</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1577</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0788</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2022-11-01</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1006</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2022-10-30</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2022-10-29</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1276</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2022-10-23</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.2109</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1981</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.1303</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0956</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2022-10-18</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2022-10-17</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1281</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2022-10-16</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1538</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2022-10-15</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.1054</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0912</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0922</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1131</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2022-10-09</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0906</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2022-10-08</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.09420000000000001</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2022-10-07</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.1655</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2022-10-05</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.1266</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2022-10-01</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0959</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0984</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2022-09-25</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.1659</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.1044</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.09320000000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.09320000000000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2022-09-18</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.1244</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2022-09-17</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.1559</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0961</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1431</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2022-09-11</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2117</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.1518</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.1894</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1723</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.1107</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2022-09-05</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2022-09-04</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2022-09-03</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2458</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.1287</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.1132</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.1238</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2022-08-27</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1482</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1282</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1327</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2022-08-21</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1693</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2022-08-20</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1732</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1717</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1556</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1204</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1394</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2022-08-14</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1345</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1675</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1395</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1601</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.1167</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.1357</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.09180000000000001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2022-07-24</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1561</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2022-07-23</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1713</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.0762</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.0927</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.0828</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2022-07-17</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2022-07-16</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.0925</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.0993</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1143</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2022-07-10</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1582</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2022-07-09</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1411</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1312</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0725</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0833</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0721</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0997</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.0781</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.0526</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.0934</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0866</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1766</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.0867</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1193</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1126</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0939</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2022-06-12</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.2385</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.2231</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2022-06-10</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1541</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2022-06-09</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1387</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2022-06-08</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1293</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0951</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2022-06-05</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1209</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1012</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0856</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2022-06-02</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.0871</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.0985</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2022-05-29</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1664</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2022-05-28</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.0436</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1312</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2022-05-26</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2022-05-25</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1465</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2022-05-24</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.07729999999999999</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2022-05-23</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.07240000000000001</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2022-05-22</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1093</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2022-05-21</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1382</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2022-05-20</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2022-05-19</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2022-05-18</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>-0.0226</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.0276</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2022-05-16</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2022-05-15</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1528</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2022-05-14</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1888</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2022-05-13</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0771</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2022-05-12</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2022-05-11</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1632</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2022-05-10</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.0403</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2022-05-09</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0838</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2022-05-08</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.0738</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.07770000000000001</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2022-05-06</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1374</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.0968</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2022-05-04</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1184</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.0911</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.0707</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0272</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2022-04-24</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.0864</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1117</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0442</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.0174</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.0482</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0815</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>2022-04-17</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.0979</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>2022-04-15</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.0823</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.0969</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2022-04-10</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1086</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1146</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2022-04-03</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.0741</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1269</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.08840000000000001</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1604</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>2022-03-27</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1629</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2022-03-26</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2022-03-23</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.1369</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2022-03-22</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>2022-03-21</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2643</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1987</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2022-03-13</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>2022-03-12</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>2022-03-11</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1734</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>2022-03-10</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.0994</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>2022-03-09</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>2022-03-08</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.0955</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>2022-03-07</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1414</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>2022-03-06</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>2022-03-05</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.0892</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1338</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>2022-02-27</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.0355</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2022-02-24</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1499</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2022-02-23</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1345</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2022-02-22</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1448</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2022-02-21</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.06619999999999999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2022-02-20</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.2655</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2022-02-19</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.0573</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.0931</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.0574</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2022-02-16</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>-0.0418</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2022-02-15</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1652</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2022-02-13</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.0878</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2022-02-12</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1898</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2022-02-11</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1777</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2022-02-10</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0755</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2022-02-09</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.2259</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.2019</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2022-02-06</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.2947</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2022-02-05</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2022-02-04</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2022-02-03</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.0759</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2022-02-01</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2022-01-29</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>-0.3182</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2022-01-27</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.4215</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2022-01-18</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.0847</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2022-01-17</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.1182</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2022-01-16</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1274</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2022-01-15</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2022-01-14</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2022-01-13</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.0699</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2022-01-11</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1082</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2022-01-10</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2022-01-09</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1297</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2022-01-08</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1425</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2022-01-07</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2022-01-06</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.0828</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2022-01-05</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.1091</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.0809</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.1378</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.0993</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1262</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
           <t>2021-12-27</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
+      <c r="C424" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1683</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.1631</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1117</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2021-12-21</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.1012</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/initial_news.xlsx
+++ b/Excel reports/initial_news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2164</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0709</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1398</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0332</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1048</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0521</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1486</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.152</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1572</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1219</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1428</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1096</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0673</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0297</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1524</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1025</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1903</v>
+        <v>0.1726</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1322</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0891</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.03</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0335</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1825</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1184</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1326</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1313</v>
+        <v>0.1282</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1223</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1628</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1616</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1118</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1621</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1922</v>
+        <v>0.1573</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1881</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0915</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.1062</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1256</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1516</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.1184</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1577</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.0738</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1219</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.168</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.145</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1144</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0907</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1289</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1156</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0205</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.0858</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1138</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1736</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0501</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1162</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.1402</v>
+        <v>-0.2588</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1117</v>
+        <v>-0.5181</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1624</v>
+        <v>-0.3793</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1428</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1757</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.176</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1138</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1597</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1199</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1751</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1751</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2219</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.2104</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.0847</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1392</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1013</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.0735</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1032</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.0843</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1418</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1984</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1509</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0506</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1243</v>
+        <v>0.1468</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1024</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.08309999999999999</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2124</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1051</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.174</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.1657</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0508</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.1382</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="90">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1285</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="91">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.1168</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="92">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.1605</v>
       </c>
     </row>
     <row r="93">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.112</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="94">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="95">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.143</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="96">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1684</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="97">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.1526</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="98">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.1401</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="99">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.1701</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="100">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1211</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="101">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0809</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.1397</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.1374</v>
+        <v>0.1235</v>
       </c>
     </row>
     <row r="104">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0849</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1021</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.1119</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0979</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="108">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="109">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1493</v>
+        <v>0.1232</v>
       </c>
     </row>
     <row r="110">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0917</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="111">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.2184</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="112">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.1655</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="113">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0409</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="114">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0994</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="115">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1428</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="116">
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1382</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.1569</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="118">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2633</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="119">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3688</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="120">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1911</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="121">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.1476</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="122">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.1362</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="123">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.139</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="124">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.1595</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="125">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.056</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="126">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.1766</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="127">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.1081</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="128">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.1144</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.1502</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="130">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.139</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="131">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.1756</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="132">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2049</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="133">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.1341</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="134">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1731</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="135">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.1928</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="136">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.1545</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="137">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.2286</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="138">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.1959</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="139">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.1191</v>
+        <v>0.1393</v>
       </c>
     </row>
     <row r="140">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.134</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="141">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.1295</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="142">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.1645</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="143">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.1677</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="144">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.1969</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="145">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.192</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="146">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.1592</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="147">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.1166</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="148">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1729</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="149">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.2605</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="150">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.168</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="151">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.2674</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="152">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.1757</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="153">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1251</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="154">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.1665</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="155">
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.0862</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="156">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.2122</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="157">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.2225</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="158">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.098</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="159">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.195</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="160">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.1142</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="161">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="162">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0059</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="163">
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0406</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.1507</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="165">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.1062</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="166">
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0921</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="167">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.2411</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="168">
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.221</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="169">
@@ -2639,7 +2639,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.0711</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="171">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.2032</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="172">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.1439</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="173">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.135</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="174">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1268</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="175">
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.0643</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="176">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.0961</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="177">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.0349</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="178">
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1248</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="179">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.1442</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="180">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.1263</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="181">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1501</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="182">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.0616</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="183">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.1536</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="184">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.145</v>
+        <v>0.1253</v>
       </c>
     </row>
     <row r="185">
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.1017</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="186">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.0476</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="187">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.1381</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="188">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1146</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="189">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.0612</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="190">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.1872</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="191">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.111</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="192">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.1786</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="193">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.2495</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="194">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.367</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="195">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.1573</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="196">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="197">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="198">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.1611</v>
+        <v>0.1839</v>
       </c>
     </row>
     <row r="199">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1991</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="200">
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.226</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="201">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.1022</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="202">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.0555</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="203">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.046</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="204">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.162</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="205">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.2065</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="206">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.2286</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="207">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.2165</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="208">
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.2199</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="209">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.1292</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="210">
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.1347</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="211">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.1565</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="212">
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1653</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="213">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.1785</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="214">
@@ -3211,7 +3211,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.1775</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="215">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.118</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="216">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.0699</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="217">
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.0626</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="218">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.111</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="219">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.0793</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="220">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.1415</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="221">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.1238</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="222">
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.1377</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="223">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.1763</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="224">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.1545</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="225">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.1808</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="226">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.2534</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="227">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.2397</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="228">
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="229">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>-0.0124</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="230">
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.1058</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="231">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.12</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="232">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.2664</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="233">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.3068</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="234">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.1615</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.2526</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="236">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.1453</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="237">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.2222</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="238">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.1914</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="239">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.1793</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="240">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.1781</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="241">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.1712</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="242">
@@ -3575,7 +3575,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.1512</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="243">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.259</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="244">
@@ -3601,7 +3601,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.1554</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="245">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.2633</v>
+        <v>0.3446</v>
       </c>
     </row>
     <row r="246">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.2354</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="247">
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.2079</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="248">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.1256</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="249">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.1636</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="250">
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.1258</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="251">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.1334</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="252">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>-0.1077</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="253">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0.2276</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="254">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.197</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="255">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.0762</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.1692</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="257">
@@ -3770,7 +3770,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.1497</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="258">
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.0369</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="259">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.1675</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="260">
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.141</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="261">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.1553</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="262">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>-0.06569999999999999</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="263">
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.147</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="264">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.1229</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="265">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.0634</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="266">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.0046</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="267">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.1564</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="268">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.1904</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="269">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.1822</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="270">
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0902</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="271">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="272">
@@ -3965,7 +3965,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="273">
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.2187</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="274">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>0.1065</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="275">
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.0557</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="276">
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0022</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="277">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>-0.0013</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="278">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.0175</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="279">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0.2821</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="280">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.2293</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="281">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.2877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.2141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.1986</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="284">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>-0.04</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="285">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>-0.1069</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="286">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.0218</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="287">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.0921</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="288">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0876</v>
+        <v>0.3402</v>
       </c>
     </row>
     <row r="289">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.1719</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="290">
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>0.2481</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="291">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.4889</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="292">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>0.4007</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="293">
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.1819</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="294">
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0.2205</v>
+        <v>-0.1211</v>
       </c>
     </row>
     <row r="295">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.3449</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="296">
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.6767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0.0791</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="298">
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0.1847</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="299">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0.0045</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="300">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.1307</v>
+        <v>-0.0397</v>
       </c>
     </row>
     <row r="301">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0.0405</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="302">
@@ -4355,7 +4355,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.221</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="303">
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>0.0253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>-0.0037</v>
+        <v>-0.06909999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.0075</v>
+        <v>-0.0795</v>
       </c>
     </row>
     <row r="306">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.3028</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="307">
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="308">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.0674</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="309">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.1264</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="310">
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.1484</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="311">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0494</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="312">
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.0847</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="313">
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="314">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>-0.1776</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="315">
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>-0.0226</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.3395</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0775</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.0975</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.0796</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>-0.5106000000000001</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>-0.1012</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.2354</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.2334</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.6801</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.2202</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.1144</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.0248</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.1242</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.2545</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.0387</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.2023</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.2732</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.4701</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.5163</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>-0.0184</v>
+        <v>0.2443</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>-0.093</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.2732</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>-0.0143</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.4019</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.1793</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.3124</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="365">
@@ -5170,11 +5170,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.2732</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="366">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.3243</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="367">
@@ -5196,11 +5196,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>0.4767</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="368">
@@ -5209,11 +5209,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.0193</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="369">
@@ -5222,11 +5222,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.0257</v>
+        <v>-0.1645</v>
       </c>
     </row>
     <row r="370">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0.1148</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="371">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.1</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="372">
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-27</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.1349</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="373">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2022-02-21</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="374">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2022-02-20</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="375">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.2986</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="376">
@@ -5313,11 +5313,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.3404</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="377">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.093</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="378">
@@ -5339,11 +5339,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-21</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>0.7096</v>
       </c>
     </row>
     <row r="379">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>0.0386</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="380">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.2446</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="382">
@@ -5391,11 +5391,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="383">
@@ -5404,11 +5404,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="384">
@@ -5417,11 +5417,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>-0.0276</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="385">
@@ -5430,11 +5430,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-14</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.134</v>
+        <v>-0.0357</v>
       </c>
     </row>
     <row r="386">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>-0.089</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="388">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.1005</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="389">
@@ -5482,11 +5482,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="390">
@@ -5495,11 +5495,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-02-09</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="391">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="392">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2022-01-20</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>-0.0097</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="393">
@@ -5534,11 +5534,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-06</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.1583</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="394">
@@ -5547,11 +5547,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2022-01-18</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>0.1034</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="395">
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0.108</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="396">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2022-01-16</t>
+          <t>2022-02-03</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0.1831</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="397">
@@ -5586,11 +5586,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>0.3211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -5599,11 +5599,11 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>0.1487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -5612,11 +5612,11 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2022-01-13</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>0.1435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-01-29</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -5638,11 +5638,11 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>0.1246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-01-27</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0.0157</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="403">
@@ -5664,11 +5664,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.2246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -5677,11 +5677,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.1215</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="406">
@@ -5703,11 +5703,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-20</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.1813</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="407">
@@ -5716,11 +5716,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.0752</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="408">
@@ -5729,11 +5729,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2022-01-18</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.1387</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="409">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.1015</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="410">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-01-16</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.1</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="411">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.219</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="412">
@@ -5781,11 +5781,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.2357</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="413">
@@ -5794,11 +5794,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2022-01-13</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.238</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="414">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2021-12-29</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.2201</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="415">
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.1726</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="416">
@@ -5833,11 +5833,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.1886</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="417">
@@ -5846,11 +5846,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2021-12-26</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.2722</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="418">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2021-12-25</t>
+          <t>2022-01-08</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.3981</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="419">
@@ -5872,11 +5872,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2022-01-07</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.2592</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="420">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.1089</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="421">
@@ -5898,11 +5898,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>2022-01-05</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="422">
@@ -5911,11 +5911,193 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
+          <t>2022-01-04</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1272</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2022-01-02</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.2067</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.1297</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2021-12-31</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1685</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2021-12-29</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.2831</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2021-12-28</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2568</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2021-12-26</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2019</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2021-12-25</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.2921</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2021-12-24</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1829</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="C422" t="n">
-        <v>0.136</v>
+      <c r="C436" t="n">
+        <v>0.2003</v>
       </c>
     </row>
   </sheetData>
